--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="555">
   <si>
     <t>定义企业产品属性表</t>
   </si>
@@ -1562,6 +1562,12 @@
   </si>
   <si>
     <t>用户公司表(USER_COMPANY)</t>
+  </si>
+  <si>
+    <t>COMPANY_DEPARTMENT_INFO_ID</t>
+  </si>
+  <si>
+    <t>部门ID</t>
   </si>
   <si>
     <t>工厂信息表(FACTORY_INFO)</t>
@@ -2149,15 +2155,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2172,23 +2177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2196,6 +2185,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2210,44 +2207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2261,14 +2221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2290,8 +2252,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2417,7 +2423,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2429,13 +2477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,13 +2507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2465,7 +2537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2477,7 +2549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2489,103 +2579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2664,6 +2670,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2671,6 +2692,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2686,15 +2725,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2737,30 +2767,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2769,10 +2775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2784,133 +2790,133 @@
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -10661,10 +10667,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M652"/>
+  <dimension ref="A2:M653"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12967,148 +12973,148 @@
       <c r="F157" s="20"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158" s="13"/>
+      <c r="B158" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F158" s="20"/>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F159" s="13"/>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F160" s="13"/>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F161" s="13"/>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C163" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13" t="s">
+      <c r="D163" s="13"/>
+      <c r="E163" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F162" s="13" t="s">
+      <c r="F163" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="2:6">
-      <c r="B163" s="16" t="s">
+    <row r="164" spans="2:6">
+      <c r="B164" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C164" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16" t="s">
+      <c r="D164" s="16"/>
+      <c r="E164" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F163" s="16" t="s">
+      <c r="F164" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="164" spans="2:6">
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="5">
+    <row r="165" spans="2:6">
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="5">
         <v>10</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="9"/>
-    </row>
-    <row r="167" spans="2:6">
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C168" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D168" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E167" s="10" t="s">
+      <c r="E168" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="10" t="s">
+      <c r="F168" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:6">
-      <c r="B168" s="11" t="s">
+    <row r="169" spans="2:6">
+      <c r="B169" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C168" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12" t="s">
+      <c r="C169" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F168" s="13"/>
-    </row>
-    <row r="169" s="2" customFormat="1" spans="2:6">
-      <c r="B169" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="F169" s="28"/>
+      <c r="F169" s="13"/>
     </row>
     <row r="170" s="2" customFormat="1" spans="2:6">
       <c r="B170" s="30" t="s">
@@ -13123,149 +13129,149 @@
       </c>
       <c r="F170" s="28"/>
     </row>
-    <row r="171" spans="2:6">
-      <c r="B171" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171" s="13"/>
+    <row r="171" s="2" customFormat="1" spans="2:6">
+      <c r="B171" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F171" s="28"/>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F172" s="13"/>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F173" s="13"/>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F174" s="13"/>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="13"/>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C176" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13" t="s">
+      <c r="D176" s="13"/>
+      <c r="E176" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F175" s="13" t="s">
+      <c r="F176" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="2:6">
-      <c r="B176" s="16" t="s">
+    <row r="177" spans="2:6">
+      <c r="B177" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C176" s="16" t="s">
+      <c r="C177" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16" t="s">
+      <c r="D177" s="16"/>
+      <c r="E177" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F176" s="16" t="s">
+      <c r="F177" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="177" spans="2:6">
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="5">
+    <row r="178" spans="2:6">
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="5">
         <v>11</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C179" s="7"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="9"/>
-    </row>
-    <row r="180" spans="2:6">
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D181" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="10" t="s">
+      <c r="E181" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F180" s="10" t="s">
+      <c r="F181" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="2:6">
-      <c r="B181" s="11" t="s">
+    <row r="182" spans="2:6">
+      <c r="B182" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12" t="s">
+      <c r="C182" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F181" s="13"/>
-    </row>
-    <row r="182" s="2" customFormat="1" spans="2:6">
-      <c r="B182" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="C182" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="F182" s="28"/>
+      <c r="F182" s="13"/>
     </row>
     <row r="183" s="2" customFormat="1" spans="2:6">
       <c r="B183" s="30" t="s">
@@ -13280,467 +13286,467 @@
       </c>
       <c r="F183" s="28"/>
     </row>
-    <row r="184" spans="2:6">
-      <c r="B184" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" s="13"/>
+    <row r="184" s="2" customFormat="1" spans="2:6">
+      <c r="B184" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F184" s="28"/>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F185" s="13"/>
     </row>
     <row r="186" spans="2:6">
       <c r="B186" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F186" s="13"/>
     </row>
     <row r="187" spans="2:6">
       <c r="B187" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F187" s="13"/>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F188" s="13"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C189" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13" t="s">
+      <c r="D189" s="13"/>
+      <c r="E189" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F188" s="13" t="s">
+      <c r="F189" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="2:6">
-      <c r="B189" s="16" t="s">
+    <row r="190" spans="2:6">
+      <c r="B190" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C189" s="16" t="s">
+      <c r="C190" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16" t="s">
+      <c r="D190" s="16"/>
+      <c r="E190" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F189" s="16" t="s">
+      <c r="F190" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="190" spans="2:6">
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="5">
+    <row r="191" spans="2:6">
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="5">
         <v>12</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C192" s="7"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="9"/>
-    </row>
-    <row r="193" spans="2:6">
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C194" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D194" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E193" s="10" t="s">
+      <c r="E194" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F193" s="10" t="s">
+      <c r="F194" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="2:6">
-      <c r="B194" s="11" t="s">
+    <row r="195" spans="2:6">
+      <c r="B195" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12" t="s">
+      <c r="C195" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F194" s="13"/>
-    </row>
-    <row r="195" spans="2:6">
-      <c r="B195" s="20" t="s">
+      <c r="F195" s="13"/>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="C195" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" s="22"/>
-      <c r="E195" s="22" t="s">
+      <c r="C196" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="22"/>
+      <c r="E196" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="F195" s="20"/>
-    </row>
-    <row r="196" s="1" customFormat="1" spans="2:6">
-      <c r="B196" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C196" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" s="21"/>
-      <c r="E196" s="21" t="s">
-        <v>402</v>
-      </c>
       <c r="F196" s="20"/>
     </row>
-    <row r="197" spans="2:6">
-      <c r="B197" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F197" s="13"/>
+    <row r="197" s="1" customFormat="1" spans="2:6">
+      <c r="B197" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F197" s="20"/>
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F198" s="13"/>
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F199" s="13"/>
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F200" s="13"/>
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201" s="13"/>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C202" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13" t="s">
+      <c r="D202" s="13"/>
+      <c r="E202" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F201" s="13" t="s">
+      <c r="F202" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="2:6">
-      <c r="B202" s="16" t="s">
+    <row r="203" spans="2:6">
+      <c r="B203" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C202" s="16" t="s">
+      <c r="C203" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D202" s="16"/>
-      <c r="E202" s="16" t="s">
+      <c r="D203" s="16"/>
+      <c r="E203" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F202" s="16" t="s">
+      <c r="F203" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="203" spans="2:6">
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="5">
+    <row r="204" spans="2:6">
+      <c r="B204" s="18"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="5">
         <v>13</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C205" s="7"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="9"/>
-    </row>
-    <row r="206" spans="2:6">
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="9"/>
+    </row>
+    <row r="207" spans="2:6">
+      <c r="B207" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C207" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D207" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E206" s="10" t="s">
+      <c r="E207" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F206" s="10" t="s">
+      <c r="F207" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:6">
-      <c r="B207" s="11" t="s">
+    <row r="208" spans="2:6">
+      <c r="B208" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C207" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12" t="s">
+      <c r="C208" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F207" s="13"/>
-    </row>
-    <row r="208" spans="2:6">
-      <c r="B208" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C208" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" s="21"/>
-      <c r="E208" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F208" s="20"/>
+      <c r="F208" s="13"/>
     </row>
     <row r="209" spans="2:6">
       <c r="B209" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="21"/>
       <c r="E209" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F209" s="20"/>
     </row>
     <row r="210" spans="2:6">
-      <c r="B210" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C210" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F210" s="13"/>
+      <c r="B210" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="F210" s="20"/>
     </row>
     <row r="211" spans="2:6">
       <c r="B211" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F211" s="13"/>
     </row>
     <row r="212" spans="2:6">
       <c r="B212" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F212" s="13"/>
     </row>
     <row r="213" spans="2:6">
       <c r="B213" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F213" s="13"/>
     </row>
     <row r="214" spans="2:6">
       <c r="B214" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" s="13"/>
+    </row>
+    <row r="215" spans="2:6">
+      <c r="B215" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C215" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13" t="s">
+      <c r="D215" s="13"/>
+      <c r="E215" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F214" s="13" t="s">
+      <c r="F215" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="2:6">
-      <c r="B215" s="16" t="s">
+    <row r="216" spans="2:6">
+      <c r="B216" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C215" s="16" t="s">
+      <c r="C216" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16" t="s">
+      <c r="D216" s="16"/>
+      <c r="E216" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F215" s="16" t="s">
+      <c r="F216" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="216" spans="2:6">
-      <c r="B216" s="18"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="5">
+    <row r="217" spans="2:6">
+      <c r="B217" s="18"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="5">
         <v>14</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C218" s="7"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="9"/>
-    </row>
-    <row r="219" spans="2:6">
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C219" s="7"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="9"/>
+    </row>
+    <row r="220" spans="2:6">
+      <c r="B220" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C220" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D220" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E220" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F220" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:6">
-      <c r="B220" s="11" t="s">
+    <row r="221" spans="2:6">
+      <c r="B221" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C220" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12" t="s">
+      <c r="C221" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F220" s="13"/>
-    </row>
-    <row r="221" s="2" customFormat="1" spans="2:6">
-      <c r="B221" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C221" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F221" s="28"/>
+      <c r="F221" s="13"/>
     </row>
     <row r="222" s="2" customFormat="1" spans="2:6">
       <c r="B222" s="28" t="s">
-        <v>408</v>
+        <v>83</v>
       </c>
       <c r="C222" s="26" t="s">
         <v>7</v>
@@ -13751,519 +13757,519 @@
       </c>
       <c r="F222" s="28"/>
     </row>
-    <row r="223" spans="2:6">
-      <c r="B223" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F223" s="13"/>
+    <row r="223" s="2" customFormat="1" spans="2:6">
+      <c r="B223" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F223" s="28"/>
     </row>
     <row r="224" spans="2:6">
       <c r="B224" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F224" s="13"/>
     </row>
     <row r="225" spans="2:6">
       <c r="B225" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F225" s="13"/>
     </row>
     <row r="226" spans="2:6">
       <c r="B226" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F226" s="13"/>
     </row>
     <row r="227" spans="2:6">
       <c r="B227" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F227" s="13"/>
+    </row>
+    <row r="228" spans="2:6">
+      <c r="B228" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C228" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13" t="s">
+      <c r="D228" s="13"/>
+      <c r="E228" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F227" s="13" t="s">
+      <c r="F228" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="228" customFormat="1" spans="2:6">
-      <c r="B228" s="16" t="s">
+    <row r="229" customFormat="1" spans="2:6">
+      <c r="B229" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="C229" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D228" s="16"/>
-      <c r="E228" s="16" t="s">
+      <c r="D229" s="16"/>
+      <c r="E229" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F228" s="16" t="s">
+      <c r="F229" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" customFormat="1" spans="2:6">
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="5">
+    <row r="230" customFormat="1" spans="2:6">
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="5">
         <v>15</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C231" s="7"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="9"/>
-    </row>
-    <row r="232" spans="2:6">
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="9"/>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C232" s="10" t="s">
+      <c r="C233" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="10" t="s">
+      <c r="D233" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E232" s="10" t="s">
+      <c r="E233" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="10" t="s">
+      <c r="F233" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="2:6">
-      <c r="B233" s="11" t="s">
+    <row r="234" spans="2:6">
+      <c r="B234" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C233" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12" t="s">
+      <c r="C234" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F233" s="12"/>
-    </row>
-    <row r="234" s="3" customFormat="1" spans="2:6">
-      <c r="B234" s="32" t="s">
+      <c r="F234" s="12"/>
+    </row>
+    <row r="235" s="3" customFormat="1" spans="2:6">
+      <c r="B235" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C234" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32" t="s">
+      <c r="C235" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F234" s="32"/>
-    </row>
-    <row r="235" spans="2:6">
-      <c r="B235" s="34" t="s">
+      <c r="F235" s="32"/>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="B236" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C235" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34" t="s">
+      <c r="C236" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="34"/>
+      <c r="E236" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F235" s="34"/>
-    </row>
-    <row r="236" spans="2:6">
-      <c r="B236" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F236" s="14"/>
+      <c r="F236" s="34"/>
     </row>
     <row r="237" spans="2:6">
       <c r="B237" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D237" s="14"/>
       <c r="E237" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F237" s="14"/>
     </row>
     <row r="238" spans="2:6">
       <c r="B238" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D238" s="14"/>
       <c r="E238" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F238" s="14"/>
     </row>
     <row r="239" spans="2:6">
       <c r="B239" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D239" s="14"/>
       <c r="E239" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F239" s="14"/>
     </row>
     <row r="240" spans="2:6">
       <c r="B240" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D240" s="14"/>
       <c r="E240" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F240" s="14"/>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D241" s="14"/>
+      <c r="E241" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F240" s="14" t="s">
+      <c r="F241" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="2:6">
-      <c r="B241" s="16" t="s">
+    <row r="242" spans="2:6">
+      <c r="B242" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C241" s="16" t="s">
+      <c r="C242" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16" t="s">
+      <c r="D242" s="16"/>
+      <c r="E242" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F241" s="16" t="s">
+      <c r="F242" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="242" spans="2:6">
-      <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="18"/>
-      <c r="F242" s="18"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="5">
+    <row r="243" spans="2:6">
+      <c r="B243" s="18"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="5">
         <v>16</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C244" s="7"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="9"/>
-    </row>
-    <row r="245" spans="2:6">
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C245" s="10" t="s">
+      <c r="C246" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="10" t="s">
+      <c r="D246" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E245" s="10" t="s">
+      <c r="E246" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F245" s="10" t="s">
+      <c r="F246" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="2:6">
-      <c r="B246" s="11" t="s">
+    <row r="247" spans="2:6">
+      <c r="B247" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C246" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12" t="s">
+      <c r="C247" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F246" s="12"/>
-    </row>
-    <row r="247" spans="2:6">
-      <c r="B247" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C247" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="F247" s="26"/>
+      <c r="F247" s="12"/>
     </row>
     <row r="248" spans="2:6">
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="C248" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D248" s="14"/>
-      <c r="E248" s="14" t="s">
+      <c r="C248" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="F248" s="14"/>
+      <c r="F248" s="26"/>
     </row>
     <row r="249" spans="2:6">
       <c r="B249" s="14" t="s">
         <v>416</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D249" s="14"/>
       <c r="E249" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="F249" s="14" t="s">
+      <c r="F249" s="14"/>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C250" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F250" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="250" s="1" customFormat="1" spans="2:6">
-      <c r="B250" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="C250" s="36" t="s">
+    <row r="251" s="1" customFormat="1" spans="2:6">
+      <c r="B251" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C251" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="F250" s="21" t="s">
+      <c r="D251" s="21"/>
+      <c r="E251" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="F251" s="21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="251" spans="2:6">
-      <c r="B251" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C251" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="14"/>
-      <c r="E251" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F251" s="14"/>
     </row>
     <row r="252" spans="2:6">
       <c r="B252" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C252" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C252" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D252" s="14"/>
       <c r="E252" s="14" t="s">
-        <v>18</v>
+        <v>423</v>
       </c>
       <c r="F252" s="14"/>
     </row>
     <row r="253" spans="2:6">
       <c r="B253" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D253" s="14"/>
       <c r="E253" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F253" s="14"/>
     </row>
     <row r="254" spans="2:6">
       <c r="B254" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D254" s="14"/>
       <c r="E254" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F254" s="14"/>
     </row>
     <row r="255" spans="2:6">
       <c r="B255" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D255" s="14"/>
       <c r="E255" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F255" s="14"/>
     </row>
     <row r="256" spans="2:6">
       <c r="B256" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D256" s="14"/>
       <c r="E256" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256" s="14"/>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="B257" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F256" s="14" t="s">
+      <c r="F257" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="2:6">
-      <c r="B257" s="16" t="s">
+    <row r="258" spans="2:6">
+      <c r="B258" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C257" s="16" t="s">
+      <c r="C258" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D257" s="16"/>
-      <c r="E257" s="16" t="s">
+      <c r="D258" s="16"/>
+      <c r="E258" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F257" s="16" t="s">
+      <c r="F258" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="258" spans="2:6">
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="18"/>
-      <c r="F258" s="18"/>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="5">
+    <row r="259" spans="2:6">
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="18"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="5">
         <v>17</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C260" s="7"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="9"/>
-    </row>
-    <row r="261" spans="2:6">
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C261" s="7"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="9"/>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C261" s="10" t="s">
+      <c r="C262" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="10" t="s">
+      <c r="D262" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E261" s="10" t="s">
+      <c r="E262" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F261" s="10" t="s">
+      <c r="F262" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="2:6">
-      <c r="B262" s="11" t="s">
+    <row r="263" spans="2:6">
+      <c r="B263" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C262" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D262" s="12"/>
-      <c r="E262" s="12" t="s">
+      <c r="C263" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F262" s="12"/>
-    </row>
-    <row r="263" s="1" customFormat="1" spans="2:6">
-      <c r="B263" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="C263" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" s="21"/>
-      <c r="E263" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="F263" s="21"/>
-    </row>
-    <row r="264" spans="2:6">
-      <c r="B264" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C264" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26" t="s">
+      <c r="F263" s="12"/>
+    </row>
+    <row r="264" s="1" customFormat="1" spans="2:6">
+      <c r="B264" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C264" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="F264" s="38"/>
+      <c r="F264" s="21"/>
     </row>
     <row r="265" spans="2:6">
       <c r="B265" s="26" t="s">
@@ -14276,321 +14282,321 @@
       <c r="E265" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="F265" s="14"/>
+      <c r="F265" s="38"/>
     </row>
     <row r="266" spans="2:6">
-      <c r="B266" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14" t="s">
-        <v>18</v>
+      <c r="B266" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C266" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26" t="s">
+        <v>429</v>
       </c>
       <c r="F266" s="14"/>
     </row>
     <row r="267" spans="2:6">
       <c r="B267" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D267" s="14"/>
       <c r="E267" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F267" s="14"/>
     </row>
     <row r="268" spans="2:6">
       <c r="B268" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D268" s="14"/>
       <c r="E268" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F268" s="14"/>
     </row>
     <row r="269" spans="2:6">
       <c r="B269" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D269" s="14"/>
       <c r="E269" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F269" s="14"/>
     </row>
     <row r="270" spans="2:6">
       <c r="B270" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D270" s="14"/>
       <c r="E270" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F270" s="14"/>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="B271" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F270" s="14" t="s">
+      <c r="F271" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="2:6">
-      <c r="B271" s="16" t="s">
+    <row r="272" spans="2:6">
+      <c r="B272" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C271" s="16" t="s">
+      <c r="C272" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D271" s="16"/>
-      <c r="E271" s="16" t="s">
+      <c r="D272" s="16"/>
+      <c r="E272" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F271" s="16" t="s">
+      <c r="F272" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="272" spans="2:6">
-      <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="5">
+    <row r="273" spans="2:6">
+      <c r="B273" s="18"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="18"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="5">
         <v>18</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C274" s="7"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="9"/>
-    </row>
-    <row r="275" spans="2:6">
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C275" s="7"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="9"/>
+    </row>
+    <row r="276" spans="2:6">
+      <c r="B276" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C275" s="10" t="s">
+      <c r="C276" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D275" s="10" t="s">
+      <c r="D276" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E275" s="10" t="s">
+      <c r="E276" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F275" s="10" t="s">
+      <c r="F276" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:6">
-      <c r="B276" s="11" t="s">
+    <row r="277" spans="2:6">
+      <c r="B277" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C276" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12" t="s">
+      <c r="C277" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F276" s="12"/>
-    </row>
-    <row r="277" s="1" customFormat="1" spans="2:6">
-      <c r="B277" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="C277" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D277" s="21"/>
-      <c r="E277" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="F277" s="21"/>
-    </row>
-    <row r="278" s="2" customFormat="1" spans="2:6">
-      <c r="B278" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C278" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26" t="s">
+      <c r="F277" s="12"/>
+    </row>
+    <row r="278" s="1" customFormat="1" spans="2:6">
+      <c r="B278" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="F278" s="26"/>
-    </row>
-    <row r="279" spans="2:6">
-      <c r="B279" s="14" t="s">
+      <c r="C278" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C279" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279" s="14"/>
-      <c r="E279" s="14" t="s">
+      <c r="F278" s="21"/>
+    </row>
+    <row r="279" s="2" customFormat="1" spans="2:6">
+      <c r="B279" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C279" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="26"/>
+      <c r="E279" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="F279" s="14"/>
+      <c r="F279" s="26"/>
     </row>
     <row r="280" spans="2:6">
       <c r="B280" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C280" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C280" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="14"/>
       <c r="E280" s="14" t="s">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="F280" s="14"/>
     </row>
     <row r="281" spans="2:6">
       <c r="B281" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D281" s="14"/>
       <c r="E281" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F281" s="14"/>
     </row>
     <row r="282" spans="2:6">
       <c r="B282" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D282" s="14"/>
       <c r="E282" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F282" s="14"/>
     </row>
     <row r="283" spans="2:6">
       <c r="B283" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D283" s="14"/>
       <c r="E283" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F283" s="14"/>
     </row>
     <row r="284" spans="2:6">
       <c r="B284" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D284" s="14"/>
       <c r="E284" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284" s="14"/>
+    </row>
+    <row r="285" spans="2:6">
+      <c r="B285" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" s="14"/>
+      <c r="E285" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F284" s="14" t="s">
+      <c r="F285" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="2:6">
-      <c r="B285" s="16" t="s">
+    <row r="286" spans="2:6">
+      <c r="B286" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C285" s="16" t="s">
+      <c r="C286" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D285" s="16"/>
-      <c r="E285" s="16" t="s">
+      <c r="D286" s="16"/>
+      <c r="E286" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F285" s="16" t="s">
+      <c r="F286" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="286" spans="2:6">
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
-      <c r="F286" s="18"/>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288" s="5">
+    <row r="287" spans="2:6">
+      <c r="B287" s="18"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="18"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="18"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="5">
         <v>19</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C288" s="7"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="9"/>
-    </row>
-    <row r="289" spans="2:6">
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C289" s="7"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="9"/>
+    </row>
+    <row r="290" spans="2:6">
+      <c r="B290" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="10" t="s">
+      <c r="C290" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D289" s="10" t="s">
+      <c r="D290" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E289" s="10" t="s">
+      <c r="E290" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F289" s="10" t="s">
+      <c r="F290" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="2:6">
-      <c r="B290" s="11" t="s">
+    <row r="291" spans="2:6">
+      <c r="B291" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C290" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12" t="s">
+      <c r="C291" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F290" s="12"/>
-    </row>
-    <row r="291" spans="2:6">
-      <c r="B291" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="C291" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D291" s="32"/>
-      <c r="E291" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="F291" s="32"/>
+      <c r="F291" s="12"/>
     </row>
     <row r="292" spans="2:6">
       <c r="B292" s="32" t="s">
@@ -14609,7 +14615,7 @@
       <c r="B293" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="C293" s="33" t="s">
+      <c r="C293" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="32"/>
@@ -14618,181 +14624,181 @@
       </c>
       <c r="F293" s="32"/>
     </row>
-    <row r="294" s="1" customFormat="1" spans="2:6">
-      <c r="B294" s="22" t="s">
+    <row r="294" spans="2:6">
+      <c r="B294" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="C294" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294" s="22"/>
-      <c r="E294" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="F294" s="22"/>
-    </row>
-    <row r="295" spans="2:6">
-      <c r="B295" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C295" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D295" s="32"/>
-      <c r="E295" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F295" s="32"/>
+      <c r="C294" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="32"/>
+      <c r="E294" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F294" s="32"/>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="2:6">
+      <c r="B295" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C295" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="22"/>
+      <c r="E295" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="F295" s="22"/>
     </row>
     <row r="296" spans="2:6">
       <c r="B296" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D296" s="32"/>
       <c r="E296" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F296" s="32"/>
     </row>
     <row r="297" spans="2:6">
       <c r="B297" s="32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D297" s="32"/>
       <c r="E297" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F297" s="32"/>
     </row>
     <row r="298" spans="2:6">
       <c r="B298" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C298" s="32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D298" s="32"/>
       <c r="E298" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F298" s="32"/>
     </row>
     <row r="299" spans="2:6">
       <c r="B299" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C299" s="32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D299" s="32"/>
       <c r="E299" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299" s="32"/>
+    </row>
+    <row r="300" spans="2:6">
+      <c r="B300" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C300" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" s="32"/>
+      <c r="E300" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F299" s="32" t="s">
+      <c r="F300" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="2:6">
-      <c r="B300" s="16" t="s">
+    <row r="301" spans="2:6">
+      <c r="B301" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C300" s="16" t="s">
+      <c r="C301" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D300" s="16"/>
-      <c r="E300" s="16" t="s">
+      <c r="D301" s="16"/>
+      <c r="E301" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F300" s="16" t="s">
+      <c r="F301" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="301" spans="2:6">
-      <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="18"/>
-      <c r="E301" s="18"/>
-      <c r="F301" s="18"/>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="5">
+    <row r="302" spans="2:6">
+      <c r="B302" s="18"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="18"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="18"/>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="5">
         <v>20</v>
       </c>
-      <c r="B303" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C303" s="7"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="9"/>
-    </row>
-    <row r="304" spans="2:6">
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C304" s="7"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="9"/>
+    </row>
+    <row r="305" spans="2:6">
+      <c r="B305" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C304" s="10" t="s">
+      <c r="C305" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D304" s="10" t="s">
+      <c r="D305" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E304" s="10" t="s">
+      <c r="E305" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F304" s="10" t="s">
+      <c r="F305" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="2:6">
-      <c r="B305" s="11" t="s">
+    <row r="306" spans="2:6">
+      <c r="B306" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C305" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" s="12"/>
-      <c r="E305" s="12" t="s">
+      <c r="C306" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F305" s="12"/>
-    </row>
-    <row r="306" s="1" customFormat="1" spans="2:6">
-      <c r="B306" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C306" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" s="22"/>
-      <c r="E306" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="F306" s="22"/>
-    </row>
-    <row r="307" spans="2:6">
-      <c r="B307" s="27" t="s">
+      <c r="F306" s="12"/>
+    </row>
+    <row r="307" s="1" customFormat="1" spans="2:6">
+      <c r="B307" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C307" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307" s="27"/>
-      <c r="E307" s="27" t="s">
+      <c r="C307" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="22"/>
+      <c r="E307" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="F307" s="27"/>
+      <c r="F307" s="22"/>
     </row>
     <row r="308" spans="2:6">
       <c r="B308" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="C308" s="37" t="s">
+      <c r="C308" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D308" s="27"/>
@@ -14803,330 +14809,330 @@
     </row>
     <row r="309" spans="2:6">
       <c r="B309" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C309" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C309" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D309" s="27"/>
       <c r="E309" s="27" t="s">
-        <v>18</v>
+        <v>450</v>
       </c>
       <c r="F309" s="27"/>
     </row>
     <row r="310" spans="2:6">
       <c r="B310" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C310" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D310" s="27"/>
       <c r="E310" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F310" s="27"/>
     </row>
     <row r="311" spans="2:6">
       <c r="B311" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C311" s="27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D311" s="27"/>
       <c r="E311" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F311" s="27"/>
     </row>
     <row r="312" spans="2:6">
       <c r="B312" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C312" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D312" s="27"/>
       <c r="E312" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F312" s="27"/>
     </row>
     <row r="313" spans="2:6">
       <c r="B313" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C313" s="27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D313" s="27"/>
       <c r="E313" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F313" s="27"/>
+    </row>
+    <row r="314" spans="2:6">
+      <c r="B314" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C314" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D314" s="27"/>
+      <c r="E314" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F313" s="27" t="s">
+      <c r="F314" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="2:6">
-      <c r="B314" s="16" t="s">
+    <row r="315" spans="2:6">
+      <c r="B315" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C314" s="16" t="s">
+      <c r="C315" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D314" s="16"/>
-      <c r="E314" s="16" t="s">
+      <c r="D315" s="16"/>
+      <c r="E315" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F314" s="16" t="s">
+      <c r="F315" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="315" spans="2:6">
-      <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
-    </row>
-    <row r="317" spans="1:6">
-      <c r="A317" s="5">
+    <row r="316" spans="2:6">
+      <c r="B316" s="18"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="18"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="5">
         <v>21</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C317" s="7"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
-      <c r="F317" s="9"/>
-    </row>
-    <row r="318" spans="2:6">
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C318" s="7"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="8"/>
+      <c r="F318" s="9"/>
+    </row>
+    <row r="319" spans="2:6">
+      <c r="B319" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="C319" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D318" s="10" t="s">
+      <c r="D319" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E318" s="10" t="s">
+      <c r="E319" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F318" s="10" t="s">
+      <c r="F319" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:6">
-      <c r="B319" s="11" t="s">
+    <row r="320" spans="2:6">
+      <c r="B320" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C319" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D319" s="12"/>
-      <c r="E319" s="12" t="s">
+      <c r="C320" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F319" s="13"/>
-    </row>
-    <row r="320" spans="2:6">
-      <c r="B320" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C320" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D320" s="15"/>
-      <c r="E320" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F320" s="15"/>
+      <c r="F320" s="13"/>
     </row>
     <row r="321" spans="2:6">
       <c r="B321" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F321" s="15"/>
     </row>
     <row r="322" spans="2:6">
       <c r="B322" s="15" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="15" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="F322" s="15"/>
     </row>
     <row r="323" spans="2:6">
       <c r="B323" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F323" s="15"/>
     </row>
     <row r="324" spans="2:6">
       <c r="B324" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D324" s="15"/>
       <c r="E324" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F324" s="15"/>
     </row>
     <row r="325" spans="2:6">
       <c r="B325" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C325" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D325" s="15"/>
       <c r="E325" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F325" s="15"/>
     </row>
     <row r="326" spans="2:6">
       <c r="B326" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D326" s="15"/>
       <c r="E326" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F326" s="15"/>
+    </row>
+    <row r="327" spans="2:6">
+      <c r="B327" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C327" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D327" s="15"/>
+      <c r="E327" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F326" s="15" t="s">
+      <c r="F327" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="2:6">
-      <c r="B327" s="16" t="s">
+    <row r="328" spans="2:6">
+      <c r="B328" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C327" s="16" t="s">
+      <c r="C328" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D327" s="16"/>
-      <c r="E327" s="16" t="s">
+      <c r="D328" s="16"/>
+      <c r="E328" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F327" s="16" t="s">
+      <c r="F328" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="328" spans="2:6">
-      <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
-      <c r="D328" s="18"/>
-      <c r="E328" s="18"/>
-      <c r="F328" s="18"/>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330" s="5">
+    <row r="329" spans="2:6">
+      <c r="B329" s="18"/>
+      <c r="C329" s="18"/>
+      <c r="D329" s="18"/>
+      <c r="E329" s="18"/>
+      <c r="F329" s="18"/>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="5">
         <v>22</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B331" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C330" s="7"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="8"/>
-      <c r="F330" s="9"/>
-    </row>
-    <row r="331" spans="2:6">
-      <c r="B331" s="10" t="s">
+      <c r="C331" s="7"/>
+      <c r="D331" s="8"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="9"/>
+    </row>
+    <row r="332" spans="2:6">
+      <c r="B332" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="C332" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D331" s="10" t="s">
+      <c r="D332" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E331" s="10" t="s">
+      <c r="E332" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F331" s="10" t="s">
+      <c r="F332" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:6">
-      <c r="B332" s="11" t="s">
+    <row r="333" spans="2:6">
+      <c r="B333" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C332" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D332" s="12"/>
-      <c r="E332" s="12" t="s">
+      <c r="C333" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F332" s="12"/>
-    </row>
-    <row r="333" spans="2:6">
-      <c r="B333" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C333" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D333" s="39"/>
-      <c r="E333" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F333" s="39"/>
+      <c r="F333" s="12"/>
     </row>
     <row r="334" spans="2:6">
       <c r="B334" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C334" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D334" s="39"/>
       <c r="E334" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F334" s="39"/>
+    </row>
+    <row r="335" spans="2:6">
+      <c r="B335" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C335" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="39"/>
+      <c r="E335" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F334" s="39"/>
-    </row>
-    <row r="335" s="1" customFormat="1" spans="2:6">
-      <c r="B335" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C335" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D335" s="22"/>
-      <c r="E335" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="F335" s="22"/>
+      <c r="F335" s="39"/>
     </row>
     <row r="336" s="1" customFormat="1" spans="2:6">
       <c r="B336" s="22" t="s">
@@ -15154,3058 +15160,3058 @@
       </c>
       <c r="F337" s="22"/>
     </row>
-    <row r="338" spans="2:6">
-      <c r="B338" s="39" t="s">
+    <row r="338" s="1" customFormat="1" spans="2:6">
+      <c r="B338" s="22" t="s">
         <v>458</v>
       </c>
-      <c r="C338" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D338" s="39"/>
-      <c r="E338" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F338" s="39"/>
+      <c r="C338" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="22"/>
+      <c r="E338" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="F338" s="22"/>
     </row>
     <row r="339" spans="2:6">
       <c r="B339" s="39" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C339" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D339" s="39"/>
       <c r="E339" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="F339" s="39" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F339" s="39"/>
     </row>
     <row r="340" spans="2:6">
       <c r="B340" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C340" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C340" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D340" s="39"/>
       <c r="E340" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F340" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="F340" s="39" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="341" spans="2:6">
       <c r="B341" s="39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C341" s="39" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D341" s="39"/>
       <c r="E341" s="39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F341" s="39"/>
     </row>
     <row r="342" spans="2:6">
       <c r="B342" s="39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C342" s="39" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D342" s="39"/>
       <c r="E342" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F342" s="39"/>
     </row>
     <row r="343" spans="2:6">
       <c r="B343" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C343" s="39" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D343" s="39"/>
       <c r="E343" s="39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F343" s="39"/>
     </row>
     <row r="344" spans="2:6">
       <c r="B344" s="39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C344" s="39" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D344" s="39"/>
       <c r="E344" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344" s="39"/>
+    </row>
+    <row r="345" spans="2:6">
+      <c r="B345" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C345" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D345" s="39"/>
+      <c r="E345" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F344" s="39" t="s">
+      <c r="F345" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="2:6">
-      <c r="B345" s="16" t="s">
+    <row r="346" spans="2:6">
+      <c r="B346" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C345" s="16" t="s">
+      <c r="C346" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D345" s="16"/>
-      <c r="E345" s="16" t="s">
+      <c r="D346" s="16"/>
+      <c r="E346" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F345" s="16" t="s">
+      <c r="F346" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="346" spans="2:6">
-      <c r="B346" s="18"/>
-      <c r="C346" s="18"/>
-      <c r="D346" s="18"/>
-      <c r="E346" s="18"/>
-      <c r="F346" s="18"/>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="A348" s="5">
+    <row r="347" spans="2:6">
+      <c r="B347" s="18"/>
+      <c r="C347" s="18"/>
+      <c r="D347" s="18"/>
+      <c r="E347" s="18"/>
+      <c r="F347" s="18"/>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="5">
         <v>23</v>
       </c>
-      <c r="B348" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C348" s="7"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
-      <c r="F348" s="9"/>
-    </row>
-    <row r="349" spans="2:6">
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C349" s="7"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="9"/>
+    </row>
+    <row r="350" spans="2:6">
+      <c r="B350" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C349" s="10" t="s">
+      <c r="C350" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D349" s="10" t="s">
+      <c r="D350" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E349" s="10" t="s">
+      <c r="E350" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F349" s="10" t="s">
+      <c r="F350" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="2:6">
-      <c r="B350" s="11" t="s">
+    <row r="351" spans="2:6">
+      <c r="B351" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C350" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D350" s="12"/>
-      <c r="E350" s="12" t="s">
+      <c r="C351" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F350" s="12"/>
-    </row>
-    <row r="351" s="1" customFormat="1" spans="2:6">
-      <c r="B351" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C351" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D351" s="22"/>
-      <c r="E351" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="F351" s="22"/>
+      <c r="F351" s="12"/>
     </row>
     <row r="352" s="1" customFormat="1" spans="2:6">
       <c r="B352" s="22" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C352" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D352" s="22"/>
       <c r="E352" s="22" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="F352" s="22"/>
     </row>
-    <row r="353" spans="2:6">
-      <c r="B353" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C353" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D353" s="27"/>
-      <c r="E353" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F353" s="27"/>
+    <row r="353" s="1" customFormat="1" spans="2:6">
+      <c r="B353" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C353" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="22"/>
+      <c r="E353" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="F353" s="22"/>
     </row>
     <row r="354" spans="2:6">
       <c r="B354" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C354" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D354" s="27"/>
       <c r="E354" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F354" s="27"/>
     </row>
     <row r="355" spans="2:6">
       <c r="B355" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C355" s="27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D355" s="27"/>
       <c r="E355" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F355" s="27"/>
     </row>
     <row r="356" spans="2:6">
       <c r="B356" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C356" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D356" s="27"/>
       <c r="E356" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F356" s="27"/>
     </row>
     <row r="357" spans="2:6">
       <c r="B357" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C357" s="27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D357" s="27"/>
       <c r="E357" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357" s="27"/>
+    </row>
+    <row r="358" spans="2:6">
+      <c r="B358" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C358" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D358" s="27"/>
+      <c r="E358" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F357" s="27" t="s">
+      <c r="F358" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="2:6">
-      <c r="B358" s="16" t="s">
+    <row r="359" spans="2:6">
+      <c r="B359" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C358" s="16" t="s">
+      <c r="C359" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D358" s="16"/>
-      <c r="E358" s="16" t="s">
+      <c r="D359" s="16"/>
+      <c r="E359" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F358" s="16" t="s">
+      <c r="F359" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="359" spans="2:6">
-      <c r="B359" s="18"/>
-      <c r="C359" s="18"/>
-      <c r="D359" s="18"/>
-      <c r="E359" s="18"/>
-      <c r="F359" s="18"/>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="A361" s="5">
+    <row r="360" spans="2:6">
+      <c r="B360" s="18"/>
+      <c r="C360" s="18"/>
+      <c r="D360" s="18"/>
+      <c r="E360" s="18"/>
+      <c r="F360" s="18"/>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="5">
         <v>24</v>
       </c>
-      <c r="B361" s="6" t="s">
+      <c r="B362" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C362" s="7"/>
+      <c r="D362" s="8"/>
+      <c r="E362" s="8"/>
+      <c r="F362" s="9"/>
+    </row>
+    <row r="363" spans="2:6">
+      <c r="B363" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F363" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6">
+      <c r="B364" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364" s="12"/>
+    </row>
+    <row r="365" spans="2:6">
+      <c r="B365" s="22" t="s">
         <v>463</v>
-      </c>
-      <c r="C361" s="7"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
-      <c r="F361" s="9"/>
-    </row>
-    <row r="362" spans="2:6">
-      <c r="B362" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C362" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D362" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E362" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F362" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="2:6">
-      <c r="B363" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C363" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D363" s="12"/>
-      <c r="E363" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F363" s="12"/>
-    </row>
-    <row r="364" spans="2:6">
-      <c r="B364" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C364" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D364" s="22"/>
-      <c r="E364" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="F364" s="22"/>
-    </row>
-    <row r="365" s="1" customFormat="1" spans="2:6">
-      <c r="B365" s="22" t="s">
-        <v>464</v>
       </c>
       <c r="C365" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D365" s="22"/>
       <c r="E365" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="2:6">
-      <c r="B366" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C366" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D366" s="15"/>
-      <c r="E366" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F366" s="15"/>
+    <row r="366" s="1" customFormat="1" spans="2:6">
+      <c r="B366" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="C366" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" s="22"/>
+      <c r="E366" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F366" s="22"/>
     </row>
     <row r="367" spans="2:6">
       <c r="B367" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D367" s="15"/>
       <c r="E367" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F367" s="15"/>
     </row>
     <row r="368" spans="2:6">
       <c r="B368" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D368" s="15"/>
       <c r="E368" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F368" s="15"/>
     </row>
     <row r="369" spans="2:6">
       <c r="B369" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D369" s="15"/>
       <c r="E369" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F369" s="15"/>
     </row>
     <row r="370" spans="2:6">
       <c r="B370" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C370" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D370" s="15"/>
       <c r="E370" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F370" s="15"/>
+    </row>
+    <row r="371" spans="2:6">
+      <c r="B371" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C371" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D371" s="15"/>
+      <c r="E371" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F370" s="15" t="s">
+      <c r="F371" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="2:6">
-      <c r="B371" s="16" t="s">
+    <row r="372" spans="2:6">
+      <c r="B372" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C371" s="16" t="s">
+      <c r="C372" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D371" s="16"/>
-      <c r="E371" s="16" t="s">
+      <c r="D372" s="16"/>
+      <c r="E372" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F371" s="16" t="s">
+      <c r="F372" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="372" spans="2:6">
-      <c r="B372" s="18"/>
-      <c r="C372" s="18"/>
-      <c r="D372" s="18"/>
-      <c r="E372" s="18"/>
-      <c r="F372" s="18"/>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="5">
+    <row r="373" spans="2:6">
+      <c r="B373" s="18"/>
+      <c r="C373" s="18"/>
+      <c r="D373" s="18"/>
+      <c r="E373" s="18"/>
+      <c r="F373" s="18"/>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="5">
         <v>25</v>
       </c>
-      <c r="B374" s="6" t="s">
+      <c r="B375" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C374" s="7"/>
-      <c r="D374" s="8"/>
-      <c r="E374" s="8"/>
-      <c r="F374" s="9"/>
-    </row>
-    <row r="375" spans="2:6">
-      <c r="B375" s="10" t="s">
+      <c r="C375" s="7"/>
+      <c r="D375" s="8"/>
+      <c r="E375" s="8"/>
+      <c r="F375" s="9"/>
+    </row>
+    <row r="376" spans="2:6">
+      <c r="B376" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C376" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D375" s="10" t="s">
+      <c r="D376" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E375" s="10" t="s">
+      <c r="E376" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F375" s="10" t="s">
+      <c r="F376" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="2:6">
-      <c r="B376" s="11" t="s">
+    <row r="377" spans="2:6">
+      <c r="B377" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C376" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12" t="s">
+      <c r="C377" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F376" s="12"/>
-    </row>
-    <row r="377" spans="2:6">
-      <c r="B377" s="32" t="s">
+      <c r="F377" s="12"/>
+    </row>
+    <row r="378" spans="2:6">
+      <c r="B378" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C377" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D377" s="32"/>
-      <c r="E377" s="32" t="s">
+      <c r="C378" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="32"/>
+      <c r="E378" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F377" s="32"/>
-    </row>
-    <row r="378" spans="2:6">
-      <c r="B378" s="15" t="s">
+      <c r="F378" s="32"/>
+    </row>
+    <row r="379" spans="2:6">
+      <c r="B379" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C378" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D378" s="15"/>
-      <c r="E378" s="15" t="s">
+      <c r="C379" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="15"/>
+      <c r="E379" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F378" s="15"/>
-    </row>
-    <row r="379" s="1" customFormat="1" spans="2:6">
-      <c r="B379" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="C379" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D379" s="22"/>
-      <c r="E379" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="F379" s="22"/>
+      <c r="F379" s="15"/>
     </row>
     <row r="380" s="1" customFormat="1" spans="2:6">
       <c r="B380" s="22" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C380" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D380" s="22"/>
       <c r="E380" s="22" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F380" s="22"/>
     </row>
-    <row r="381" spans="2:6">
-      <c r="B381" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C381" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D381" s="15"/>
-      <c r="E381" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F381" s="15"/>
+    <row r="381" s="1" customFormat="1" spans="2:6">
+      <c r="B381" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C381" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D381" s="22"/>
+      <c r="E381" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F381" s="22"/>
     </row>
     <row r="382" spans="2:6">
       <c r="B382" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C382" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C382" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D382" s="15"/>
       <c r="E382" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F382" s="15"/>
     </row>
     <row r="383" spans="2:6">
       <c r="B383" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C383" s="15" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="C383" s="32" t="s">
+        <v>7</v>
       </c>
       <c r="D383" s="15"/>
       <c r="E383" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F383" s="15"/>
     </row>
     <row r="384" spans="2:6">
       <c r="B384" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C384" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D384" s="15"/>
       <c r="E384" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F384" s="15"/>
     </row>
     <row r="385" spans="2:6">
       <c r="B385" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D385" s="15"/>
       <c r="E385" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F385" s="15"/>
     </row>
     <row r="386" spans="2:6">
       <c r="B386" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C386" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D386" s="15"/>
       <c r="E386" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F386" s="15"/>
     </row>
     <row r="387" spans="2:6">
       <c r="B387" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D387" s="15"/>
       <c r="E387" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F387" s="15"/>
     </row>
     <row r="388" spans="2:6">
       <c r="B388" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D388" s="15"/>
       <c r="E388" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F388" s="15"/>
     </row>
     <row r="389" spans="2:6">
       <c r="B389" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D389" s="15"/>
       <c r="E389" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F389" s="15"/>
     </row>
     <row r="390" spans="2:6">
       <c r="B390" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D390" s="15"/>
       <c r="E390" s="15" t="s">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="F390" s="15"/>
     </row>
     <row r="391" spans="2:6">
       <c r="B391" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D391" s="15"/>
       <c r="E391" s="15" t="s">
-        <v>112</v>
+        <v>468</v>
       </c>
       <c r="F391" s="15"/>
     </row>
     <row r="392" spans="2:6">
       <c r="B392" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D392" s="15"/>
-      <c r="E392" s="27" t="s">
-        <v>467</v>
+      <c r="E392" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="F392" s="15"/>
     </row>
     <row r="393" spans="2:6">
       <c r="B393" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C393" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D393" s="15"/>
-      <c r="E393" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F393" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="E393" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="F393" s="15"/>
     </row>
     <row r="394" spans="2:6">
       <c r="B394" s="15" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D394" s="15"/>
       <c r="E394" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F394" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="F394" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="395" spans="2:6">
       <c r="B395" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D395" s="15"/>
       <c r="E395" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F395" s="15"/>
     </row>
     <row r="396" spans="2:6">
       <c r="B396" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C396" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D396" s="15"/>
       <c r="E396" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F396" s="15"/>
     </row>
     <row r="397" spans="2:6">
       <c r="B397" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D397" s="15"/>
       <c r="E397" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F397" s="15"/>
     </row>
     <row r="398" spans="2:6">
       <c r="B398" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D398" s="15"/>
       <c r="E398" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" s="15"/>
+    </row>
+    <row r="399" spans="2:6">
+      <c r="B399" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C399" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D399" s="15"/>
+      <c r="E399" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F398" s="15" t="s">
+      <c r="F399" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="399" spans="2:6">
-      <c r="B399" s="16" t="s">
+    <row r="400" spans="2:6">
+      <c r="B400" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C399" s="16" t="s">
+      <c r="C400" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D399" s="16"/>
-      <c r="E399" s="16" t="s">
+      <c r="D400" s="16"/>
+      <c r="E400" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F399" s="16" t="s">
+      <c r="F400" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="400" spans="2:6">
-      <c r="B400" s="18"/>
-      <c r="C400" s="18"/>
-      <c r="D400" s="18"/>
-      <c r="E400" s="18"/>
-      <c r="F400" s="18"/>
-    </row>
-    <row r="402" spans="1:6">
-      <c r="A402" s="5">
+    <row r="401" spans="2:6">
+      <c r="B401" s="18"/>
+      <c r="C401" s="18"/>
+      <c r="D401" s="18"/>
+      <c r="E401" s="18"/>
+      <c r="F401" s="18"/>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="5">
         <v>26</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B403" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C402" s="7"/>
-      <c r="D402" s="8"/>
-      <c r="E402" s="8"/>
-      <c r="F402" s="9"/>
-    </row>
-    <row r="403" spans="2:6">
-      <c r="B403" s="10" t="s">
+      <c r="C403" s="7"/>
+      <c r="D403" s="8"/>
+      <c r="E403" s="8"/>
+      <c r="F403" s="9"/>
+    </row>
+    <row r="404" spans="2:6">
+      <c r="B404" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C403" s="10" t="s">
+      <c r="C404" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D403" s="10" t="s">
+      <c r="D404" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E403" s="10" t="s">
+      <c r="E404" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F403" s="10" t="s">
+      <c r="F404" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="2:6">
-      <c r="B404" s="11" t="s">
+    <row r="405" spans="2:6">
+      <c r="B405" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C404" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12" t="s">
+      <c r="C405" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F404" s="12"/>
-    </row>
-    <row r="405" s="1" customFormat="1" spans="2:6">
-      <c r="B405" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C405" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D405" s="21"/>
-      <c r="E405" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="F405" s="21"/>
+      <c r="F405" s="12"/>
     </row>
     <row r="406" s="1" customFormat="1" spans="2:6">
-      <c r="B406" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C406" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D406" s="22"/>
-      <c r="E406" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="F406" s="22"/>
+      <c r="B406" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="C406" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="21"/>
+      <c r="E406" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="F406" s="21"/>
     </row>
     <row r="407" s="1" customFormat="1" spans="2:6">
       <c r="B407" s="22" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C407" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D407" s="22"/>
       <c r="E407" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="F407" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="F407" s="22"/>
+    </row>
+    <row r="408" s="1" customFormat="1" spans="2:6">
+      <c r="B408" s="22" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="408" s="2" customFormat="1" spans="2:6">
-      <c r="B408" s="27" t="s">
+      <c r="C408" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D408" s="22"/>
+      <c r="E408" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="C408" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D408" s="27"/>
-      <c r="E408" s="27" t="s">
+      <c r="F408" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="F408" s="27" t="s">
+    </row>
+    <row r="409" s="2" customFormat="1" spans="2:6">
+      <c r="B409" s="27" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="409" spans="2:6">
-      <c r="B409" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C409" s="27" t="s">
+      <c r="C409" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D409" s="27"/>
       <c r="E409" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F409" s="27"/>
+        <v>476</v>
+      </c>
+      <c r="F409" s="27" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="410" spans="2:6">
       <c r="B410" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C410" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D410" s="27"/>
       <c r="E410" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F410" s="27"/>
     </row>
     <row r="411" spans="2:6">
       <c r="B411" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C411" s="27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D411" s="27"/>
       <c r="E411" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F411" s="27"/>
     </row>
     <row r="412" spans="2:6">
       <c r="B412" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C412" s="27" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D412" s="27"/>
       <c r="E412" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F412" s="27"/>
     </row>
     <row r="413" spans="2:6">
       <c r="B413" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C413" s="27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D413" s="27"/>
       <c r="E413" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F413" s="27"/>
+    </row>
+    <row r="414" spans="2:6">
+      <c r="B414" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C414" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D414" s="27"/>
+      <c r="E414" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F413" s="27" t="s">
+      <c r="F414" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="2:6">
-      <c r="B414" s="16" t="s">
+    <row r="415" spans="2:6">
+      <c r="B415" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C414" s="16" t="s">
+      <c r="C415" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D414" s="16"/>
-      <c r="E414" s="16" t="s">
+      <c r="D415" s="16"/>
+      <c r="E415" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F414" s="16" t="s">
+      <c r="F415" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="415" spans="2:6">
-      <c r="B415" s="18"/>
-      <c r="C415" s="18"/>
-      <c r="D415" s="18"/>
-      <c r="E415" s="18"/>
-      <c r="F415" s="18"/>
-    </row>
-    <row r="417" spans="1:6">
-      <c r="A417" s="5">
+    <row r="416" spans="2:6">
+      <c r="B416" s="18"/>
+      <c r="C416" s="18"/>
+      <c r="D416" s="18"/>
+      <c r="E416" s="18"/>
+      <c r="F416" s="18"/>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="5">
         <v>27</v>
       </c>
-      <c r="B417" s="6" t="s">
+      <c r="B418" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C417" s="7"/>
-      <c r="D417" s="8"/>
-      <c r="E417" s="8"/>
-      <c r="F417" s="9"/>
-    </row>
-    <row r="418" spans="2:6">
-      <c r="B418" s="10" t="s">
+      <c r="C418" s="7"/>
+      <c r="D418" s="8"/>
+      <c r="E418" s="8"/>
+      <c r="F418" s="9"/>
+    </row>
+    <row r="419" spans="2:6">
+      <c r="B419" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C418" s="10" t="s">
+      <c r="C419" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D418" s="10" t="s">
+      <c r="D419" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E418" s="10" t="s">
+      <c r="E419" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F418" s="10" t="s">
+      <c r="F419" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="2:6">
-      <c r="B419" s="11" t="s">
+    <row r="420" spans="2:6">
+      <c r="B420" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C419" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D419" s="12"/>
-      <c r="E419" s="12" t="s">
+      <c r="C420" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D420" s="12"/>
+      <c r="E420" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F419" s="13"/>
-    </row>
-    <row r="420" spans="2:6">
-      <c r="B420" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="C420" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D420" s="27"/>
-      <c r="E420" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F420" s="32"/>
+      <c r="F420" s="13"/>
     </row>
     <row r="421" spans="2:6">
       <c r="B421" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C421" s="32" t="s">
-        <v>7</v>
+        <v>478</v>
+      </c>
+      <c r="C421" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D421" s="27"/>
       <c r="E421" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F421" s="41"/>
+        <v>189</v>
+      </c>
+      <c r="F421" s="32"/>
     </row>
     <row r="422" spans="2:6">
       <c r="B422" s="15" t="s">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="C422" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D422" s="27"/>
-      <c r="E422" s="42" t="s">
-        <v>199</v>
+      <c r="E422" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="F422" s="41"/>
     </row>
     <row r="423" spans="2:6">
       <c r="B423" s="15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C423" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D423" s="27"/>
       <c r="E423" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F423" s="41"/>
+    </row>
+    <row r="424" spans="2:6">
+      <c r="B424" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C424" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" s="27"/>
+      <c r="E424" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="F423" s="43"/>
-    </row>
-    <row r="424" spans="2:6">
-      <c r="B424" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="C424" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D424" s="27"/>
-      <c r="E424" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="F424" s="32"/>
+      <c r="F424" s="43"/>
     </row>
     <row r="425" spans="2:6">
-      <c r="B425" s="44" t="s">
-        <v>480</v>
+      <c r="B425" s="32" t="s">
+        <v>481</v>
       </c>
       <c r="C425" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D425" s="27"/>
       <c r="E425" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F425" s="32"/>
+    </row>
+    <row r="426" spans="2:6">
+      <c r="B426" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="C426" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D426" s="27"/>
+      <c r="E426" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="F425" s="32"/>
-    </row>
-    <row r="426" spans="2:6">
-      <c r="B426" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C426" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D426" s="27"/>
-      <c r="E426" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F426" s="15"/>
+      <c r="F426" s="32"/>
     </row>
     <row r="427" spans="2:6">
       <c r="B427" s="15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C427" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D427" s="27"/>
-      <c r="E427" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="F427" s="32"/>
+      <c r="E427" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F427" s="15"/>
     </row>
     <row r="428" spans="2:6">
       <c r="B428" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C428" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D428" s="27"/>
-      <c r="E428" s="42" t="s">
+      <c r="E428" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F428" s="32"/>
+    </row>
+    <row r="429" spans="2:6">
+      <c r="B429" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C429" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" s="27"/>
+      <c r="E429" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F428" s="15"/>
-    </row>
-    <row r="429" spans="2:6">
-      <c r="B429" s="23" t="s">
+      <c r="F429" s="15"/>
+    </row>
+    <row r="430" spans="2:6">
+      <c r="B430" s="23" t="s">
         <v>341</v>
-      </c>
-      <c r="C429" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D429" s="20"/>
-      <c r="E429" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F429" s="20"/>
-    </row>
-    <row r="430" spans="2:6">
-      <c r="B430" s="21" t="s">
-        <v>342</v>
       </c>
       <c r="C430" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D430" s="20"/>
       <c r="E430" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F430" s="20"/>
     </row>
     <row r="431" spans="2:6">
-      <c r="B431" s="20" t="s">
-        <v>343</v>
+      <c r="B431" s="21" t="s">
+        <v>342</v>
       </c>
       <c r="C431" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D431" s="20"/>
       <c r="E431" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F431" s="20"/>
     </row>
     <row r="432" spans="2:6">
       <c r="B432" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C432" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D432" s="20"/>
       <c r="E432" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F432" s="20"/>
+    </row>
+    <row r="433" spans="2:6">
+      <c r="B433" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C433" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433" s="20"/>
+      <c r="E433" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F432" s="20"/>
-    </row>
-    <row r="433" spans="2:6">
-      <c r="B433" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C433" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D433" s="27"/>
-      <c r="E433" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F433" s="15"/>
+      <c r="F433" s="20"/>
     </row>
     <row r="434" spans="2:6">
       <c r="B434" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C434" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D434" s="15"/>
+      <c r="D434" s="27"/>
       <c r="E434" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F434" s="15"/>
     </row>
     <row r="435" spans="2:6">
       <c r="B435" s="15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C435" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D435" s="27"/>
+      <c r="D435" s="15"/>
       <c r="E435" s="15" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="F435" s="15"/>
     </row>
     <row r="436" spans="2:6">
       <c r="B436" s="15" t="s">
-        <v>231</v>
+        <v>488</v>
       </c>
       <c r="C436" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D436" s="27"/>
       <c r="E436" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F436" s="15"/>
+    </row>
+    <row r="437" spans="2:6">
+      <c r="B437" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C437" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437" s="27"/>
+      <c r="E437" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F436" s="15"/>
-    </row>
-    <row r="437" spans="2:6">
-      <c r="B437" s="20" t="s">
+      <c r="F437" s="15"/>
+    </row>
+    <row r="438" spans="2:6">
+      <c r="B438" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C437" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D437" s="22"/>
-      <c r="E437" s="22" t="s">
+      <c r="C438" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" s="22"/>
+      <c r="E438" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F437" s="20"/>
-    </row>
-    <row r="438" spans="2:6">
-      <c r="B438" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C438" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D438" s="27"/>
-      <c r="E438" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F438" s="32"/>
+      <c r="F438" s="20"/>
     </row>
     <row r="439" spans="2:6">
       <c r="B439" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C439" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" s="27"/>
+      <c r="E439" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F439" s="32"/>
+    </row>
+    <row r="440" spans="2:6">
+      <c r="B440" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C439" s="32" t="s">
+      <c r="C440" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D439" s="27"/>
-      <c r="E439" s="32" t="s">
+      <c r="D440" s="27"/>
+      <c r="E440" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F439" s="15" t="s">
+      <c r="F440" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="440" spans="2:6">
-      <c r="B440" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C440" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D440" s="15"/>
-      <c r="E440" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F440" s="15"/>
     </row>
     <row r="441" spans="2:6">
       <c r="B441" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D441" s="15"/>
       <c r="E441" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F441" s="15"/>
     </row>
     <row r="442" spans="2:6">
       <c r="B442" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C442" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D442" s="15"/>
       <c r="E442" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F442" s="15"/>
     </row>
     <row r="443" spans="2:6">
       <c r="B443" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C443" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D443" s="15"/>
       <c r="E443" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F443" s="15"/>
     </row>
     <row r="444" spans="2:6">
       <c r="B444" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D444" s="15"/>
       <c r="E444" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F444" s="15"/>
+    </row>
+    <row r="445" spans="2:6">
+      <c r="B445" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C445" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D445" s="15"/>
+      <c r="E445" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F444" s="15" t="s">
+      <c r="F445" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="2:6">
-      <c r="B445" s="16" t="s">
+    <row r="446" spans="2:6">
+      <c r="B446" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C445" s="16" t="s">
+      <c r="C446" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D445" s="16"/>
-      <c r="E445" s="16" t="s">
+      <c r="D446" s="16"/>
+      <c r="E446" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F445" s="16" t="s">
+      <c r="F446" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="446" spans="2:6">
-      <c r="B446" s="18"/>
-      <c r="C446" s="18"/>
-      <c r="D446" s="18"/>
-      <c r="E446" s="18"/>
-      <c r="F446" s="18"/>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="5">
+    <row r="447" spans="2:6">
+      <c r="B447" s="18"/>
+      <c r="C447" s="18"/>
+      <c r="D447" s="18"/>
+      <c r="E447" s="18"/>
+      <c r="F447" s="18"/>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="5">
         <v>28</v>
       </c>
-      <c r="B448" s="6" t="s">
+      <c r="B449" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C448" s="7"/>
-      <c r="D448" s="8"/>
-      <c r="E448" s="8"/>
-      <c r="F448" s="9"/>
-    </row>
-    <row r="449" spans="2:6">
-      <c r="B449" s="10" t="s">
+      <c r="C449" s="7"/>
+      <c r="D449" s="8"/>
+      <c r="E449" s="8"/>
+      <c r="F449" s="9"/>
+    </row>
+    <row r="450" spans="2:6">
+      <c r="B450" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C449" s="10" t="s">
+      <c r="C450" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D449" s="10" t="s">
+      <c r="D450" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E449" s="10" t="s">
+      <c r="E450" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F449" s="10" t="s">
+      <c r="F450" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="2:6">
-      <c r="B450" s="11" t="s">
+    <row r="451" spans="2:6">
+      <c r="B451" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C450" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D450" s="12"/>
-      <c r="E450" s="12" t="s">
+      <c r="C451" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F450" s="13"/>
-    </row>
-    <row r="451" spans="2:6">
-      <c r="B451" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="C451" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D451" s="27"/>
-      <c r="E451" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F451" s="32"/>
+      <c r="F451" s="13"/>
     </row>
     <row r="452" spans="2:6">
       <c r="B452" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C452" s="32" t="s">
-        <v>7</v>
+        <v>489</v>
+      </c>
+      <c r="C452" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="D452" s="27"/>
       <c r="E452" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F452" s="41"/>
+        <v>240</v>
+      </c>
+      <c r="F452" s="32"/>
     </row>
     <row r="453" spans="2:6">
       <c r="B453" s="15" t="s">
-        <v>488</v>
+        <v>194</v>
       </c>
       <c r="C453" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D453" s="27"/>
-      <c r="E453" s="42" t="s">
-        <v>199</v>
+      <c r="E453" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="F453" s="41"/>
     </row>
     <row r="454" spans="2:6">
       <c r="B454" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C454" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D454" s="27"/>
       <c r="E454" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F454" s="41"/>
+    </row>
+    <row r="455" spans="2:6">
+      <c r="B455" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C455" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" s="27"/>
+      <c r="E455" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="F454" s="43"/>
-    </row>
-    <row r="455" spans="2:6">
-      <c r="B455" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C455" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D455" s="27"/>
-      <c r="E455" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="F455" s="32"/>
+      <c r="F455" s="43"/>
     </row>
     <row r="456" spans="2:6">
-      <c r="B456" s="44" t="s">
-        <v>491</v>
+      <c r="B456" s="32" t="s">
+        <v>492</v>
       </c>
       <c r="C456" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D456" s="27"/>
       <c r="E456" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F456" s="32"/>
+    </row>
+    <row r="457" spans="2:6">
+      <c r="B457" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="C457" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" s="27"/>
+      <c r="E457" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="F456" s="32"/>
-    </row>
-    <row r="457" spans="2:6">
-      <c r="B457" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="C457" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D457" s="27"/>
-      <c r="E457" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F457" s="15"/>
+      <c r="F457" s="32"/>
     </row>
     <row r="458" spans="2:6">
       <c r="B458" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C458" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D458" s="27"/>
-      <c r="E458" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="F458" s="32"/>
+      <c r="E458" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F458" s="15"/>
     </row>
     <row r="459" spans="2:6">
       <c r="B459" s="15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C459" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D459" s="27"/>
-      <c r="E459" s="42" t="s">
+      <c r="E459" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F459" s="32"/>
+    </row>
+    <row r="460" spans="2:6">
+      <c r="B460" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C460" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" s="27"/>
+      <c r="E460" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F459" s="15"/>
-    </row>
-    <row r="460" spans="2:6">
-      <c r="B460" s="45" t="s">
+      <c r="F460" s="15"/>
+    </row>
+    <row r="461" spans="2:6">
+      <c r="B461" s="45" t="s">
         <v>341</v>
-      </c>
-      <c r="C460" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D460" s="22"/>
-      <c r="E460" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F460" s="22"/>
-    </row>
-    <row r="461" spans="2:6">
-      <c r="B461" s="22" t="s">
-        <v>342</v>
       </c>
       <c r="C461" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D461" s="22"/>
       <c r="E461" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F461" s="22"/>
     </row>
     <row r="462" spans="2:6">
       <c r="B462" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C462" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D462" s="22"/>
       <c r="E462" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F462" s="22"/>
     </row>
     <row r="463" spans="2:6">
       <c r="B463" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C463" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D463" s="22"/>
       <c r="E463" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F463" s="22"/>
+    </row>
+    <row r="464" spans="2:6">
+      <c r="B464" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C464" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464" s="22"/>
+      <c r="E464" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="F463" s="22"/>
-    </row>
-    <row r="464" spans="2:6">
-      <c r="B464" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C464" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D464" s="27"/>
-      <c r="E464" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F464" s="15"/>
+      <c r="F464" s="22"/>
     </row>
     <row r="465" spans="2:6">
       <c r="B465" s="15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C465" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D465" s="15"/>
+      <c r="D465" s="27"/>
       <c r="E465" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F465" s="15"/>
     </row>
     <row r="466" spans="2:6">
       <c r="B466" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C466" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D466" s="27"/>
+      <c r="D466" s="15"/>
       <c r="E466" s="15" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="F466" s="15"/>
     </row>
     <row r="467" spans="2:6">
       <c r="B467" s="15" t="s">
-        <v>231</v>
+        <v>499</v>
       </c>
       <c r="C467" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D467" s="27"/>
       <c r="E467" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F467" s="15"/>
+    </row>
+    <row r="468" spans="2:6">
+      <c r="B468" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C468" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468" s="27"/>
+      <c r="E468" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F467" s="15"/>
-    </row>
-    <row r="468" spans="2:6">
-      <c r="B468" s="22" t="s">
+      <c r="F468" s="15"/>
+    </row>
+    <row r="469" spans="2:6">
+      <c r="B469" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C468" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D468" s="22"/>
-      <c r="E468" s="22" t="s">
+      <c r="C469" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" s="22"/>
+      <c r="E469" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F468" s="22"/>
-    </row>
-    <row r="469" spans="2:6">
-      <c r="B469" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="C469" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D469" s="27"/>
-      <c r="E469" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F469" s="32"/>
+      <c r="F469" s="22"/>
     </row>
     <row r="470" spans="2:6">
       <c r="B470" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C470" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" s="27"/>
+      <c r="E470" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F470" s="32"/>
+    </row>
+    <row r="471" spans="2:6">
+      <c r="B471" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C470" s="32" t="s">
+      <c r="C471" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D470" s="27"/>
-      <c r="E470" s="32" t="s">
+      <c r="D471" s="27"/>
+      <c r="E471" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F470" s="15" t="s">
+      <c r="F471" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="471" spans="2:6">
-      <c r="B471" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C471" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D471" s="15"/>
-      <c r="E471" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F471" s="15"/>
     </row>
     <row r="472" spans="2:6">
       <c r="B472" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D472" s="15"/>
       <c r="E472" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F472" s="15"/>
     </row>
     <row r="473" spans="2:6">
       <c r="B473" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D473" s="15"/>
       <c r="E473" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F473" s="15"/>
     </row>
     <row r="474" spans="2:6">
       <c r="B474" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D474" s="15"/>
       <c r="E474" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F474" s="15"/>
     </row>
     <row r="475" spans="2:6">
       <c r="B475" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D475" s="15"/>
       <c r="E475" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F475" s="15"/>
+    </row>
+    <row r="476" spans="2:6">
+      <c r="B476" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C476" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D476" s="15"/>
+      <c r="E476" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F475" s="15" t="s">
+      <c r="F476" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="2:6">
-      <c r="B476" s="16" t="s">
+    <row r="477" spans="2:6">
+      <c r="B477" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C476" s="16" t="s">
+      <c r="C477" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D476" s="16"/>
-      <c r="E476" s="16" t="s">
+      <c r="D477" s="16"/>
+      <c r="E477" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F476" s="16" t="s">
+      <c r="F477" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="477" spans="2:6">
-      <c r="B477" s="18"/>
-      <c r="C477" s="18"/>
-      <c r="D477" s="18"/>
-      <c r="E477" s="18"/>
-      <c r="F477" s="18"/>
-    </row>
-    <row r="479" spans="1:6">
-      <c r="A479" s="5">
+    <row r="478" spans="2:6">
+      <c r="B478" s="18"/>
+      <c r="C478" s="18"/>
+      <c r="D478" s="18"/>
+      <c r="E478" s="18"/>
+      <c r="F478" s="18"/>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="5">
         <v>29</v>
       </c>
-      <c r="B479" s="6" t="s">
+      <c r="B480" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C479" s="7"/>
-      <c r="D479" s="8"/>
-      <c r="E479" s="8"/>
-      <c r="F479" s="9"/>
-    </row>
-    <row r="480" spans="2:6">
-      <c r="B480" s="10" t="s">
+      <c r="C480" s="7"/>
+      <c r="D480" s="8"/>
+      <c r="E480" s="8"/>
+      <c r="F480" s="9"/>
+    </row>
+    <row r="481" spans="2:6">
+      <c r="B481" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C480" s="10" t="s">
+      <c r="C481" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D480" s="10" t="s">
+      <c r="D481" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E480" s="10" t="s">
+      <c r="E481" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F480" s="10" t="s">
+      <c r="F481" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="2:6">
-      <c r="B481" s="11" t="s">
+    <row r="482" spans="2:6">
+      <c r="B482" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C481" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D481" s="12"/>
-      <c r="E481" s="12" t="s">
+      <c r="C482" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D482" s="12"/>
+      <c r="E482" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F481" s="13"/>
-    </row>
-    <row r="482" spans="2:6">
-      <c r="B482" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="C482" s="15" t="s">
+      <c r="F482" s="13"/>
+    </row>
+    <row r="483" spans="2:6">
+      <c r="B483" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C483" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D482" s="15"/>
-      <c r="E482" s="42" t="s">
+      <c r="D483" s="15"/>
+      <c r="E483" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F482" s="41"/>
-    </row>
-    <row r="483" s="4" customFormat="1" spans="2:6">
-      <c r="B483" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C483" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D483" s="22"/>
-      <c r="E483" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="F483" s="22"/>
+      <c r="F483" s="41"/>
     </row>
     <row r="484" s="4" customFormat="1" spans="2:6">
-      <c r="B484" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="C484" s="46" t="s">
+      <c r="B484" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C484" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D484" s="22"/>
       <c r="E484" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F484" s="22"/>
+    </row>
+    <row r="485" s="4" customFormat="1" spans="2:6">
+      <c r="B485" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C485" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D485" s="22"/>
+      <c r="E485" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F484" s="22"/>
-    </row>
-    <row r="485" spans="2:6">
-      <c r="B485" s="13" t="s">
+      <c r="F485" s="22"/>
+    </row>
+    <row r="486" spans="2:6">
+      <c r="B486" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C485" s="14" t="s">
+      <c r="C486" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D485" s="13"/>
-      <c r="E485" s="47" t="s">
+      <c r="D486" s="13"/>
+      <c r="E486" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F485" s="13"/>
-    </row>
-    <row r="486" s="4" customFormat="1" spans="2:6">
-      <c r="B486" s="22" t="s">
+      <c r="F486" s="13"/>
+    </row>
+    <row r="487" s="4" customFormat="1" spans="2:6">
+      <c r="B487" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C486" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D486" s="22"/>
-      <c r="E486" s="22" t="s">
+      <c r="C487" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D487" s="22"/>
+      <c r="E487" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F486" s="22"/>
-    </row>
-    <row r="487" spans="2:6">
-      <c r="B487" s="13" t="s">
+      <c r="F487" s="22"/>
+    </row>
+    <row r="488" spans="2:6">
+      <c r="B488" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C487" s="14" t="s">
+      <c r="C488" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D487" s="13"/>
-      <c r="E487" s="47" t="s">
+      <c r="D488" s="13"/>
+      <c r="E488" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F487" s="13"/>
-    </row>
-    <row r="488" s="4" customFormat="1" spans="2:6">
-      <c r="B488" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C488" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D488" s="22"/>
-      <c r="E488" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F488" s="22"/>
-    </row>
-    <row r="489" spans="2:6">
-      <c r="B489" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C489" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D489" s="15"/>
-      <c r="E489" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F489" s="13"/>
+      <c r="F488" s="13"/>
+    </row>
+    <row r="489" s="4" customFormat="1" spans="2:6">
+      <c r="B489" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C489" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D489" s="22"/>
+      <c r="E489" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F489" s="22"/>
     </row>
     <row r="490" spans="2:6">
       <c r="B490" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C490" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D490" s="15"/>
       <c r="E490" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F490" s="13"/>
     </row>
     <row r="491" spans="2:6">
       <c r="B491" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C491" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D491" s="15"/>
       <c r="E491" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F491" s="13"/>
     </row>
     <row r="492" spans="2:6">
       <c r="B492" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C492" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D492" s="15"/>
       <c r="E492" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F492" s="13"/>
     </row>
     <row r="493" spans="2:6">
       <c r="B493" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C493" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="15"/>
+      <c r="E493" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F493" s="13"/>
+    </row>
+    <row r="494" spans="2:6">
+      <c r="B494" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C493" s="13" t="s">
+      <c r="C494" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D493" s="13"/>
-      <c r="E493" s="13" t="s">
+      <c r="D494" s="13"/>
+      <c r="E494" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F493" s="13" t="s">
+      <c r="F494" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="494" spans="2:6">
-      <c r="B494" s="16" t="s">
+    <row r="495" spans="2:6">
+      <c r="B495" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C494" s="16" t="s">
+      <c r="C495" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D494" s="16"/>
-      <c r="E494" s="16" t="s">
+      <c r="D495" s="16"/>
+      <c r="E495" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F494" s="16" t="s">
+      <c r="F495" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="495" spans="2:6">
-      <c r="B495" s="18"/>
-      <c r="C495" s="18"/>
-      <c r="D495" s="18"/>
-      <c r="E495" s="18"/>
-      <c r="F495" s="18"/>
-    </row>
-    <row r="497" spans="1:6">
-      <c r="A497" s="5">
+    <row r="496" spans="2:6">
+      <c r="B496" s="18"/>
+      <c r="C496" s="18"/>
+      <c r="D496" s="18"/>
+      <c r="E496" s="18"/>
+      <c r="F496" s="18"/>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="5">
         <v>30</v>
       </c>
-      <c r="B497" s="6" t="s">
+      <c r="B498" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C497" s="7"/>
-      <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
-      <c r="F497" s="9"/>
-    </row>
-    <row r="498" spans="2:6">
-      <c r="B498" s="10" t="s">
+      <c r="C498" s="7"/>
+      <c r="D498" s="8"/>
+      <c r="E498" s="8"/>
+      <c r="F498" s="9"/>
+    </row>
+    <row r="499" spans="2:6">
+      <c r="B499" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C498" s="10" t="s">
+      <c r="C499" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D498" s="10" t="s">
+      <c r="D499" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E498" s="10" t="s">
+      <c r="E499" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F498" s="10" t="s">
+      <c r="F499" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="2:6">
-      <c r="B499" s="11" t="s">
+    <row r="500" spans="2:6">
+      <c r="B500" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C499" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D499" s="12"/>
-      <c r="E499" s="12" t="s">
+      <c r="C500" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500" s="12"/>
+      <c r="E500" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F499" s="13"/>
-    </row>
-    <row r="500" spans="2:6">
-      <c r="B500" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="C500" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D500" s="13"/>
-      <c r="E500" s="47" t="s">
+      <c r="F500" s="13"/>
+    </row>
+    <row r="501" spans="2:6">
+      <c r="B501" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C501" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D501" s="13"/>
+      <c r="E501" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="F500" s="48"/>
-    </row>
-    <row r="501" s="4" customFormat="1" spans="2:6">
-      <c r="B501" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="C501" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D501" s="22"/>
-      <c r="E501" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="F501" s="22"/>
+      <c r="F501" s="48"/>
     </row>
     <row r="502" s="4" customFormat="1" spans="2:6">
-      <c r="B502" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="C502" s="46" t="s">
+      <c r="B502" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C502" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D502" s="22"/>
       <c r="E502" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F502" s="22"/>
+    </row>
+    <row r="503" s="4" customFormat="1" spans="2:6">
+      <c r="B503" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C503" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D503" s="22"/>
+      <c r="E503" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F502" s="22"/>
-    </row>
-    <row r="503" spans="2:6">
-      <c r="B503" s="13" t="s">
+      <c r="F503" s="22"/>
+    </row>
+    <row r="504" spans="2:6">
+      <c r="B504" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C503" s="14" t="s">
+      <c r="C504" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D503" s="13"/>
-      <c r="E503" s="47" t="s">
+      <c r="D504" s="13"/>
+      <c r="E504" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F503" s="13"/>
-    </row>
-    <row r="504" s="4" customFormat="1" spans="2:6">
-      <c r="B504" s="22" t="s">
+      <c r="F504" s="13"/>
+    </row>
+    <row r="505" s="4" customFormat="1" spans="2:6">
+      <c r="B505" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C504" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D504" s="22"/>
-      <c r="E504" s="22" t="s">
+      <c r="C505" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D505" s="22"/>
+      <c r="E505" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F504" s="22"/>
-    </row>
-    <row r="505" spans="2:6">
-      <c r="B505" s="13" t="s">
+      <c r="F505" s="22"/>
+    </row>
+    <row r="506" spans="2:6">
+      <c r="B506" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C505" s="14" t="s">
+      <c r="C506" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D505" s="13"/>
-      <c r="E505" s="47" t="s">
+      <c r="D506" s="13"/>
+      <c r="E506" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F505" s="13"/>
-    </row>
-    <row r="506" s="4" customFormat="1" spans="2:6">
-      <c r="B506" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C506" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D506" s="22"/>
-      <c r="E506" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F506" s="22"/>
-    </row>
-    <row r="507" spans="2:6">
-      <c r="B507" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C507" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D507" s="15"/>
-      <c r="E507" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F507" s="13"/>
+      <c r="F506" s="13"/>
+    </row>
+    <row r="507" s="4" customFormat="1" spans="2:6">
+      <c r="B507" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C507" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D507" s="22"/>
+      <c r="E507" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F507" s="22"/>
     </row>
     <row r="508" spans="2:6">
       <c r="B508" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C508" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D508" s="15"/>
       <c r="E508" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F508" s="13"/>
     </row>
     <row r="509" spans="2:6">
       <c r="B509" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C509" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D509" s="15"/>
       <c r="E509" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F509" s="13"/>
     </row>
     <row r="510" spans="2:6">
       <c r="B510" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C510" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D510" s="15"/>
       <c r="E510" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F510" s="13"/>
     </row>
     <row r="511" spans="2:6">
       <c r="B511" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C511" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D511" s="15"/>
+      <c r="E511" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F511" s="13"/>
+    </row>
+    <row r="512" spans="2:6">
+      <c r="B512" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C511" s="13" t="s">
+      <c r="C512" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D511" s="13"/>
-      <c r="E511" s="13" t="s">
+      <c r="D512" s="13"/>
+      <c r="E512" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F511" s="13" t="s">
+      <c r="F512" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="2:6">
-      <c r="B512" s="16" t="s">
+    <row r="513" spans="2:6">
+      <c r="B513" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C512" s="16" t="s">
+      <c r="C513" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D512" s="16"/>
-      <c r="E512" s="16" t="s">
+      <c r="D513" s="16"/>
+      <c r="E513" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F512" s="16" t="s">
+      <c r="F513" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="513" spans="2:6">
-      <c r="B513" s="18"/>
-      <c r="C513" s="18"/>
-      <c r="D513" s="18"/>
-      <c r="E513" s="18"/>
-      <c r="F513" s="18"/>
-    </row>
-    <row r="515" spans="1:6">
-      <c r="A515" s="5">
+    <row r="514" spans="2:6">
+      <c r="B514" s="18"/>
+      <c r="C514" s="18"/>
+      <c r="D514" s="18"/>
+      <c r="E514" s="18"/>
+      <c r="F514" s="18"/>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="5">
         <v>31</v>
       </c>
-      <c r="B515" s="6" t="s">
+      <c r="B516" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C515" s="7"/>
-      <c r="D515" s="8"/>
-      <c r="E515" s="8"/>
-      <c r="F515" s="9"/>
-    </row>
-    <row r="516" spans="2:6">
-      <c r="B516" s="10" t="s">
+      <c r="C516" s="7"/>
+      <c r="D516" s="8"/>
+      <c r="E516" s="8"/>
+      <c r="F516" s="9"/>
+    </row>
+    <row r="517" spans="2:6">
+      <c r="B517" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C516" s="10" t="s">
+      <c r="C517" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D516" s="10" t="s">
+      <c r="D517" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E516" s="10" t="s">
+      <c r="E517" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F516" s="10" t="s">
+      <c r="F517" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="2:6">
-      <c r="B517" s="11" t="s">
+    <row r="518" spans="2:6">
+      <c r="B518" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C517" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D517" s="12"/>
-      <c r="E517" s="12" t="s">
+      <c r="C518" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D518" s="12"/>
+      <c r="E518" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F517" s="13"/>
-    </row>
-    <row r="518" s="3" customFormat="1" spans="2:6">
-      <c r="B518" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="C518" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D518" s="15"/>
-      <c r="E518" s="42" t="s">
+      <c r="F518" s="13"/>
+    </row>
+    <row r="519" s="3" customFormat="1" spans="2:6">
+      <c r="B519" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C519" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D519" s="15"/>
+      <c r="E519" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F518" s="41"/>
-    </row>
-    <row r="519" s="4" customFormat="1" spans="2:6">
-      <c r="B519" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C519" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D519" s="22"/>
-      <c r="E519" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="F519" s="22"/>
-    </row>
-    <row r="520" s="3" customFormat="1" spans="2:6">
+      <c r="F519" s="41"/>
+    </row>
+    <row r="520" s="4" customFormat="1" spans="2:6">
       <c r="B520" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C520" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="C520" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D520" s="22"/>
-      <c r="E520" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="F520" s="32"/>
+      <c r="E520" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F520" s="22"/>
     </row>
     <row r="521" s="3" customFormat="1" spans="2:6">
-      <c r="B521" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="C521" s="46" t="s">
+      <c r="B521" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C521" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D521" s="22"/>
       <c r="E521" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F521" s="32"/>
+    </row>
+    <row r="522" s="3" customFormat="1" spans="2:6">
+      <c r="B522" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C522" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522" s="22"/>
+      <c r="E522" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F521" s="32"/>
-    </row>
-    <row r="522" spans="2:6">
-      <c r="B522" s="13" t="s">
+      <c r="F522" s="32"/>
+    </row>
+    <row r="523" spans="2:6">
+      <c r="B523" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C522" s="14" t="s">
+      <c r="C523" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D522" s="13"/>
-      <c r="E522" s="47" t="s">
+      <c r="D523" s="13"/>
+      <c r="E523" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F522" s="13"/>
-    </row>
-    <row r="523" s="3" customFormat="1" spans="2:6">
-      <c r="B523" s="22" t="s">
+      <c r="F523" s="13"/>
+    </row>
+    <row r="524" s="3" customFormat="1" spans="2:6">
+      <c r="B524" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C523" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D523" s="22"/>
-      <c r="E523" s="22" t="s">
+      <c r="C524" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524" s="22"/>
+      <c r="E524" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F523" s="32"/>
-    </row>
-    <row r="524" spans="2:6">
-      <c r="B524" s="13" t="s">
+      <c r="F524" s="32"/>
+    </row>
+    <row r="525" spans="2:6">
+      <c r="B525" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C524" s="14" t="s">
+      <c r="C525" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D524" s="13"/>
-      <c r="E524" s="47" t="s">
+      <c r="D525" s="13"/>
+      <c r="E525" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F524" s="13"/>
-    </row>
-    <row r="525" s="3" customFormat="1" spans="2:6">
-      <c r="B525" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C525" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D525" s="22"/>
-      <c r="E525" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F525" s="32"/>
-    </row>
-    <row r="526" spans="2:6">
-      <c r="B526" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C526" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D526" s="15"/>
-      <c r="E526" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F526" s="13"/>
+      <c r="F525" s="13"/>
+    </row>
+    <row r="526" s="3" customFormat="1" spans="2:6">
+      <c r="B526" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C526" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D526" s="22"/>
+      <c r="E526" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F526" s="32"/>
     </row>
     <row r="527" spans="2:6">
       <c r="B527" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C527" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D527" s="15"/>
       <c r="E527" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F527" s="13"/>
     </row>
     <row r="528" spans="2:6">
       <c r="B528" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C528" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D528" s="15"/>
       <c r="E528" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F528" s="13"/>
     </row>
     <row r="529" spans="2:6">
       <c r="B529" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C529" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D529" s="15"/>
       <c r="E529" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F529" s="13"/>
     </row>
     <row r="530" spans="2:6">
       <c r="B530" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C530" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D530" s="15"/>
+      <c r="E530" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F530" s="13"/>
+    </row>
+    <row r="531" spans="2:6">
+      <c r="B531" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C530" s="13" t="s">
+      <c r="C531" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D530" s="13"/>
-      <c r="E530" s="13" t="s">
+      <c r="D531" s="13"/>
+      <c r="E531" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F530" s="13" t="s">
+      <c r="F531" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="531" spans="2:6">
-      <c r="B531" s="16" t="s">
+    <row r="532" spans="2:6">
+      <c r="B532" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C531" s="16" t="s">
+      <c r="C532" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D531" s="16"/>
-      <c r="E531" s="16" t="s">
+      <c r="D532" s="16"/>
+      <c r="E532" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F531" s="16" t="s">
+      <c r="F532" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="532" spans="2:6">
-      <c r="B532" s="18"/>
-      <c r="C532" s="18"/>
-      <c r="D532" s="18"/>
-      <c r="E532" s="18"/>
-      <c r="F532" s="18"/>
-    </row>
-    <row r="534" spans="1:6">
-      <c r="A534" s="5">
+    <row r="533" spans="2:6">
+      <c r="B533" s="18"/>
+      <c r="C533" s="18"/>
+      <c r="D533" s="18"/>
+      <c r="E533" s="18"/>
+      <c r="F533" s="18"/>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" s="5">
         <v>32</v>
       </c>
-      <c r="B534" s="6" t="s">
+      <c r="B535" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C534" s="7"/>
-      <c r="D534" s="8"/>
-      <c r="E534" s="8"/>
-      <c r="F534" s="9"/>
-    </row>
-    <row r="535" spans="2:6">
-      <c r="B535" s="10" t="s">
+      <c r="C535" s="7"/>
+      <c r="D535" s="8"/>
+      <c r="E535" s="8"/>
+      <c r="F535" s="9"/>
+    </row>
+    <row r="536" spans="2:6">
+      <c r="B536" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C535" s="10" t="s">
+      <c r="C536" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D535" s="10" t="s">
+      <c r="D536" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E535" s="10" t="s">
+      <c r="E536" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F535" s="10" t="s">
+      <c r="F536" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="2:6">
-      <c r="B536" s="11" t="s">
+    <row r="537" spans="2:6">
+      <c r="B537" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C536" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D536" s="12"/>
-      <c r="E536" s="12" t="s">
+      <c r="C537" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D537" s="12"/>
+      <c r="E537" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F536" s="13"/>
-    </row>
-    <row r="537" spans="2:6">
-      <c r="B537" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="C537" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D537" s="13"/>
-      <c r="E537" s="47" t="s">
+      <c r="F537" s="13"/>
+    </row>
+    <row r="538" spans="2:6">
+      <c r="B538" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C538" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D538" s="13"/>
+      <c r="E538" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="F537" s="48"/>
-    </row>
-    <row r="538" s="3" customFormat="1" spans="2:6">
-      <c r="B538" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C538" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D538" s="22"/>
-      <c r="E538" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="F538" s="43"/>
+      <c r="F538" s="48"/>
     </row>
     <row r="539" s="3" customFormat="1" spans="2:6">
       <c r="B539" s="22" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="C539" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D539" s="22"/>
-      <c r="E539" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="F539" s="32"/>
+      <c r="E539" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F539" s="43"/>
     </row>
     <row r="540" s="3" customFormat="1" spans="2:6">
-      <c r="B540" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="C540" s="46" t="s">
+      <c r="B540" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C540" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D540" s="22"/>
       <c r="E540" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F540" s="32"/>
+    </row>
+    <row r="541" s="3" customFormat="1" spans="2:6">
+      <c r="B541" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C541" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D541" s="22"/>
+      <c r="E541" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F540" s="32"/>
-    </row>
-    <row r="541" spans="2:6">
-      <c r="B541" s="13" t="s">
+      <c r="F541" s="32"/>
+    </row>
+    <row r="542" spans="2:6">
+      <c r="B542" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C541" s="14" t="s">
+      <c r="C542" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D541" s="13"/>
-      <c r="E541" s="47" t="s">
+      <c r="D542" s="13"/>
+      <c r="E542" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F541" s="13"/>
-    </row>
-    <row r="542" s="3" customFormat="1" spans="2:6">
-      <c r="B542" s="22" t="s">
+      <c r="F542" s="13"/>
+    </row>
+    <row r="543" s="3" customFormat="1" spans="2:6">
+      <c r="B543" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C542" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D542" s="22"/>
-      <c r="E542" s="22" t="s">
+      <c r="C543" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D543" s="22"/>
+      <c r="E543" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F542" s="32"/>
-    </row>
-    <row r="543" spans="2:6">
-      <c r="B543" s="13" t="s">
+      <c r="F543" s="32"/>
+    </row>
+    <row r="544" spans="2:6">
+      <c r="B544" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C543" s="14" t="s">
+      <c r="C544" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D543" s="13"/>
-      <c r="E543" s="47" t="s">
+      <c r="D544" s="13"/>
+      <c r="E544" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F543" s="13"/>
-    </row>
-    <row r="544" s="3" customFormat="1" spans="2:6">
-      <c r="B544" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C544" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D544" s="22"/>
-      <c r="E544" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F544" s="32"/>
-    </row>
-    <row r="545" spans="2:6">
-      <c r="B545" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C545" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D545" s="15"/>
-      <c r="E545" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F545" s="13"/>
+      <c r="F544" s="13"/>
+    </row>
+    <row r="545" s="3" customFormat="1" spans="2:6">
+      <c r="B545" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C545" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D545" s="22"/>
+      <c r="E545" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F545" s="32"/>
     </row>
     <row r="546" spans="2:6">
       <c r="B546" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C546" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D546" s="15"/>
       <c r="E546" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F546" s="13"/>
     </row>
     <row r="547" spans="2:6">
       <c r="B547" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C547" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D547" s="15"/>
       <c r="E547" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F547" s="13"/>
     </row>
     <row r="548" spans="2:6">
       <c r="B548" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C548" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D548" s="15"/>
       <c r="E548" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F548" s="13"/>
     </row>
     <row r="549" spans="2:6">
       <c r="B549" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C549" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D549" s="15"/>
+      <c r="E549" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F549" s="13"/>
+    </row>
+    <row r="550" spans="2:6">
+      <c r="B550" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C549" s="13" t="s">
+      <c r="C550" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D549" s="13"/>
-      <c r="E549" s="13" t="s">
+      <c r="D550" s="13"/>
+      <c r="E550" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F549" s="13" t="s">
+      <c r="F550" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="550" spans="2:6">
-      <c r="B550" s="16" t="s">
+    <row r="551" spans="2:6">
+      <c r="B551" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C550" s="16" t="s">
+      <c r="C551" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D550" s="16"/>
-      <c r="E550" s="16" t="s">
+      <c r="D551" s="16"/>
+      <c r="E551" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F550" s="16" t="s">
+      <c r="F551" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="551" spans="2:6">
-      <c r="B551" s="18"/>
-      <c r="C551" s="18"/>
-      <c r="D551" s="18"/>
-      <c r="E551" s="18"/>
-      <c r="F551" s="18"/>
-    </row>
-    <row r="553" spans="1:6">
-      <c r="A553" s="5">
+    <row r="552" spans="2:6">
+      <c r="B552" s="18"/>
+      <c r="C552" s="18"/>
+      <c r="D552" s="18"/>
+      <c r="E552" s="18"/>
+      <c r="F552" s="18"/>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="5">
         <v>33</v>
       </c>
-      <c r="B553" s="6" t="s">
+      <c r="B554" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C553" s="7"/>
-      <c r="D553" s="8"/>
-      <c r="E553" s="8"/>
-      <c r="F553" s="9"/>
-    </row>
-    <row r="554" spans="2:6">
-      <c r="B554" s="10" t="s">
+      <c r="C554" s="7"/>
+      <c r="D554" s="8"/>
+      <c r="E554" s="8"/>
+      <c r="F554" s="9"/>
+    </row>
+    <row r="555" spans="2:6">
+      <c r="B555" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C554" s="10" t="s">
+      <c r="C555" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D554" s="10" t="s">
+      <c r="D555" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E554" s="10" t="s">
+      <c r="E555" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F554" s="10" t="s">
+      <c r="F555" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="2:6">
-      <c r="B555" s="11" t="s">
+    <row r="556" spans="2:6">
+      <c r="B556" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C555" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D555" s="12"/>
-      <c r="E555" s="12" t="s">
+      <c r="C556" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D556" s="12"/>
+      <c r="E556" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F555" s="13"/>
-    </row>
-    <row r="556" s="3" customFormat="1" spans="2:6">
-      <c r="B556" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C556" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D556" s="50"/>
-      <c r="E556" s="42" t="s">
+      <c r="F556" s="13"/>
+    </row>
+    <row r="557" s="3" customFormat="1" spans="2:6">
+      <c r="B557" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C557" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D557" s="50"/>
+      <c r="E557" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="F556" s="32"/>
-    </row>
-    <row r="557" s="4" customFormat="1" spans="2:6">
-      <c r="B557" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="C557" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D557" s="22"/>
-      <c r="E557" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="F557" s="22"/>
-    </row>
-    <row r="558" s="3" customFormat="1" spans="2:6">
+      <c r="F557" s="32"/>
+    </row>
+    <row r="558" s="4" customFormat="1" spans="2:6">
       <c r="B558" s="22" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
       <c r="C558" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D558" s="22"/>
       <c r="E558" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="F558" s="32"/>
+        <v>511</v>
+      </c>
+      <c r="F558" s="22"/>
     </row>
     <row r="559" s="3" customFormat="1" spans="2:6">
-      <c r="B559" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="C559" s="46" t="s">
+      <c r="B559" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C559" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D559" s="22"/>
       <c r="E559" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F559" s="32"/>
+    </row>
+    <row r="560" s="3" customFormat="1" spans="2:6">
+      <c r="B560" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C560" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D560" s="22"/>
+      <c r="E560" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F559" s="32"/>
-    </row>
-    <row r="560" spans="2:6">
-      <c r="B560" s="13" t="s">
+      <c r="F560" s="32"/>
+    </row>
+    <row r="561" spans="2:6">
+      <c r="B561" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C560" s="34" t="s">
+      <c r="C561" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="D560" s="19"/>
-      <c r="E560" s="51" t="s">
+      <c r="D561" s="19"/>
+      <c r="E561" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="F560" s="34"/>
-    </row>
-    <row r="561" s="3" customFormat="1" spans="2:6">
-      <c r="B561" s="22" t="s">
+      <c r="F561" s="34"/>
+    </row>
+    <row r="562" s="3" customFormat="1" spans="2:6">
+      <c r="B562" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C561" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D561" s="22"/>
-      <c r="E561" s="22" t="s">
+      <c r="C562" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D562" s="22"/>
+      <c r="E562" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="F561" s="32"/>
-    </row>
-    <row r="562" spans="2:6">
-      <c r="B562" s="13" t="s">
+      <c r="F562" s="32"/>
+    </row>
+    <row r="563" spans="2:6">
+      <c r="B563" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C562" s="13" t="s">
+      <c r="C563" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D562" s="19"/>
-      <c r="E562" s="51" t="s">
+      <c r="D563" s="19"/>
+      <c r="E563" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F562" s="13"/>
-    </row>
-    <row r="563" s="3" customFormat="1" spans="2:6">
-      <c r="B563" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C563" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D563" s="22"/>
-      <c r="E563" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F563" s="32"/>
-    </row>
-    <row r="564" spans="2:6">
-      <c r="B564" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C564" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D564" s="15"/>
-      <c r="E564" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F564" s="13"/>
+      <c r="F563" s="13"/>
+    </row>
+    <row r="564" s="3" customFormat="1" spans="2:6">
+      <c r="B564" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C564" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D564" s="22"/>
+      <c r="E564" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F564" s="32"/>
     </row>
     <row r="565" spans="2:6">
       <c r="B565" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C565" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D565" s="15"/>
       <c r="E565" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F565" s="13"/>
     </row>
     <row r="566" spans="2:6">
       <c r="B566" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C566" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D566" s="15"/>
       <c r="E566" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F566" s="13"/>
     </row>
     <row r="567" spans="2:6">
       <c r="B567" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C567" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D567" s="15"/>
       <c r="E567" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F567" s="13"/>
     </row>
     <row r="568" spans="2:6">
       <c r="B568" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C568" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D568" s="15"/>
+      <c r="E568" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F568" s="13"/>
+    </row>
+    <row r="569" spans="2:6">
+      <c r="B569" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C568" s="13" t="s">
+      <c r="C569" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D568" s="13"/>
-      <c r="E568" s="13" t="s">
+      <c r="D569" s="13"/>
+      <c r="E569" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F568" s="13" t="s">
+      <c r="F569" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="569" spans="2:6">
-      <c r="B569" s="16" t="s">
+    <row r="570" spans="2:6">
+      <c r="B570" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C569" s="16" t="s">
+      <c r="C570" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D569" s="16"/>
-      <c r="E569" s="16" t="s">
+      <c r="D570" s="16"/>
+      <c r="E570" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F569" s="16" t="s">
+      <c r="F570" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="570" spans="2:6">
-      <c r="B570" s="18"/>
-      <c r="C570" s="18"/>
-      <c r="D570" s="18"/>
-      <c r="E570" s="18"/>
-      <c r="F570" s="18"/>
-    </row>
-    <row r="572" spans="1:6">
-      <c r="A572" s="5">
+    <row r="571" spans="2:6">
+      <c r="B571" s="18"/>
+      <c r="C571" s="18"/>
+      <c r="D571" s="18"/>
+      <c r="E571" s="18"/>
+      <c r="F571" s="18"/>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="5">
         <v>34</v>
       </c>
-      <c r="B572" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="C572" s="7"/>
-      <c r="D572" s="8"/>
-      <c r="E572" s="8"/>
-      <c r="F572" s="9"/>
-    </row>
-    <row r="573" spans="2:6">
-      <c r="B573" s="10" t="s">
+      <c r="B573" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C573" s="7"/>
+      <c r="D573" s="8"/>
+      <c r="E573" s="8"/>
+      <c r="F573" s="9"/>
+    </row>
+    <row r="574" spans="2:6">
+      <c r="B574" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C573" s="10" t="s">
+      <c r="C574" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D573" s="10" t="s">
+      <c r="D574" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E573" s="10" t="s">
+      <c r="E574" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F573" s="10" t="s">
+      <c r="F574" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="2:6">
-      <c r="B574" s="11" t="s">
+    <row r="575" spans="2:6">
+      <c r="B575" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C574" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D574" s="12"/>
-      <c r="E574" s="12" t="s">
+      <c r="C575" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D575" s="12"/>
+      <c r="E575" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F574" s="13"/>
-    </row>
-    <row r="575" spans="2:6">
-      <c r="B575" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C575" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D575" s="50"/>
-      <c r="E575" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="F575" s="32"/>
-    </row>
-    <row r="576" s="1" customFormat="1" spans="2:6">
-      <c r="B576" s="22" t="s">
+      <c r="F575" s="13"/>
+    </row>
+    <row r="576" spans="2:6">
+      <c r="B576" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C576" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22" t="s">
+      <c r="C576" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D576" s="50"/>
+      <c r="E576" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="F576" s="22" t="s">
+      <c r="F576" s="32"/>
+    </row>
+    <row r="577" s="1" customFormat="1" spans="2:6">
+      <c r="B577" s="22" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="577" s="2" customFormat="1" spans="2:6">
-      <c r="B577" s="22" t="s">
-        <v>508</v>
       </c>
       <c r="C577" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D577" s="22"/>
       <c r="E577" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="F577" s="27"/>
-    </row>
-    <row r="578" s="1" customFormat="1" spans="2:6">
-      <c r="B578" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="C578" s="46" t="s">
+      <c r="F577" s="22" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="578" s="2" customFormat="1" spans="2:6">
+      <c r="B578" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C578" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D578" s="22"/>
       <c r="E578" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F578" s="22"/>
-    </row>
-    <row r="579" s="2" customFormat="1" spans="2:6">
-      <c r="B579" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C579" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F578" s="27"/>
+    </row>
+    <row r="579" s="1" customFormat="1" spans="2:6">
+      <c r="B579" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="C579" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D579" s="22"/>
       <c r="E579" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="F579" s="22"/>
+    </row>
+    <row r="580" s="2" customFormat="1" spans="2:6">
+      <c r="B580" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C580" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D580" s="22"/>
+      <c r="E580" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="F579" s="28"/>
-    </row>
-    <row r="580" s="2" customFormat="1" spans="2:6">
-      <c r="B580" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="C580" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D580" s="27"/>
-      <c r="E580" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="F580" s="27"/>
+      <c r="F580" s="28"/>
     </row>
     <row r="581" s="2" customFormat="1" spans="2:6">
-      <c r="B581" s="22" t="s">
+      <c r="B581" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="C581" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D581" s="27"/>
+      <c r="E581" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F581" s="27"/>
+    </row>
+    <row r="582" s="2" customFormat="1" spans="2:6">
+      <c r="B582" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C581" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D581" s="22"/>
-      <c r="E581" s="22" t="s">
+      <c r="C582" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D582" s="22"/>
+      <c r="E582" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="F581" s="27"/>
-    </row>
-    <row r="582" s="2" customFormat="1" spans="2:6">
-      <c r="B582" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="C582" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D582" s="27"/>
-      <c r="E582" s="27" t="s">
-        <v>521</v>
       </c>
       <c r="F582" s="27"/>
     </row>
@@ -18214,7 +18220,7 @@
         <v>522</v>
       </c>
       <c r="C583" s="27" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D583" s="27"/>
       <c r="E583" s="27" t="s">
@@ -18222,94 +18228,100 @@
       </c>
       <c r="F583" s="27"/>
     </row>
-    <row r="584" spans="2:6">
-      <c r="B584" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C584" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D584" s="15"/>
-      <c r="E584" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F584" s="13"/>
+    <row r="584" s="2" customFormat="1" spans="2:6">
+      <c r="B584" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C584" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D584" s="27"/>
+      <c r="E584" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="F584" s="27"/>
     </row>
     <row r="585" spans="2:6">
       <c r="B585" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C585" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D585" s="15"/>
       <c r="E585" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F585" s="13"/>
     </row>
     <row r="586" spans="2:6">
       <c r="B586" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C586" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D586" s="15"/>
       <c r="E586" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F586" s="13"/>
     </row>
     <row r="587" spans="2:6">
       <c r="B587" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C587" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D587" s="15"/>
       <c r="E587" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F587" s="13"/>
     </row>
     <row r="588" spans="2:6">
       <c r="B588" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C588" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D588" s="15"/>
+      <c r="E588" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F588" s="13"/>
+    </row>
+    <row r="589" spans="2:6">
+      <c r="B589" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C588" s="13" t="s">
+      <c r="C589" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D588" s="13"/>
-      <c r="E588" s="13" t="s">
+      <c r="D589" s="13"/>
+      <c r="E589" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F588" s="13" t="s">
+      <c r="F589" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="589" spans="2:6">
-      <c r="B589" s="16" t="s">
+    <row r="590" spans="2:6">
+      <c r="B590" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C589" s="16" t="s">
+      <c r="C590" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D589" s="16"/>
-      <c r="E589" s="16" t="s">
+      <c r="D590" s="16"/>
+      <c r="E590" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F589" s="16" t="s">
+      <c r="F590" s="16" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="590" spans="2:6">
-      <c r="B590" s="18"/>
-      <c r="C590" s="18"/>
-      <c r="D590" s="18"/>
-      <c r="E590" s="18"/>
-      <c r="F590" s="18"/>
     </row>
     <row r="591" spans="2:6">
       <c r="B591" s="18"/>
@@ -18318,138 +18330,132 @@
       <c r="E591" s="18"/>
       <c r="F591" s="18"/>
     </row>
-    <row r="592" spans="1:6">
-      <c r="A592" s="5">
+    <row r="592" spans="2:6">
+      <c r="B592" s="18"/>
+      <c r="C592" s="18"/>
+      <c r="D592" s="18"/>
+      <c r="E592" s="18"/>
+      <c r="F592" s="18"/>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" s="5">
         <v>35</v>
       </c>
-      <c r="B592" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C592" s="7"/>
-      <c r="D592" s="8"/>
-      <c r="E592" s="8"/>
-      <c r="F592" s="9"/>
-    </row>
-    <row r="593" spans="2:6">
-      <c r="B593" s="10" t="s">
+      <c r="B593" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C593" s="7"/>
+      <c r="D593" s="8"/>
+      <c r="E593" s="8"/>
+      <c r="F593" s="9"/>
+    </row>
+    <row r="594" spans="2:6">
+      <c r="B594" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C593" s="10" t="s">
+      <c r="C594" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D593" s="10" t="s">
+      <c r="D594" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E593" s="10" t="s">
+      <c r="E594" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F593" s="10" t="s">
+      <c r="F594" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="2:6">
-      <c r="B594" s="11" t="s">
+    <row r="595" spans="2:6">
+      <c r="B595" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C594" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D594" s="12"/>
-      <c r="E594" s="12" t="s">
+      <c r="C595" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D595" s="12"/>
+      <c r="E595" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F594" s="13"/>
-    </row>
-    <row r="595" spans="2:6">
-      <c r="B595" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="C595" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D595" s="45"/>
-      <c r="E595" s="49" t="s">
-        <v>526</v>
-      </c>
-      <c r="F595" s="22"/>
+      <c r="F595" s="13"/>
     </row>
     <row r="596" spans="2:6">
-      <c r="B596" s="15" t="s">
+      <c r="B596" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C596" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D596" s="50"/>
-      <c r="E596" s="42" t="s">
+      <c r="C596" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D596" s="45"/>
+      <c r="E596" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="F596" s="32"/>
+      <c r="F596" s="22"/>
     </row>
     <row r="597" spans="2:6">
-      <c r="B597" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="C597" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D597" s="22"/>
-      <c r="E597" s="22" t="s">
-        <v>502</v>
+      <c r="B597" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C597" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D597" s="50"/>
+      <c r="E597" s="42" t="s">
+        <v>530</v>
       </c>
       <c r="F597" s="32"/>
     </row>
     <row r="598" spans="2:6">
-      <c r="B598" s="52" t="s">
-        <v>529</v>
-      </c>
-      <c r="C598" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D598" s="53"/>
-      <c r="E598" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="F598" s="27"/>
+      <c r="B598" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C598" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D598" s="22"/>
+      <c r="E598" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F598" s="32"/>
     </row>
     <row r="599" spans="2:6">
       <c r="B599" s="52" t="s">
-        <v>530</v>
-      </c>
-      <c r="C599" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D599" s="50"/>
-      <c r="E599" s="42" t="s">
+      <c r="C599" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D599" s="53"/>
+      <c r="E599" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F599" s="27"/>
+    </row>
+    <row r="600" spans="2:6">
+      <c r="B600" s="52" t="s">
         <v>532</v>
       </c>
-      <c r="F599" s="32"/>
-    </row>
-    <row r="600" spans="2:6">
-      <c r="B600" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C600" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D600" s="22"/>
-      <c r="E600" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F600" s="22"/>
-    </row>
-    <row r="601" s="2" customFormat="1" spans="2:6">
-      <c r="B601" s="52" t="s">
+      <c r="C600" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="C601" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D601" s="27"/>
-      <c r="E601" s="27" t="s">
+      <c r="D600" s="50"/>
+      <c r="E600" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="F601" s="27"/>
+      <c r="F600" s="32"/>
+    </row>
+    <row r="601" spans="2:6">
+      <c r="B601" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C601" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D601" s="22"/>
+      <c r="E601" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F601" s="22"/>
     </row>
     <row r="602" s="2" customFormat="1" spans="2:6">
       <c r="B602" s="52" t="s">
@@ -18464,12 +18470,12 @@
       </c>
       <c r="F602" s="27"/>
     </row>
-    <row r="603" spans="2:6">
-      <c r="B603" s="27" t="s">
+    <row r="603" s="2" customFormat="1" spans="2:6">
+      <c r="B603" s="52" t="s">
         <v>537</v>
       </c>
-      <c r="C603" s="27" t="s">
-        <v>20</v>
+      <c r="C603" s="52" t="s">
+        <v>7</v>
       </c>
       <c r="D603" s="27"/>
       <c r="E603" s="27" t="s">
@@ -18478,119 +18484,125 @@
       <c r="F603" s="27"/>
     </row>
     <row r="604" spans="2:6">
-      <c r="B604" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C604" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D604" s="21"/>
-      <c r="E604" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F604" s="28"/>
+      <c r="B604" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C604" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D604" s="27"/>
+      <c r="E604" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F604" s="27"/>
     </row>
     <row r="605" spans="2:6">
-      <c r="B605" s="20" t="s">
+      <c r="B605" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C605" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D605" s="21"/>
+      <c r="E605" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="C605" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D605" s="23"/>
-      <c r="E605" s="55" t="s">
-        <v>405</v>
-      </c>
-      <c r="F605" s="20"/>
+      <c r="F605" s="28"/>
     </row>
     <row r="606" spans="2:6">
-      <c r="B606" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C606" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D606" s="15"/>
-      <c r="E606" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F606" s="13"/>
+      <c r="B606" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C606" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D606" s="23"/>
+      <c r="E606" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="F606" s="20"/>
     </row>
     <row r="607" spans="2:6">
       <c r="B607" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C607" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D607" s="15"/>
       <c r="E607" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F607" s="13"/>
     </row>
     <row r="608" spans="2:6">
       <c r="B608" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C608" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D608" s="15"/>
       <c r="E608" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F608" s="13"/>
     </row>
     <row r="609" spans="2:6">
       <c r="B609" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C609" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D609" s="15"/>
       <c r="E609" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F609" s="13"/>
     </row>
     <row r="610" spans="2:6">
       <c r="B610" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C610" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D610" s="15"/>
+      <c r="E610" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F610" s="13"/>
+    </row>
+    <row r="611" spans="2:6">
+      <c r="B611" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C610" s="13" t="s">
+      <c r="C611" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D610" s="13"/>
-      <c r="E610" s="13" t="s">
+      <c r="D611" s="13"/>
+      <c r="E611" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F610" s="13" t="s">
+      <c r="F611" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="611" spans="2:6">
-      <c r="B611" s="16" t="s">
+    <row r="612" spans="2:6">
+      <c r="B612" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C611" s="16" t="s">
+      <c r="C612" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D611" s="16"/>
-      <c r="E611" s="16" t="s">
+      <c r="D612" s="16"/>
+      <c r="E612" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F611" s="16" t="s">
+      <c r="F612" s="16" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="612" spans="2:6">
-      <c r="B612" s="18"/>
-      <c r="C612" s="18"/>
-      <c r="D612" s="18"/>
-      <c r="E612" s="18"/>
-      <c r="F612" s="18"/>
     </row>
     <row r="613" spans="2:6">
       <c r="B613" s="18"/>
@@ -18599,145 +18611,139 @@
       <c r="E613" s="18"/>
       <c r="F613" s="18"/>
     </row>
-    <row r="614" spans="1:6">
-      <c r="A614" s="5">
+    <row r="614" spans="2:6">
+      <c r="B614" s="18"/>
+      <c r="C614" s="18"/>
+      <c r="D614" s="18"/>
+      <c r="E614" s="18"/>
+      <c r="F614" s="18"/>
+    </row>
+    <row r="615" spans="1:6">
+      <c r="A615" s="5">
         <v>36</v>
       </c>
-      <c r="B614" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C614" s="7"/>
-      <c r="D614" s="8"/>
-      <c r="E614" s="8"/>
-      <c r="F614" s="9"/>
-    </row>
-    <row r="615" spans="2:6">
-      <c r="B615" s="10" t="s">
+      <c r="B615" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C615" s="7"/>
+      <c r="D615" s="8"/>
+      <c r="E615" s="8"/>
+      <c r="F615" s="9"/>
+    </row>
+    <row r="616" spans="2:6">
+      <c r="B616" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C615" s="10" t="s">
+      <c r="C616" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D615" s="10" t="s">
+      <c r="D616" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E615" s="10" t="s">
+      <c r="E616" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F615" s="10" t="s">
+      <c r="F616" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="2:6">
-      <c r="B616" s="11" t="s">
+    <row r="617" spans="2:6">
+      <c r="B617" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C616" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D616" s="12"/>
-      <c r="E616" s="12" t="s">
+      <c r="C617" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D617" s="12"/>
+      <c r="E617" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F616" s="13"/>
-    </row>
-    <row r="617" spans="2:6">
-      <c r="B617" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="C617" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D617" s="50"/>
-      <c r="E617" s="42" t="s">
-        <v>541</v>
-      </c>
-      <c r="F617" s="32"/>
+      <c r="F617" s="13"/>
     </row>
     <row r="618" spans="2:6">
-      <c r="B618" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C618" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D618" s="22"/>
-      <c r="E618" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="F618" s="27"/>
+      <c r="B618" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="C618" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D618" s="50"/>
+      <c r="E618" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="F618" s="32"/>
     </row>
     <row r="619" spans="2:6">
-      <c r="B619" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="C619" s="46" t="s">
+      <c r="B619" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C619" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D619" s="22"/>
       <c r="E619" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="F619" s="22"/>
+        <v>507</v>
+      </c>
+      <c r="F619" s="27"/>
     </row>
     <row r="620" spans="2:6">
-      <c r="B620" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C620" s="21" t="s">
+      <c r="B620" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="C620" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D620" s="22"/>
       <c r="E620" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="F620" s="22"/>
+    </row>
+    <row r="621" spans="2:6">
+      <c r="B621" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C621" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D621" s="22"/>
+      <c r="E621" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="F620" s="28"/>
-    </row>
-    <row r="621" spans="2:6">
-      <c r="B621" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="C621" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D621" s="27"/>
-      <c r="E621" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="F621" s="27"/>
+      <c r="F621" s="28"/>
     </row>
     <row r="622" spans="2:6">
-      <c r="B622" s="22" t="s">
+      <c r="B622" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="C622" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D622" s="27"/>
+      <c r="E622" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="F622" s="27"/>
+    </row>
+    <row r="623" spans="2:6">
+      <c r="B623" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C622" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D622" s="22"/>
-      <c r="E622" s="22" t="s">
+      <c r="C623" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D623" s="22"/>
+      <c r="E623" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="F622" s="27"/>
-    </row>
-    <row r="623" spans="2:6">
-      <c r="B623" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="C623" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D623" s="27"/>
-      <c r="E623" s="27" t="s">
-        <v>521</v>
       </c>
       <c r="F623" s="27"/>
     </row>
     <row r="624" spans="2:6">
       <c r="B624" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C624" s="27" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D624" s="27"/>
       <c r="E624" s="27" t="s">
@@ -18746,360 +18752,373 @@
       <c r="F624" s="27"/>
     </row>
     <row r="625" spans="2:6">
-      <c r="B625" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C625" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D625" s="15"/>
-      <c r="E625" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F625" s="13"/>
+      <c r="B625" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="C625" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D625" s="27"/>
+      <c r="E625" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="F625" s="27"/>
     </row>
     <row r="626" spans="2:6">
       <c r="B626" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C626" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D626" s="15"/>
       <c r="E626" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F626" s="13"/>
     </row>
     <row r="627" spans="2:6">
       <c r="B627" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C627" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D627" s="15"/>
       <c r="E627" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F627" s="13"/>
     </row>
     <row r="628" spans="2:6">
       <c r="B628" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C628" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D628" s="15"/>
       <c r="E628" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F628" s="13"/>
     </row>
     <row r="629" spans="2:6">
       <c r="B629" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C629" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D629" s="15"/>
+      <c r="E629" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F629" s="13"/>
+    </row>
+    <row r="630" spans="2:6">
+      <c r="B630" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C629" s="13" t="s">
+      <c r="C630" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D629" s="13"/>
-      <c r="E629" s="13" t="s">
+      <c r="D630" s="13"/>
+      <c r="E630" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F629" s="13" t="s">
+      <c r="F630" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="630" spans="2:6">
-      <c r="B630" s="16" t="s">
+    <row r="631" spans="2:6">
+      <c r="B631" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C630" s="16" t="s">
+      <c r="C631" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D630" s="16"/>
-      <c r="E630" s="16" t="s">
+      <c r="D631" s="16"/>
+      <c r="E631" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F630" s="16" t="s">
+      <c r="F631" s="16" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="631" spans="2:6">
-      <c r="B631" s="18"/>
-      <c r="C631" s="18"/>
-      <c r="D631" s="18"/>
-      <c r="E631" s="18"/>
-      <c r="F631" s="18"/>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="A633" s="5">
+    <row r="632" spans="2:6">
+      <c r="B632" s="18"/>
+      <c r="C632" s="18"/>
+      <c r="D632" s="18"/>
+      <c r="E632" s="18"/>
+      <c r="F632" s="18"/>
+    </row>
+    <row r="634" spans="1:6">
+      <c r="A634" s="5">
         <v>37</v>
       </c>
-      <c r="B633" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C633" s="7"/>
-      <c r="D633" s="8"/>
-      <c r="E633" s="8"/>
-      <c r="F633" s="9"/>
-    </row>
-    <row r="634" spans="2:6">
-      <c r="B634" s="10" t="s">
+      <c r="B634" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C634" s="7"/>
+      <c r="D634" s="8"/>
+      <c r="E634" s="8"/>
+      <c r="F634" s="9"/>
+    </row>
+    <row r="635" spans="2:6">
+      <c r="B635" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C634" s="10" t="s">
+      <c r="C635" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D634" s="10" t="s">
+      <c r="D635" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E634" s="10" t="s">
+      <c r="E635" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F634" s="10" t="s">
+      <c r="F635" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="2:6">
-      <c r="B635" s="11" t="s">
+    <row r="636" spans="2:6">
+      <c r="B636" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C635" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D635" s="12"/>
-      <c r="E635" s="12" t="s">
+      <c r="C636" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D636" s="12"/>
+      <c r="E636" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F635" s="13"/>
-    </row>
-    <row r="636" s="1" customFormat="1" spans="2:6">
-      <c r="B636" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="C636" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D636" s="45"/>
-      <c r="E636" s="49" t="s">
-        <v>526</v>
-      </c>
-      <c r="F636" s="22"/>
-    </row>
-    <row r="637" spans="2:6">
-      <c r="B637" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C637" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D637" s="50"/>
-      <c r="E637" s="42" t="s">
+      <c r="F636" s="13"/>
+    </row>
+    <row r="637" s="1" customFormat="1" spans="2:6">
+      <c r="B637" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C637" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D637" s="45"/>
+      <c r="E637" s="49" t="s">
         <v>528</v>
       </c>
-      <c r="F637" s="32"/>
+      <c r="F637" s="22"/>
     </row>
     <row r="638" spans="2:6">
-      <c r="B638" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="C638" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D638" s="22"/>
-      <c r="E638" s="22" t="s">
-        <v>502</v>
+      <c r="B638" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C638" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D638" s="50"/>
+      <c r="E638" s="42" t="s">
+        <v>530</v>
       </c>
       <c r="F638" s="32"/>
     </row>
     <row r="639" spans="2:6">
-      <c r="B639" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="C639" s="46" t="s">
+      <c r="B639" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C639" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D639" s="22"/>
       <c r="E639" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="F639" s="32"/>
+    </row>
+    <row r="640" spans="2:6">
+      <c r="B640" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="C640" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D640" s="22"/>
+      <c r="E640" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="F639" s="32"/>
-    </row>
-    <row r="640" s="2" customFormat="1" spans="2:6">
-      <c r="B640" s="52" t="s">
-        <v>529</v>
-      </c>
-      <c r="C640" s="27" t="s">
+      <c r="F640" s="32"/>
+    </row>
+    <row r="641" s="2" customFormat="1" spans="2:6">
+      <c r="B641" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="C641" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D640" s="53"/>
-      <c r="E640" s="54" t="s">
+      <c r="D641" s="53"/>
+      <c r="E641" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="F640" s="27"/>
-    </row>
-    <row r="641" spans="2:6">
-      <c r="B641" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="C641" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="D641" s="50"/>
-      <c r="E641" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="F641" s="32"/>
+      <c r="F641" s="27"/>
     </row>
     <row r="642" spans="2:6">
-      <c r="B642" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C642" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D642" s="22"/>
-      <c r="E642" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="F642" s="22"/>
-    </row>
-    <row r="643" s="2" customFormat="1" spans="2:6">
-      <c r="B643" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="C643" s="27" t="s">
+      <c r="B642" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C642" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D642" s="50"/>
+      <c r="E642" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="F642" s="32"/>
+    </row>
+    <row r="643" spans="2:6">
+      <c r="B643" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C643" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D643" s="22"/>
+      <c r="E643" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="F643" s="22"/>
+    </row>
+    <row r="644" s="2" customFormat="1" spans="2:6">
+      <c r="B644" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C644" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D643" s="27"/>
-      <c r="E643" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="F643" s="27"/>
-    </row>
-    <row r="644" spans="2:6">
-      <c r="B644" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="C644" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D644" s="22"/>
-      <c r="E644" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="F644" s="22" t="s">
+      <c r="D644" s="27"/>
+      <c r="E644" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F644" s="27"/>
+    </row>
+    <row r="645" spans="2:6">
+      <c r="B645" s="46" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="645" spans="2:6">
-      <c r="B645" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="C645" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D645" s="21"/>
-      <c r="E645" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F645" s="28"/>
-    </row>
-    <row r="646" s="1" customFormat="1" spans="2:6">
-      <c r="B646" s="20" t="s">
+      <c r="C645" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D645" s="22"/>
+      <c r="E645" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="F645" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="646" spans="2:6">
+      <c r="B646" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="C646" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D646" s="21"/>
+      <c r="E646" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="C646" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D646" s="23"/>
-      <c r="E646" s="55" t="s">
-        <v>405</v>
-      </c>
-      <c r="F646" s="20"/>
-    </row>
-    <row r="647" spans="2:6">
-      <c r="B647" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C647" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D647" s="15"/>
-      <c r="E647" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F647" s="13"/>
+      <c r="F646" s="28"/>
+    </row>
+    <row r="647" s="1" customFormat="1" spans="2:6">
+      <c r="B647" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="C647" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D647" s="23"/>
+      <c r="E647" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="F647" s="20"/>
     </row>
     <row r="648" spans="2:6">
       <c r="B648" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C648" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D648" s="15"/>
       <c r="E648" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F648" s="13"/>
     </row>
     <row r="649" spans="2:6">
       <c r="B649" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C649" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D649" s="15"/>
       <c r="E649" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F649" s="13"/>
     </row>
     <row r="650" spans="2:6">
       <c r="B650" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C650" s="14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D650" s="15"/>
       <c r="E650" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F650" s="13"/>
     </row>
     <row r="651" spans="2:6">
       <c r="B651" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C651" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D651" s="15"/>
+      <c r="E651" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F651" s="13"/>
+    </row>
+    <row r="652" spans="2:6">
+      <c r="B652" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C651" s="13" t="s">
+      <c r="C652" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D651" s="13"/>
-      <c r="E651" s="13" t="s">
+      <c r="D652" s="13"/>
+      <c r="E652" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F651" s="13" t="s">
+      <c r="F652" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="652" spans="2:6">
-      <c r="B652" s="16" t="s">
+    <row r="653" spans="2:6">
+      <c r="B653" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C652" s="16" t="s">
+      <c r="C653" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D652" s="16"/>
-      <c r="E652" s="16" t="s">
+      <c r="D653" s="16"/>
+      <c r="E653" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F652" s="16" t="s">
+      <c r="F653" s="16" t="s">
         <v>279</v>
       </c>
     </row>

--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -1183,7 +1183,7 @@
     <t>字典种类</t>
   </si>
   <si>
-    <t>1基本单位 2税率 3币种 4付款方式 5采购订单类型 6销售订单类型</t>
+    <t>1基本单位 2税率 3币种 4付款方式 5采购订单类型 6销售订单类型 7生产入库单凭证类型 8采购入库凭证类型 9其他出库凭证类型</t>
   </si>
   <si>
     <t>USER_PHONE</t>
@@ -2151,8 +2151,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2165,9 +2190,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2182,23 +2221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2207,44 +2230,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2266,6 +2251,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2273,23 +2273,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2420,13 +2420,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,7 +2468,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2456,19 +2546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2480,115 +2582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,6 +2667,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2692,16 +2707,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2720,50 +2764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2772,10 +2772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2784,133 +2784,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
@@ -10666,8 +10666,8 @@
   <sheetPr/>
   <dimension ref="A2:M643"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -2151,6 +2151,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -2167,46 +2181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2221,15 +2197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2237,6 +2205,33 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2251,29 +2246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2289,15 +2262,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2420,6 +2420,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2432,13 +2522,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,7 +2558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,127 +2582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,6 +2682,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2693,15 +2746,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2720,50 +2764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2772,10 +2772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2784,136 +2784,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -10667,7 +10667,7 @@
   <dimension ref="A2:M643"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11274,11 +11274,19 @@
       <c r="F27" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
+      <c r="I27" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="13"/>
+      <c r="L27" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="13" t="s">
@@ -11293,18 +11301,16 @@
       </c>
       <c r="F28" s="13"/>
       <c r="I28" s="13" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>302</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="13" t="s">
@@ -11319,18 +11325,18 @@
       </c>
       <c r="F29" s="13"/>
       <c r="I29" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:6">
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
@@ -11342,17 +11348,6 @@
         <v>23</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="I30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="13" t="s">

--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -2062,9 +2062,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2152,16 +2152,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2179,47 +2229,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2252,22 +2261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2284,19 +2277,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2420,6 +2420,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2432,13 +2444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,13 +2474,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,37 +2510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,13 +2540,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,61 +2588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,6 +2667,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2678,6 +2717,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2708,59 +2756,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2772,10 +2772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2784,136 +2784,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -10666,8 +10666,8 @@
   <sheetPr/>
   <dimension ref="A2:M643"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -1183,7 +1183,7 @@
     <t>字典种类</t>
   </si>
   <si>
-    <t>1基本单位 2税率 3币种 4付款方式 5采购订单类型 6销售订单类型 7生产入库单凭证类型 8采购入库凭证类型 9其他出库凭证类型</t>
+    <t>1基本单位 2税率 3币种 4付款方式 5采购订单类型 6销售订单类型 7生产入库单凭证类型 8采购入库凭证类型 9其他出库凭证类型 10销售出库出库类型</t>
   </si>
   <si>
     <t>USER_PHONE</t>
@@ -2061,10 +2061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2151,28 +2151,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2186,7 +2175,45 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2201,25 +2228,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2231,16 +2242,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2254,45 +2288,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2420,7 +2420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,13 +2444,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,67 +2534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,25 +2552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2558,37 +2576,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,30 +2667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2723,18 +2699,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2756,11 +2725,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2772,10 +2772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2784,136 +2784,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -10666,8 +10666,8 @@
   <sheetPr/>
   <dimension ref="A2:M643"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\IcpForCitln\icpForCitln\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF0F52B-3CD1-4E0A-8F3B-2F1DE3873307}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEF87C3-152C-46B9-B41B-2A7C017A18D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="551">
   <si>
     <t>定义企业产品属性表</t>
   </si>
@@ -10067,10 +10067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:M643"/>
+  <dimension ref="A2:M642"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+      <selection activeCell="A158" sqref="A158:XFD158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12346,5238 +12346,5232 @@
       </c>
       <c r="F157" s="14"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" s="23"/>
-      <c r="E158" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="F158" s="14"/>
+    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F158" s="29"/>
     </row>
     <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C159" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F159" s="29"/>
     </row>
-    <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C160" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F160" s="29"/>
     </row>
-    <row r="161" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="F161" s="29"/>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B164" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D164" s="16"/>
       <c r="E164" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F165" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C166" s="14" t="s">
+      <c r="B166" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F166" s="14" t="s">
-        <v>29</v>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F166" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C167" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F167" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>11</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="10"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="6">
-        <v>11</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="10"/>
+      <c r="B170" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="12" t="s">
+      <c r="B171" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C172" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13" t="s">
+      <c r="C171" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F172" s="14"/>
+      <c r="F171" s="14"/>
+    </row>
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F172" s="29"/>
     </row>
     <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C173" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F173" s="29"/>
     </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F174" s="29"/>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" s="14"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F175" s="14"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B176" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F176" s="14"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B177" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F177" s="14"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B178" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F178" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C179" s="14" t="s">
+      <c r="B179" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C179" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>29</v>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F179" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F180" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>12</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C182" s="8"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="10"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
-        <v>12</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="10"/>
+      <c r="B183" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B184" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F184" s="14"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F185" s="14"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B186" s="21" t="s">
+      <c r="B185" s="21" t="s">
         <v>370</v>
       </c>
+      <c r="C185" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F185" s="21"/>
+    </row>
+    <row r="186" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="32" t="s">
+        <v>399</v>
+      </c>
       <c r="C186" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23" t="s">
-        <v>371</v>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="F186" s="21"/>
     </row>
-    <row r="187" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C187" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="F187" s="21"/>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="14"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B188" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F188" s="14"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F189" s="14"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B190" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F191" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C192" s="14" t="s">
+      <c r="B192" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>29</v>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F193" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>13</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
-        <v>13</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="10"/>
+      <c r="B196" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B197" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F197" s="14"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F198" s="14"/>
+      <c r="B198" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F198" s="21"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B199" s="32" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C199" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="22"/>
       <c r="E199" s="22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F199" s="21"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="F200" s="21"/>
+      <c r="B200" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B201" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F201" s="14"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B202" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F202" s="14"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B204" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D204" s="16"/>
-      <c r="E204" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F204" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D204" s="14"/>
+      <c r="E204" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C205" s="14" t="s">
+      <c r="B205" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F205" s="14" t="s">
-        <v>29</v>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F206" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>14</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="10"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="6">
-        <v>14</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C209" s="8"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
-      <c r="F209" s="10"/>
+      <c r="B209" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F210" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="12" t="s">
+      <c r="B210" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C211" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13" t="s">
+      <c r="C210" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F211" s="14"/>
+      <c r="F210" s="14"/>
+    </row>
+    <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="F211" s="29"/>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="29" t="s">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="C212" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F212" s="29"/>
     </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F213" s="29"/>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" s="14"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B214" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F214" s="14"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B215" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D215" s="16"/>
       <c r="E215" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F215" s="14"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B216" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F216" s="14"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B217" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D217" s="16"/>
-      <c r="E217" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F217" s="14"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C218" s="14" t="s">
+      <c r="C217" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D218" s="14"/>
-      <c r="E218" s="14" t="s">
+      <c r="D217" s="14"/>
+      <c r="E217" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F218" s="14" t="s">
+      <c r="F217" s="14" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="218" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F218" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
     <row r="219" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F219" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="19"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>15</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C221" s="8"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="10"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="6">
-        <v>15</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C222" s="8"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="10"/>
+      <c r="B222" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B223" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F223" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B224" s="12" t="s">
+      <c r="B223" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C224" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13" t="s">
+      <c r="C223" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F224" s="13"/>
-    </row>
-    <row r="225" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33" t="s">
+      <c r="F223" s="13"/>
+    </row>
+    <row r="224" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C225" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33" t="s">
+      <c r="C224" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F225" s="33"/>
+      <c r="F224" s="33"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C225" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="35"/>
+      <c r="E225" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F225" s="35"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C226" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="35"/>
-      <c r="E226" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F226" s="35"/>
+      <c r="B226" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" s="15"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B227" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F227" s="15"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B228" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F228" s="15"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B229" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F229" s="15"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B230" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F230" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="F230" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B231" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C231" s="15" t="s">
+      <c r="B231" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C231" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F231" s="15" t="s">
-        <v>29</v>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F231" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B232" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D232" s="17"/>
-      <c r="E232" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F232" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="19"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>16</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C234" s="8"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="10"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="6">
-        <v>16</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C235" s="8"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="10"/>
+      <c r="B235" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B236" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="13"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F237" s="13"/>
+      <c r="B237" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F237" s="27"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="C238" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="F238" s="27"/>
+      <c r="B238" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F238" s="15"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B239" s="15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="F239" s="15"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B240" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C240" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C240" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D240" s="15"/>
-      <c r="E240" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="F240" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="C241" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D241" s="22"/>
-      <c r="E241" s="22" t="s">
+      <c r="D240" s="22"/>
+      <c r="E240" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="F241" s="22" t="s">
+      <c r="F240" s="22" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C241" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="F241" s="15"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B242" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C242" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15" t="s">
-        <v>419</v>
+        <v>18</v>
       </c>
       <c r="F242" s="15"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B243" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F243" s="15"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B244" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F244" s="15"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B245" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F245" s="15"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F246" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="F246" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B247" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C247" s="15" t="s">
+      <c r="B247" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C247" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D247" s="15"/>
-      <c r="E247" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F247" s="15" t="s">
-        <v>29</v>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F247" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B248" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F248" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="19"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>17</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C250" s="8"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="10"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="6">
-        <v>17</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C251" s="8"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="9"/>
-      <c r="F251" s="10"/>
+      <c r="B251" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B253" s="12" t="s">
+      <c r="B252" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C253" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13" t="s">
+      <c r="C252" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F253" s="13"/>
-    </row>
-    <row r="254" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="22" t="s">
+      <c r="F252" s="13"/>
+    </row>
+    <row r="253" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" s="22"/>
-      <c r="E254" s="22" t="s">
+      <c r="C253" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="22"/>
+      <c r="E253" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="F254" s="22"/>
+      <c r="F253" s="22"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="C254" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F254" s="39"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B255" s="27" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C255" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="27"/>
       <c r="E255" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="F255" s="39"/>
+        <v>425</v>
+      </c>
+      <c r="F255" s="15"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B256" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="C256" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27" t="s">
-        <v>425</v>
+      <c r="B256" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="F256" s="15"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B257" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B258" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F258" s="15"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B259" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F259" s="15"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B260" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F260" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B261" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C261" s="15" t="s">
+      <c r="B261" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C261" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F261" s="15" t="s">
-        <v>29</v>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F261" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B262" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C262" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D262" s="17"/>
-      <c r="E262" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F262" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B263" s="19"/>
-      <c r="C263" s="19"/>
-      <c r="D263" s="19"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="19"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="19"/>
+      <c r="E262" s="19"/>
+      <c r="F262" s="19"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
+        <v>18</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C264" s="8"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="10"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="6">
-        <v>18</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C265" s="8"/>
-      <c r="D265" s="9"/>
-      <c r="E265" s="9"/>
-      <c r="F265" s="10"/>
+      <c r="B265" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B266" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B267" s="12" t="s">
+      <c r="B266" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C267" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13" t="s">
+      <c r="C266" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F267" s="13"/>
-    </row>
-    <row r="268" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="32" t="s">
+      <c r="F266" s="13"/>
+    </row>
+    <row r="267" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="C268" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" s="22"/>
-      <c r="E268" s="22" t="s">
+      <c r="C267" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="22"/>
+      <c r="E267" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="F268" s="22"/>
-    </row>
-    <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="27" t="s">
+      <c r="F267" s="22"/>
+    </row>
+    <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="C269" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" s="27"/>
-      <c r="E269" s="27" t="s">
+      <c r="C268" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="27"/>
+      <c r="E268" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="F269" s="27"/>
+      <c r="F268" s="27"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C269" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F269" s="15"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B270" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C270" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="F270" s="15"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B271" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B272" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F272" s="15"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B273" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F273" s="15"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B274" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F274" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B275" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C275" s="15" t="s">
+      <c r="B275" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D275" s="15"/>
-      <c r="E275" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F275" s="15" t="s">
-        <v>29</v>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F275" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C276" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D276" s="17"/>
-      <c r="E276" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F276" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
-      <c r="D277" s="19"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="19"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
+      <c r="D276" s="19"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="19"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>19</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C278" s="8"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="10"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="6">
-        <v>19</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C279" s="8"/>
-      <c r="D279" s="9"/>
-      <c r="E279" s="9"/>
-      <c r="F279" s="10"/>
+      <c r="B279" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E280" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B280" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" s="13"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B281" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C281" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F281" s="13"/>
+      <c r="B281" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C281" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="F281" s="33"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B282" s="33" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C282" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="33"/>
       <c r="E282" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F282" s="33"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B283" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="C283" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C283" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="33"/>
       <c r="E283" s="33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F283" s="33"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B284" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="C284" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" s="33"/>
-      <c r="E284" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="F284" s="33"/>
-    </row>
-    <row r="285" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="23" t="s">
+    <row r="284" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="C285" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" s="23"/>
-      <c r="E285" s="23" t="s">
+      <c r="C284" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="23"/>
+      <c r="E284" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="F285" s="23"/>
+      <c r="F284" s="23"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B285" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="33"/>
+      <c r="E285" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F285" s="33"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B286" s="33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D286" s="33"/>
       <c r="E286" s="33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F286" s="33"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B287" s="33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D287" s="33"/>
       <c r="E287" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F287" s="33"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B288" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F288" s="33"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B289" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D289" s="33"/>
       <c r="E289" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F289" s="33"/>
+        <v>28</v>
+      </c>
+      <c r="F289" s="33" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B290" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C290" s="33" t="s">
+      <c r="B290" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C290" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D290" s="33"/>
-      <c r="E290" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F290" s="33" t="s">
-        <v>29</v>
+      <c r="D290" s="17"/>
+      <c r="E290" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F290" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C291" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D291" s="17"/>
-      <c r="E291" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F291" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
-      <c r="D292" s="19"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="19"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
+      <c r="D291" s="19"/>
+      <c r="E291" s="19"/>
+      <c r="F291" s="19"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <v>20</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C293" s="8"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="10"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="6">
-        <v>20</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C294" s="8"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="9"/>
-      <c r="F294" s="10"/>
+      <c r="B294" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F294" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B295" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C295" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F295" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B296" s="12" t="s">
+      <c r="B295" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C296" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13" t="s">
+      <c r="C295" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F296" s="13"/>
-    </row>
-    <row r="297" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="23" t="s">
+      <c r="F295" s="13"/>
+    </row>
+    <row r="296" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C297" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" s="23"/>
-      <c r="E297" s="23" t="s">
+      <c r="C296" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="23"/>
+      <c r="E296" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="F297" s="23"/>
+      <c r="F296" s="23"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B297" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="28"/>
+      <c r="E297" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="F297" s="28"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B298" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="C298" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C298" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F298" s="28"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B299" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="C299" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="28" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="F299" s="28"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B300" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C300" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F300" s="28"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B301" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C301" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F301" s="28"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B302" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C302" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F302" s="28"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B303" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C303" s="28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F303" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="F303" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B304" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C304" s="28" t="s">
+      <c r="B304" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D304" s="28"/>
-      <c r="E304" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F304" s="28" t="s">
-        <v>29</v>
+      <c r="D304" s="17"/>
+      <c r="E304" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F304" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B305" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C305" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D305" s="17"/>
-      <c r="E305" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F305" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
+      <c r="E305" s="19"/>
+      <c r="F305" s="19"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>21</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C307" s="8"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="10"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="6">
-        <v>21</v>
-      </c>
-      <c r="B308" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C308" s="8"/>
-      <c r="D308" s="9"/>
-      <c r="E308" s="9"/>
-      <c r="F308" s="10"/>
+      <c r="B308" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B309" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C309" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D309" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E309" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B309" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F309" s="14"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B310" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" s="13"/>
-      <c r="E310" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F310" s="14"/>
+      <c r="B310" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C310" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="16"/>
+      <c r="E310" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F310" s="16"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B311" s="16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C311" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D311" s="16"/>
       <c r="E311" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F311" s="16"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B312" s="16" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
       <c r="C312" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="16"/>
       <c r="E312" s="16" t="s">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="F312" s="16"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B313" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D313" s="16"/>
       <c r="E313" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F313" s="16"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B314" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F314" s="16"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B315" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D315" s="16"/>
       <c r="E315" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F315" s="16"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B316" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D316" s="16"/>
       <c r="E316" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F316" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="F316" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B317" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C317" s="16" t="s">
+      <c r="B317" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C317" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D317" s="16"/>
-      <c r="E317" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F317" s="16" t="s">
-        <v>29</v>
+      <c r="D317" s="17"/>
+      <c r="E317" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F317" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B318" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C318" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D318" s="17"/>
-      <c r="E318" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F318" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B319" s="19"/>
-      <c r="C319" s="19"/>
-      <c r="D319" s="19"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="19"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="6">
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
+      <c r="D318" s="19"/>
+      <c r="E318" s="19"/>
+      <c r="F318" s="19"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
         <v>22</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B320" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C321" s="8"/>
-      <c r="D321" s="9"/>
-      <c r="E321" s="9"/>
-      <c r="F321" s="10"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B322" s="11" t="s">
+      <c r="C320" s="8"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="10"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B321" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C322" s="11" t="s">
+      <c r="C321" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D322" s="11" t="s">
+      <c r="D321" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E322" s="11" t="s">
+      <c r="E321" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F322" s="11" t="s">
+      <c r="F321" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B323" s="12" t="s">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B322" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C323" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D323" s="13"/>
-      <c r="E323" s="13" t="s">
+      <c r="C322" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F323" s="13"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F322" s="13"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B323" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C323" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="40"/>
+      <c r="E323" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F323" s="40"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C324" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D324" s="40"/>
       <c r="E324" s="40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F324" s="40"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B325" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C325" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D325" s="40"/>
-      <c r="E325" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F325" s="40"/>
-    </row>
-    <row r="326" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="C325" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="23"/>
+      <c r="E325" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="F325" s="23"/>
+    </row>
+    <row r="326" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="23" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C326" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D326" s="23"/>
       <c r="E326" s="23" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="23" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C327" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D327" s="23"/>
       <c r="E327" s="23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F327" s="23"/>
     </row>
-    <row r="328" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="C328" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D328" s="23"/>
-      <c r="E328" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="F328" s="23"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B328" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C328" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="40"/>
+      <c r="E328" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F328" s="40"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C329" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D329" s="40"/>
       <c r="E329" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F329" s="40"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F329" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="C330" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D330" s="40"/>
       <c r="E330" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F330" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F330" s="40"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C331" s="40" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D331" s="40"/>
       <c r="E331" s="40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F331" s="40"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C332" s="40" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D332" s="40"/>
       <c r="E332" s="40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F332" s="40"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C333" s="40" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D333" s="40"/>
       <c r="E333" s="40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F333" s="40"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C334" s="40" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D334" s="40"/>
       <c r="E334" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F334" s="40"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B335" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C335" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B335" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C335" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D335" s="40"/>
-      <c r="E335" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F335" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B336" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C336" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D336" s="17"/>
-      <c r="E336" s="17" t="s">
+      <c r="D335" s="17"/>
+      <c r="E335" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F336" s="17" t="s">
+      <c r="F335" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B337" s="19"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="19"/>
-      <c r="E337" s="19"/>
-      <c r="F337" s="19"/>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B336" s="19"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="19"/>
+      <c r="E336" s="19"/>
+      <c r="F336" s="19"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>23</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C338" s="8"/>
+      <c r="D338" s="9"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="10"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="6">
-        <v>23</v>
-      </c>
-      <c r="B339" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C339" s="8"/>
-      <c r="D339" s="9"/>
-      <c r="E339" s="9"/>
-      <c r="F339" s="10"/>
+      <c r="B339" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D339" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F339" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B340" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C340" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D340" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E340" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F340" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B341" s="12" t="s">
+      <c r="B340" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C341" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D341" s="13"/>
-      <c r="E341" s="13" t="s">
+      <c r="C340" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F341" s="13"/>
+      <c r="F340" s="13"/>
+    </row>
+    <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C341" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="23"/>
+      <c r="E341" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F341" s="23"/>
     </row>
     <row r="342" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="23" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C342" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D342" s="23"/>
       <c r="E342" s="23" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="C343" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D343" s="23"/>
-      <c r="E343" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="F343" s="23"/>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B343" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C343" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="28"/>
+      <c r="E343" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F343" s="28"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B344" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F344" s="28"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B345" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F345" s="28"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B346" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C346" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F346" s="28"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B347" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C347" s="28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F347" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="F347" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B348" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C348" s="28" t="s">
+      <c r="B348" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C348" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D348" s="28"/>
-      <c r="E348" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F348" s="28" t="s">
-        <v>29</v>
+      <c r="D348" s="17"/>
+      <c r="E348" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F348" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B349" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C349" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D349" s="17"/>
-      <c r="E349" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F349" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B350" s="19"/>
-      <c r="C350" s="19"/>
-      <c r="D350" s="19"/>
-      <c r="E350" s="19"/>
-      <c r="F350" s="19"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
+      <c r="D349" s="19"/>
+      <c r="E349" s="19"/>
+      <c r="F349" s="19"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="6">
+        <v>24</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C351" s="8"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="10"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="6">
-        <v>24</v>
-      </c>
-      <c r="B352" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C352" s="8"/>
-      <c r="D352" s="9"/>
-      <c r="E352" s="9"/>
-      <c r="F352" s="10"/>
+      <c r="B352" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F352" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B353" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D353" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E353" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F353" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B353" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F353" s="13"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B354" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C354" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D354" s="13"/>
-      <c r="E354" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F354" s="13"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B354" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C354" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="23"/>
+      <c r="E354" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F354" s="23"/>
+    </row>
+    <row r="355" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="23" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C355" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D355" s="23"/>
       <c r="E355" s="23" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F355" s="23"/>
     </row>
-    <row r="356" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="C356" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D356" s="23"/>
-      <c r="E356" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="F356" s="23"/>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B356" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="16"/>
+      <c r="E356" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F356" s="16"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B357" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D357" s="16"/>
       <c r="E357" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F357" s="16"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B358" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D358" s="16"/>
       <c r="E358" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F358" s="16"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B359" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D359" s="16"/>
       <c r="E359" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F359" s="16"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B360" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D360" s="16"/>
       <c r="E360" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F360" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B361" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C361" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D361" s="17"/>
+      <c r="E361" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F361" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B362" s="19"/>
+      <c r="C362" s="19"/>
+      <c r="D362" s="19"/>
+      <c r="E362" s="19"/>
+      <c r="F362" s="19"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
         <v>25</v>
       </c>
-      <c r="F360" s="16"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B361" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C361" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D361" s="16"/>
-      <c r="E361" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F361" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B362" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C362" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D362" s="17"/>
-      <c r="E362" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F362" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B363" s="19"/>
-      <c r="C363" s="19"/>
-      <c r="D363" s="19"/>
-      <c r="E363" s="19"/>
-      <c r="F363" s="19"/>
+      <c r="B364" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C364" s="8"/>
+      <c r="D364" s="9"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="10"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="6">
-        <v>25</v>
-      </c>
-      <c r="B365" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C365" s="8"/>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
-      <c r="F365" s="10"/>
+      <c r="B365" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D365" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F365" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B366" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C366" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D366" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E366" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F366" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B366" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" s="13"/>
+      <c r="E366" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F366" s="13"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B367" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C367" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D367" s="13"/>
-      <c r="E367" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F367" s="13"/>
+      <c r="B367" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C367" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="33"/>
+      <c r="E367" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F367" s="33"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B368" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C368" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D368" s="33"/>
-      <c r="E368" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F368" s="33"/>
-    </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B369" s="16" t="s">
+      <c r="B368" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C369" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D369" s="16"/>
-      <c r="E369" s="16" t="s">
+      <c r="C368" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="16"/>
+      <c r="E368" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F369" s="16"/>
+      <c r="F368" s="16"/>
+    </row>
+    <row r="369" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="C369" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="23"/>
+      <c r="E369" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F369" s="23"/>
     </row>
     <row r="370" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="23" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="C370" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D370" s="23"/>
       <c r="E370" s="23" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C371" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371" s="23"/>
-      <c r="E371" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="F371" s="23"/>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B371" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="16"/>
+      <c r="E371" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F371" s="16"/>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C372" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C372" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D372" s="16"/>
       <c r="E372" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F372" s="16"/>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C373" s="33" t="s">
-        <v>7</v>
+        <v>95</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="D373" s="16"/>
       <c r="E373" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F373" s="16"/>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D374" s="16"/>
       <c r="E374" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F374" s="16"/>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C375" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D375" s="16"/>
       <c r="E375" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F375" s="16"/>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D376" s="16"/>
       <c r="E376" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F376" s="16"/>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D377" s="16"/>
       <c r="E377" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F377" s="16"/>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D378" s="16"/>
       <c r="E378" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F378" s="16"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D379" s="16"/>
       <c r="E379" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F379" s="16"/>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D380" s="16"/>
       <c r="E380" s="16" t="s">
-        <v>108</v>
+        <v>464</v>
       </c>
       <c r="F380" s="16"/>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D381" s="16"/>
       <c r="E381" s="16" t="s">
-        <v>464</v>
+        <v>112</v>
       </c>
       <c r="F381" s="16"/>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D382" s="16"/>
-      <c r="E382" s="16" t="s">
-        <v>112</v>
+      <c r="E382" s="28" t="s">
+        <v>465</v>
       </c>
       <c r="F382" s="16"/>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C383" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D383" s="16"/>
-      <c r="E383" s="28" t="s">
-        <v>465</v>
-      </c>
-      <c r="F383" s="16"/>
+      <c r="E383" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F383" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="16" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D384" s="16"/>
       <c r="E384" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F384" s="16" t="s">
-        <v>117</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F384" s="16"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B385" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D385" s="16"/>
       <c r="E385" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F385" s="16"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B386" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D386" s="16"/>
       <c r="E386" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F386" s="16"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B387" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D387" s="16"/>
       <c r="E387" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F387" s="16"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B388" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D388" s="16"/>
       <c r="E388" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F388" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="F388" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B389" s="16" t="s">
+      <c r="B389" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C389" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D389" s="17"/>
+      <c r="E389" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F389" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B390" s="19"/>
+      <c r="C390" s="19"/>
+      <c r="D390" s="19"/>
+      <c r="E390" s="19"/>
+      <c r="F390" s="19"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="6">
         <v>26</v>
       </c>
-      <c r="C389" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D389" s="16"/>
-      <c r="E389" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F389" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B390" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C390" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D390" s="17"/>
-      <c r="E390" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F390" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B391" s="19"/>
-      <c r="C391" s="19"/>
-      <c r="D391" s="19"/>
-      <c r="E391" s="19"/>
-      <c r="F391" s="19"/>
+      <c r="B392" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C392" s="8"/>
+      <c r="D392" s="9"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="10"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="6">
-        <v>26</v>
-      </c>
-      <c r="B393" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C393" s="8"/>
-      <c r="D393" s="9"/>
-      <c r="E393" s="9"/>
-      <c r="F393" s="10"/>
+      <c r="B393" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D393" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F393" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B394" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C394" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D394" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E394" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F394" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B395" s="12" t="s">
+      <c r="B394" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C395" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D395" s="13"/>
-      <c r="E395" s="13" t="s">
+      <c r="C394" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" s="13"/>
+      <c r="E394" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F395" s="13"/>
+      <c r="F394" s="13"/>
+    </row>
+    <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C395" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="22"/>
+      <c r="E395" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F395" s="22"/>
     </row>
     <row r="396" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="C396" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D396" s="22"/>
-      <c r="E396" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="F396" s="22"/>
+      <c r="B396" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C396" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="23"/>
+      <c r="E396" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F396" s="23"/>
     </row>
     <row r="397" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B397" s="23" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C397" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="23"/>
       <c r="E397" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="F397" s="23"/>
-    </row>
-    <row r="398" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="C398" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D398" s="23"/>
-      <c r="E398" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F398" s="23" t="s">
+      <c r="F397" s="23" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="399" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C398" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" s="28"/>
+      <c r="E398" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="F398" s="28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B399" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="C399" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C399" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="F399" s="28" t="s">
-        <v>473</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F399" s="28"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B400" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C400" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F400" s="28"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B401" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C401" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F401" s="28"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B402" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C402" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D402" s="28"/>
       <c r="E402" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F402" s="28"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B403" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C403" s="28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F403" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="F403" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B404" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C404" s="28" t="s">
+      <c r="B404" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C404" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D404" s="28"/>
-      <c r="E404" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F404" s="28" t="s">
-        <v>29</v>
+      <c r="D404" s="17"/>
+      <c r="E404" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F404" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B405" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C405" s="17" t="s">
+      <c r="B405" s="19"/>
+      <c r="C405" s="19"/>
+      <c r="D405" s="19"/>
+      <c r="E405" s="19"/>
+      <c r="F405" s="19"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="6">
         <v>27</v>
       </c>
-      <c r="D405" s="17"/>
-      <c r="E405" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F405" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B406" s="19"/>
-      <c r="C406" s="19"/>
-      <c r="D406" s="19"/>
-      <c r="E406" s="19"/>
-      <c r="F406" s="19"/>
+      <c r="B407" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C407" s="8"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="10"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="6">
+      <c r="B408" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D408" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E408" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F408" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B409" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" s="13"/>
+      <c r="E409" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F409" s="14"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B410" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C410" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B408" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C408" s="8"/>
-      <c r="D408" s="9"/>
-      <c r="E408" s="9"/>
-      <c r="F408" s="10"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B409" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C409" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D409" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E409" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F409" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B410" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C410" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D410" s="13"/>
-      <c r="E410" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F410" s="14"/>
+      <c r="D410" s="28"/>
+      <c r="E410" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F410" s="33"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B411" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C411" s="16" t="s">
-        <v>27</v>
+        <v>194</v>
+      </c>
+      <c r="C411" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F411" s="33"/>
+        <v>196</v>
+      </c>
+      <c r="F411" s="42"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B412" s="16" t="s">
-        <v>194</v>
+        <v>475</v>
       </c>
       <c r="C412" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D412" s="28"/>
-      <c r="E412" s="28" t="s">
-        <v>196</v>
+      <c r="E412" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="F412" s="42"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B413" s="16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C413" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D413" s="28"/>
       <c r="E413" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="F413" s="42"/>
+        <v>202</v>
+      </c>
+      <c r="F413" s="44"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B414" s="16" t="s">
-        <v>476</v>
+      <c r="B414" s="33" t="s">
+        <v>477</v>
       </c>
       <c r="C414" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D414" s="28"/>
-      <c r="E414" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="F414" s="44"/>
+      <c r="E414" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F414" s="33"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B415" s="33" t="s">
-        <v>477</v>
+      <c r="B415" s="45" t="s">
+        <v>478</v>
       </c>
       <c r="C415" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D415" s="28"/>
       <c r="E415" s="33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F415" s="33"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B416" s="45" t="s">
-        <v>478</v>
+      <c r="B416" s="16" t="s">
+        <v>479</v>
       </c>
       <c r="C416" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D416" s="28"/>
-      <c r="E416" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F416" s="33"/>
+      <c r="E416" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F416" s="16"/>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C417" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D417" s="28"/>
-      <c r="E417" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="F417" s="16"/>
+      <c r="E417" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F417" s="33"/>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C418" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D418" s="28"/>
-      <c r="E418" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F418" s="33"/>
+      <c r="E418" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F418" s="16"/>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B419" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C419" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D419" s="28"/>
-      <c r="E419" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F419" s="16"/>
+      <c r="B419" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C419" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" s="21"/>
+      <c r="E419" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="F419" s="21"/>
     </row>
     <row r="420" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B420" s="24" t="s">
-        <v>331</v>
+      <c r="B420" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="C420" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D420" s="21"/>
       <c r="E420" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F420" s="21"/>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B421" s="22" t="s">
-        <v>332</v>
+      <c r="B421" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="C421" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D421" s="21"/>
       <c r="E421" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F421" s="21"/>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C422" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D422" s="21"/>
       <c r="E422" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F422" s="21"/>
     </row>
     <row r="423" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B423" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="C423" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D423" s="21"/>
-      <c r="E423" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="F423" s="21"/>
+      <c r="B423" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C423" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="28"/>
+      <c r="E423" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F423" s="16"/>
     </row>
     <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C424" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D424" s="28"/>
+      <c r="D424" s="16"/>
       <c r="E424" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F424" s="16"/>
     </row>
     <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C425" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D425" s="16"/>
+      <c r="D425" s="28"/>
       <c r="E425" s="16" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="F425" s="16"/>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="16" t="s">
-        <v>484</v>
+        <v>231</v>
       </c>
       <c r="C426" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D426" s="28"/>
       <c r="E426" s="16" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="F426" s="16"/>
     </row>
     <row r="427" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B427" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C427" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D427" s="28"/>
-      <c r="E427" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F427" s="16"/>
+      <c r="B427" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C427" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" s="23"/>
+      <c r="E427" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F427" s="21"/>
     </row>
     <row r="428" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B428" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C428" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D428" s="23"/>
-      <c r="E428" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F428" s="21"/>
+      <c r="B428" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C428" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" s="28"/>
+      <c r="E428" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F428" s="33"/>
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="33" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="C429" s="33" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="D429" s="28"/>
-      <c r="E429" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F429" s="33"/>
+      <c r="E429" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F429" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="430" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B430" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C430" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="D430" s="28"/>
-      <c r="E430" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F430" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="B430" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C430" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" s="16"/>
+      <c r="E430" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F430" s="16"/>
     </row>
     <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D431" s="16"/>
       <c r="E431" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F431" s="16"/>
     </row>
     <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D432" s="16"/>
       <c r="E432" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F432" s="16"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B433" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D433" s="16"/>
       <c r="E433" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F433" s="16"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B434" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D434" s="16"/>
       <c r="E434" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F434" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="F434" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B435" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C435" s="16" t="s">
+      <c r="B435" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C435" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D435" s="16"/>
-      <c r="E435" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F435" s="16" t="s">
-        <v>29</v>
+      <c r="D435" s="17"/>
+      <c r="E435" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F435" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B436" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C436" s="17" t="s">
+      <c r="B436" s="19"/>
+      <c r="C436" s="19"/>
+      <c r="D436" s="19"/>
+      <c r="E436" s="19"/>
+      <c r="F436" s="19"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="6">
+        <v>28</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C438" s="8"/>
+      <c r="D438" s="9"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="10"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B439" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D439" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E439" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F439" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B440" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F440" s="14"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B441" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C441" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D436" s="17"/>
-      <c r="E436" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F436" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B437" s="19"/>
-      <c r="C437" s="19"/>
-      <c r="D437" s="19"/>
-      <c r="E437" s="19"/>
-      <c r="F437" s="19"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="6">
-        <v>28</v>
-      </c>
-      <c r="B439" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C439" s="8"/>
-      <c r="D439" s="9"/>
-      <c r="E439" s="9"/>
-      <c r="F439" s="10"/>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B440" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C440" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D440" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E440" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F440" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B441" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C441" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D441" s="13"/>
-      <c r="E441" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F441" s="14"/>
+      <c r="D441" s="28"/>
+      <c r="E441" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="F441" s="33"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B442" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C442" s="16" t="s">
-        <v>27</v>
+        <v>194</v>
+      </c>
+      <c r="C442" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="F442" s="33"/>
+        <v>196</v>
+      </c>
+      <c r="F442" s="42"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B443" s="16" t="s">
-        <v>194</v>
+        <v>486</v>
       </c>
       <c r="C443" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D443" s="28"/>
-      <c r="E443" s="28" t="s">
-        <v>196</v>
+      <c r="E443" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="F443" s="42"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B444" s="16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C444" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D444" s="28"/>
       <c r="E444" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="F444" s="42"/>
+        <v>202</v>
+      </c>
+      <c r="F444" s="44"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B445" s="16" t="s">
-        <v>487</v>
+      <c r="B445" s="33" t="s">
+        <v>488</v>
       </c>
       <c r="C445" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D445" s="28"/>
-      <c r="E445" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="F445" s="44"/>
+      <c r="E445" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F445" s="33"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B446" s="33" t="s">
-        <v>488</v>
+      <c r="B446" s="45" t="s">
+        <v>489</v>
       </c>
       <c r="C446" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D446" s="28"/>
       <c r="E446" s="33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F446" s="33"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B447" s="45" t="s">
-        <v>489</v>
+      <c r="B447" s="16" t="s">
+        <v>490</v>
       </c>
       <c r="C447" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D447" s="28"/>
-      <c r="E447" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F447" s="33"/>
+      <c r="E447" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F447" s="16"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B448" s="16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C448" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D448" s="28"/>
-      <c r="E448" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="F448" s="16"/>
+      <c r="E448" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F448" s="33"/>
     </row>
     <row r="449" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B449" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C449" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D449" s="28"/>
-      <c r="E449" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F449" s="33"/>
+      <c r="E449" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F449" s="16"/>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B450" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="C450" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D450" s="28"/>
-      <c r="E450" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="F450" s="16"/>
+      <c r="B450" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C450" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="23"/>
+      <c r="E450" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F450" s="23"/>
     </row>
     <row r="451" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B451" s="46" t="s">
-        <v>331</v>
+      <c r="B451" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="C451" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D451" s="23"/>
       <c r="E451" s="46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F451" s="23"/>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B452" s="23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C452" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D452" s="23"/>
       <c r="E452" s="46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F452" s="23"/>
     </row>
     <row r="453" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B453" s="23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C453" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D453" s="23"/>
       <c r="E453" s="46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F453" s="23"/>
     </row>
     <row r="454" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B454" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C454" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D454" s="23"/>
-      <c r="E454" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F454" s="23"/>
+      <c r="B454" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C454" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" s="28"/>
+      <c r="E454" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F454" s="16"/>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B455" s="16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C455" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D455" s="28"/>
+      <c r="D455" s="16"/>
       <c r="E455" s="16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F455" s="16"/>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B456" s="16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C456" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D456" s="16"/>
+      <c r="D456" s="28"/>
       <c r="E456" s="16" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="F456" s="16"/>
     </row>
     <row r="457" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B457" s="16" t="s">
-        <v>495</v>
+        <v>231</v>
       </c>
       <c r="C457" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D457" s="28"/>
       <c r="E457" s="16" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="F457" s="16"/>
     </row>
     <row r="458" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B458" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="C458" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D458" s="28"/>
-      <c r="E458" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F458" s="16"/>
+      <c r="B458" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C458" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" s="23"/>
+      <c r="E458" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F458" s="23"/>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B459" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C459" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D459" s="23"/>
-      <c r="E459" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F459" s="23"/>
+      <c r="B459" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C459" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" s="28"/>
+      <c r="E459" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F459" s="33"/>
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B460" s="33" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="C460" s="33" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="D460" s="28"/>
-      <c r="E460" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F460" s="33"/>
+      <c r="E460" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F460" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="461" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B461" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C461" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="D461" s="28"/>
-      <c r="E461" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F461" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="B461" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C461" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" s="16"/>
+      <c r="E461" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F461" s="16"/>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B462" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D462" s="16"/>
       <c r="E462" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F462" s="16"/>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B463" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D463" s="16"/>
       <c r="E463" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F463" s="16"/>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B464" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D464" s="16"/>
       <c r="E464" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F464" s="16"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B465" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D465" s="16"/>
       <c r="E465" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F465" s="16"/>
+        <v>181</v>
+      </c>
+      <c r="F465" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B466" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C466" s="16" t="s">
+      <c r="B466" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C466" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D466" s="16"/>
-      <c r="E466" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F466" s="16" t="s">
+      <c r="D466" s="17"/>
+      <c r="E466" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F466" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B467" s="19"/>
+      <c r="C467" s="19"/>
+      <c r="D467" s="19"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B467" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C467" s="17" t="s">
+      <c r="B469" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C469" s="8"/>
+      <c r="D469" s="9"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="10"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B470" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E470" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F470" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B471" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471" s="13"/>
+      <c r="E471" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F471" s="14"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B472" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C472" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D467" s="17"/>
-      <c r="E467" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F467" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B468" s="19"/>
-      <c r="C468" s="19"/>
-      <c r="D468" s="19"/>
-      <c r="E468" s="19"/>
-      <c r="F468" s="19"/>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="6">
-        <v>29</v>
-      </c>
-      <c r="B470" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C470" s="8"/>
-      <c r="D470" s="9"/>
-      <c r="E470" s="9"/>
-      <c r="F470" s="10"/>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B471" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C471" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D471" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E471" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F471" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B472" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C472" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D472" s="13"/>
-      <c r="E472" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F472" s="14"/>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B473" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="C473" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D473" s="16"/>
-      <c r="E473" s="43" t="s">
+      <c r="D472" s="16"/>
+      <c r="E472" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F473" s="42"/>
+      <c r="F472" s="42"/>
+    </row>
+    <row r="473" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C473" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D473" s="23"/>
+      <c r="E473" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F473" s="23"/>
     </row>
     <row r="474" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C474" s="37" t="s">
+      <c r="B474" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C474" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D474" s="23"/>
       <c r="E474" s="23" t="s">
-        <v>460</v>
+        <v>166</v>
       </c>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C475" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D475" s="23"/>
-      <c r="E475" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F475" s="23"/>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B476" s="14" t="s">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B475" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C476" s="15" t="s">
+      <c r="C475" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D476" s="14"/>
-      <c r="E476" s="48" t="s">
+      <c r="D475" s="14"/>
+      <c r="E475" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F476" s="14"/>
-    </row>
-    <row r="477" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="23" t="s">
+      <c r="F475" s="14"/>
+    </row>
+    <row r="476" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C477" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D477" s="23"/>
-      <c r="E477" s="23" t="s">
+      <c r="C476" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D476" s="23"/>
+      <c r="E476" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F477" s="23"/>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B478" s="14" t="s">
+      <c r="F476" s="23"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B477" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C478" s="15" t="s">
+      <c r="C477" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D478" s="14"/>
-      <c r="E478" s="48" t="s">
+      <c r="D477" s="14"/>
+      <c r="E477" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F478" s="14"/>
-    </row>
-    <row r="479" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="47" t="s">
+      <c r="F477" s="14"/>
+    </row>
+    <row r="478" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C479" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D479" s="23"/>
-      <c r="E479" s="23" t="s">
+      <c r="C478" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D478" s="23"/>
+      <c r="E478" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F479" s="23"/>
+      <c r="F478" s="23"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B479" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C479" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479" s="16"/>
+      <c r="E479" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F479" s="14"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B480" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D480" s="16"/>
       <c r="E480" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F480" s="14"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B481" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D481" s="16"/>
       <c r="E481" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F481" s="14"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B482" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D482" s="16"/>
       <c r="E482" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F482" s="14"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B483" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C483" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D483" s="16"/>
-      <c r="E483" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F483" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C483" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D483" s="14"/>
+      <c r="E483" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F483" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B484" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C484" s="14" t="s">
+      <c r="B484" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C484" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D484" s="14"/>
-      <c r="E484" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F484" s="14" t="s">
-        <v>29</v>
+      <c r="D484" s="17"/>
+      <c r="E484" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F484" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B485" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C485" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D485" s="17"/>
-      <c r="E485" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F485" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B486" s="19"/>
-      <c r="C486" s="19"/>
-      <c r="D486" s="19"/>
-      <c r="E486" s="19"/>
-      <c r="F486" s="19"/>
+      <c r="B485" s="19"/>
+      <c r="C485" s="19"/>
+      <c r="D485" s="19"/>
+      <c r="E485" s="19"/>
+      <c r="F485" s="19"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="6">
+        <v>30</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C487" s="8"/>
+      <c r="D487" s="9"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="10"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="6">
-        <v>30</v>
-      </c>
-      <c r="B488" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C488" s="8"/>
-      <c r="D488" s="9"/>
-      <c r="E488" s="9"/>
-      <c r="F488" s="10"/>
+      <c r="B488" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D488" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F488" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B489" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C489" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D489" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E489" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F489" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B489" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D489" s="13"/>
+      <c r="E489" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F489" s="14"/>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B490" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C490" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D490" s="13"/>
-      <c r="E490" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F490" s="14"/>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B491" s="14" t="s">
+      <c r="B490" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="C491" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D491" s="14"/>
-      <c r="E491" s="48" t="s">
+      <c r="C490" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490" s="14"/>
+      <c r="E490" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F491" s="49"/>
+      <c r="F490" s="49"/>
+    </row>
+    <row r="491" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B491" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C491" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491" s="23"/>
+      <c r="E491" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F491" s="23"/>
     </row>
     <row r="492" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C492" s="23" t="s">
+      <c r="B492" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C492" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D492" s="23"/>
       <c r="E492" s="23" t="s">
-        <v>500</v>
+        <v>166</v>
       </c>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C493" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D493" s="23"/>
-      <c r="E493" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F493" s="23"/>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B494" s="14" t="s">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B493" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C494" s="15" t="s">
+      <c r="C493" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D494" s="14"/>
-      <c r="E494" s="48" t="s">
+      <c r="D493" s="14"/>
+      <c r="E493" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F494" s="14"/>
-    </row>
-    <row r="495" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B495" s="23" t="s">
+      <c r="F493" s="14"/>
+    </row>
+    <row r="494" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C495" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D495" s="23"/>
-      <c r="E495" s="23" t="s">
+      <c r="C494" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D494" s="23"/>
+      <c r="E494" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F495" s="23"/>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B496" s="14" t="s">
+      <c r="F494" s="23"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B495" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C496" s="15" t="s">
+      <c r="C495" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D496" s="14"/>
-      <c r="E496" s="48" t="s">
+      <c r="D495" s="14"/>
+      <c r="E495" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F496" s="14"/>
-    </row>
-    <row r="497" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="47" t="s">
+      <c r="F495" s="14"/>
+    </row>
+    <row r="496" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C497" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D497" s="23"/>
-      <c r="E497" s="23" t="s">
+      <c r="C496" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496" s="23"/>
+      <c r="E496" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F497" s="23"/>
+      <c r="F496" s="23"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B497" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C497" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D497" s="16"/>
+      <c r="E497" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F497" s="14"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B498" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D498" s="16"/>
       <c r="E498" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F498" s="14"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B499" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D499" s="16"/>
       <c r="E499" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F499" s="14"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B500" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D500" s="16"/>
       <c r="E500" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F500" s="14"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B501" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C501" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D501" s="16"/>
-      <c r="E501" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F501" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C501" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D501" s="14"/>
+      <c r="E501" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F501" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B502" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C502" s="14" t="s">
+      <c r="B502" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C502" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D502" s="14"/>
-      <c r="E502" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F502" s="14" t="s">
-        <v>29</v>
+      <c r="D502" s="17"/>
+      <c r="E502" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F502" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B503" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C503" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D503" s="17"/>
-      <c r="E503" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F503" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B504" s="19"/>
-      <c r="C504" s="19"/>
-      <c r="D504" s="19"/>
-      <c r="E504" s="19"/>
-      <c r="F504" s="19"/>
+      <c r="B503" s="19"/>
+      <c r="C503" s="19"/>
+      <c r="D503" s="19"/>
+      <c r="E503" s="19"/>
+      <c r="F503" s="19"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="6">
+        <v>31</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C505" s="8"/>
+      <c r="D505" s="9"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="10"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="6">
-        <v>31</v>
-      </c>
-      <c r="B506" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C506" s="8"/>
-      <c r="D506" s="9"/>
-      <c r="E506" s="9"/>
-      <c r="F506" s="10"/>
+      <c r="B506" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C506" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D506" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E506" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F506" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B507" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C507" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D507" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E507" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F507" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B508" s="12" t="s">
+      <c r="B507" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C508" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D508" s="13"/>
-      <c r="E508" s="13" t="s">
+      <c r="C507" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D507" s="13"/>
+      <c r="E507" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F508" s="14"/>
-    </row>
-    <row r="509" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="16" t="s">
+      <c r="F507" s="14"/>
+    </row>
+    <row r="508" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C509" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D509" s="16"/>
-      <c r="E509" s="43" t="s">
+      <c r="C508" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D508" s="16"/>
+      <c r="E508" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F509" s="42"/>
-    </row>
-    <row r="510" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F508" s="42"/>
+    </row>
+    <row r="509" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C509" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D509" s="23"/>
+      <c r="E509" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F509" s="23"/>
+    </row>
+    <row r="510" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B510" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C510" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C510" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D510" s="23"/>
-      <c r="E510" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="F510" s="23"/>
+      <c r="E510" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F510" s="33"/>
     </row>
     <row r="511" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C511" s="37" t="s">
+      <c r="B511" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C511" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D511" s="23"/>
       <c r="E511" s="23" t="s">
-        <v>460</v>
+        <v>166</v>
       </c>
       <c r="F511" s="33"/>
     </row>
-    <row r="512" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B512" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C512" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D512" s="23"/>
-      <c r="E512" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F512" s="33"/>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B513" s="14" t="s">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B512" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C513" s="15" t="s">
+      <c r="C512" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D513" s="14"/>
-      <c r="E513" s="48" t="s">
+      <c r="D512" s="14"/>
+      <c r="E512" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F513" s="14"/>
-    </row>
-    <row r="514" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B514" s="23" t="s">
+      <c r="F512" s="14"/>
+    </row>
+    <row r="513" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C514" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D514" s="23"/>
-      <c r="E514" s="23" t="s">
+      <c r="C513" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D513" s="23"/>
+      <c r="E513" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F514" s="33"/>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B515" s="14" t="s">
+      <c r="F513" s="33"/>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B514" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C515" s="15" t="s">
+      <c r="C514" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D515" s="14"/>
-      <c r="E515" s="48" t="s">
+      <c r="D514" s="14"/>
+      <c r="E514" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F515" s="14"/>
-    </row>
-    <row r="516" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B516" s="47" t="s">
+      <c r="F514" s="14"/>
+    </row>
+    <row r="515" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C516" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D516" s="23"/>
-      <c r="E516" s="23" t="s">
+      <c r="C515" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D515" s="23"/>
+      <c r="E515" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F516" s="33"/>
+      <c r="F515" s="33"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B516" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C516" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D516" s="16"/>
+      <c r="E516" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F516" s="14"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B517" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C517" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D517" s="16"/>
       <c r="E517" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F517" s="14"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B518" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C518" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D518" s="16"/>
       <c r="E518" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F518" s="14"/>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B519" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D519" s="16"/>
       <c r="E519" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F519" s="14"/>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B520" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C520" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D520" s="16"/>
-      <c r="E520" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F520" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C520" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D520" s="14"/>
+      <c r="E520" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F520" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B521" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C521" s="14" t="s">
+      <c r="B521" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C521" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D521" s="14"/>
-      <c r="E521" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F521" s="14" t="s">
-        <v>29</v>
+      <c r="D521" s="17"/>
+      <c r="E521" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F521" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B522" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C522" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D522" s="17"/>
-      <c r="E522" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F522" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B523" s="19"/>
-      <c r="C523" s="19"/>
-      <c r="D523" s="19"/>
-      <c r="E523" s="19"/>
-      <c r="F523" s="19"/>
+      <c r="B522" s="19"/>
+      <c r="C522" s="19"/>
+      <c r="D522" s="19"/>
+      <c r="E522" s="19"/>
+      <c r="F522" s="19"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="6">
+        <v>32</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C524" s="8"/>
+      <c r="D524" s="9"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="10"/>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="6">
-        <v>32</v>
-      </c>
-      <c r="B525" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C525" s="8"/>
-      <c r="D525" s="9"/>
-      <c r="E525" s="9"/>
-      <c r="F525" s="10"/>
+      <c r="B525" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C525" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D525" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E525" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F525" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B526" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C526" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D526" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E526" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F526" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B526" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C526" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D526" s="13"/>
+      <c r="E526" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F526" s="14"/>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B527" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C527" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D527" s="13"/>
-      <c r="E527" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F527" s="14"/>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B528" s="14" t="s">
+      <c r="B527" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C528" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D528" s="14"/>
-      <c r="E528" s="48" t="s">
+      <c r="C527" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D527" s="14"/>
+      <c r="E527" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F528" s="49"/>
+      <c r="F527" s="49"/>
+    </row>
+    <row r="528" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C528" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D528" s="23"/>
+      <c r="E528" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F528" s="44"/>
     </row>
     <row r="529" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="23" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="C529" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D529" s="23"/>
-      <c r="E529" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="F529" s="44"/>
+      <c r="E529" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F529" s="33"/>
     </row>
     <row r="530" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C530" s="23" t="s">
+      <c r="B530" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C530" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D530" s="23"/>
       <c r="E530" s="23" t="s">
-        <v>500</v>
+        <v>166</v>
       </c>
       <c r="F530" s="33"/>
     </row>
-    <row r="531" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C531" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D531" s="23"/>
-      <c r="E531" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F531" s="33"/>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B532" s="14" t="s">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B531" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C532" s="15" t="s">
+      <c r="C531" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D532" s="14"/>
-      <c r="E532" s="48" t="s">
+      <c r="D531" s="14"/>
+      <c r="E531" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F532" s="14"/>
-    </row>
-    <row r="533" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="23" t="s">
+      <c r="F531" s="14"/>
+    </row>
+    <row r="532" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C533" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D533" s="23"/>
-      <c r="E533" s="23" t="s">
+      <c r="C532" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D532" s="23"/>
+      <c r="E532" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F533" s="33"/>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B534" s="14" t="s">
+      <c r="F532" s="33"/>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B533" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C534" s="15" t="s">
+      <c r="C533" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D534" s="14"/>
-      <c r="E534" s="48" t="s">
+      <c r="D533" s="14"/>
+      <c r="E533" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F534" s="14"/>
-    </row>
-    <row r="535" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B535" s="47" t="s">
+      <c r="F533" s="14"/>
+    </row>
+    <row r="534" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C535" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D535" s="23"/>
-      <c r="E535" s="23" t="s">
+      <c r="C534" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D534" s="23"/>
+      <c r="E534" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F535" s="33"/>
+      <c r="F534" s="33"/>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B535" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C535" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" s="16"/>
+      <c r="E535" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F535" s="14"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B536" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C536" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D536" s="16"/>
       <c r="E536" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F536" s="14"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B537" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C537" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D537" s="16"/>
       <c r="E537" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F537" s="14"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B538" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C538" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D538" s="16"/>
       <c r="E538" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F538" s="14"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B539" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C539" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D539" s="16"/>
-      <c r="E539" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F539" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C539" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D539" s="14"/>
+      <c r="E539" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F539" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B540" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C540" s="14" t="s">
+      <c r="B540" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C540" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D540" s="14"/>
-      <c r="E540" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F540" s="14" t="s">
-        <v>29</v>
+      <c r="D540" s="17"/>
+      <c r="E540" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F540" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B541" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C541" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D541" s="17"/>
-      <c r="E541" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F541" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B542" s="19"/>
-      <c r="C542" s="19"/>
-      <c r="D542" s="19"/>
-      <c r="E542" s="19"/>
-      <c r="F542" s="19"/>
+      <c r="B541" s="19"/>
+      <c r="C541" s="19"/>
+      <c r="D541" s="19"/>
+      <c r="E541" s="19"/>
+      <c r="F541" s="19"/>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="6">
+        <v>33</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C543" s="8"/>
+      <c r="D543" s="9"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="10"/>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="6">
-        <v>33</v>
-      </c>
-      <c r="B544" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C544" s="8"/>
-      <c r="D544" s="9"/>
-      <c r="E544" s="9"/>
-      <c r="F544" s="10"/>
+      <c r="B544" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C544" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D544" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E544" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F544" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B545" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C545" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D545" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E545" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F545" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B546" s="12" t="s">
+      <c r="B545" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C546" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D546" s="13"/>
-      <c r="E546" s="13" t="s">
+      <c r="C545" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D545" s="13"/>
+      <c r="E545" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F546" s="14"/>
-    </row>
-    <row r="547" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="16" t="s">
+      <c r="F545" s="14"/>
+    </row>
+    <row r="546" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C547" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D547" s="51"/>
-      <c r="E547" s="43" t="s">
+      <c r="C546" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D546" s="51"/>
+      <c r="E546" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F547" s="33"/>
-    </row>
-    <row r="548" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F546" s="33"/>
+    </row>
+    <row r="547" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C547" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D547" s="23"/>
+      <c r="E547" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F547" s="23"/>
+    </row>
+    <row r="548" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B548" s="23" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="C548" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D548" s="23"/>
       <c r="E548" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F548" s="23"/>
+        <v>500</v>
+      </c>
+      <c r="F548" s="33"/>
     </row>
     <row r="549" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C549" s="23" t="s">
+      <c r="B549" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C549" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D549" s="23"/>
       <c r="E549" s="23" t="s">
-        <v>500</v>
+        <v>166</v>
       </c>
       <c r="F549" s="33"/>
     </row>
-    <row r="550" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B550" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C550" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D550" s="23"/>
-      <c r="E550" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F550" s="33"/>
-    </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B551" s="14" t="s">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B550" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C551" s="35" t="s">
+      <c r="C550" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D551" s="20"/>
-      <c r="E551" s="52" t="s">
+      <c r="D550" s="20"/>
+      <c r="E550" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="F551" s="35"/>
-    </row>
-    <row r="552" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B552" s="23" t="s">
+      <c r="F550" s="35"/>
+    </row>
+    <row r="551" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C552" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D552" s="23"/>
-      <c r="E552" s="23" t="s">
+      <c r="C551" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D551" s="23"/>
+      <c r="E551" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F552" s="33"/>
-    </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B553" s="14" t="s">
+      <c r="F551" s="33"/>
+    </row>
+    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B552" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C553" s="14" t="s">
+      <c r="C552" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D553" s="20"/>
-      <c r="E553" s="52" t="s">
+      <c r="D552" s="20"/>
+      <c r="E552" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="F553" s="14"/>
-    </row>
-    <row r="554" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B554" s="47" t="s">
+      <c r="F552" s="14"/>
+    </row>
+    <row r="553" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C554" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D554" s="23"/>
-      <c r="E554" s="23" t="s">
+      <c r="C553" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D553" s="23"/>
+      <c r="E553" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F554" s="33"/>
+      <c r="F553" s="33"/>
+    </row>
+    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B554" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C554" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D554" s="16"/>
+      <c r="E554" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F554" s="14"/>
     </row>
     <row r="555" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B555" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C555" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D555" s="16"/>
       <c r="E555" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F555" s="14"/>
     </row>
     <row r="556" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B556" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C556" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D556" s="16"/>
       <c r="E556" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F556" s="14"/>
     </row>
     <row r="557" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B557" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C557" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D557" s="16"/>
       <c r="E557" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F557" s="14"/>
     </row>
     <row r="558" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B558" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C558" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D558" s="16"/>
-      <c r="E558" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F558" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C558" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D558" s="14"/>
+      <c r="E558" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F558" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="559" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B559" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C559" s="14" t="s">
+      <c r="B559" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C559" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D559" s="14"/>
-      <c r="E559" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F559" s="14" t="s">
-        <v>29</v>
+      <c r="D559" s="17"/>
+      <c r="E559" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F559" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="560" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B560" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C560" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D560" s="17"/>
-      <c r="E560" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F560" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B561" s="19"/>
-      <c r="C561" s="19"/>
-      <c r="D561" s="19"/>
-      <c r="E561" s="19"/>
-      <c r="F561" s="19"/>
+      <c r="B560" s="19"/>
+      <c r="C560" s="19"/>
+      <c r="D560" s="19"/>
+      <c r="E560" s="19"/>
+      <c r="F560" s="19"/>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="6">
+        <v>34</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C562" s="8"/>
+      <c r="D562" s="9"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="10"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" s="6">
-        <v>34</v>
-      </c>
-      <c r="B563" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C563" s="8"/>
-      <c r="D563" s="9"/>
-      <c r="E563" s="9"/>
-      <c r="F563" s="10"/>
+      <c r="B563" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C563" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D563" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E563" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F563" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B564" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C564" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D564" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E564" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F564" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B564" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C564" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D564" s="13"/>
+      <c r="E564" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F564" s="14"/>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B565" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C565" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D565" s="13"/>
-      <c r="E565" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F565" s="14"/>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B566" s="16" t="s">
+      <c r="B565" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C566" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D566" s="51"/>
-      <c r="E566" s="43" t="s">
+      <c r="C565" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D565" s="51"/>
+      <c r="E565" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="F566" s="33"/>
-    </row>
-    <row r="567" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F565" s="33"/>
+    </row>
+    <row r="566" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="C566" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D566" s="23"/>
+      <c r="E566" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="F566" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B567" s="23" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C567" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D567" s="23"/>
       <c r="E567" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="F567" s="23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C568" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F567" s="28"/>
+    </row>
+    <row r="568" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="C568" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D568" s="23"/>
       <c r="E568" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F568" s="28"/>
-    </row>
-    <row r="569" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="C569" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="F568" s="23"/>
+    </row>
+    <row r="569" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C569" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D569" s="23"/>
       <c r="E569" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F569" s="23"/>
+        <v>371</v>
+      </c>
+      <c r="F569" s="29"/>
     </row>
     <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C570" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D570" s="23"/>
-      <c r="E570" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="F570" s="29"/>
+      <c r="B570" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="C570" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D570" s="28"/>
+      <c r="E570" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="F570" s="28"/>
     </row>
     <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B571" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="C571" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D571" s="28"/>
-      <c r="E571" s="28" t="s">
-        <v>517</v>
+      <c r="B571" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C571" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D571" s="23"/>
+      <c r="E571" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="F571" s="28"/>
     </row>
     <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C572" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D572" s="23"/>
-      <c r="E572" s="23" t="s">
-        <v>173</v>
+      <c r="B572" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C572" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D572" s="28"/>
+      <c r="E572" s="28" t="s">
+        <v>519</v>
       </c>
       <c r="F572" s="28"/>
     </row>
     <row r="573" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B573" s="28" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C573" s="28" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D573" s="28"/>
       <c r="E573" s="28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F573" s="28"/>
     </row>
-    <row r="574" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B574" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C574" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D574" s="28"/>
-      <c r="E574" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="F574" s="28"/>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B574" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C574" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D574" s="16"/>
+      <c r="E574" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" s="14"/>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B575" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C575" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D575" s="16"/>
       <c r="E575" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F575" s="14"/>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B576" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C576" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D576" s="16"/>
       <c r="E576" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F576" s="14"/>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B577" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C577" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D577" s="16"/>
       <c r="E577" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F577" s="14"/>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B578" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C578" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D578" s="16"/>
-      <c r="E578" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F578" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C578" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D578" s="14"/>
+      <c r="E578" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F578" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B579" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C579" s="14" t="s">
+      <c r="B579" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C579" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D579" s="14"/>
-      <c r="E579" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F579" s="14" t="s">
-        <v>29</v>
+      <c r="D579" s="17"/>
+      <c r="E579" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F579" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B580" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C580" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D580" s="17"/>
-      <c r="E580" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F580" s="17" t="s">
-        <v>279</v>
-      </c>
+      <c r="B580" s="19"/>
+      <c r="C580" s="19"/>
+      <c r="D580" s="19"/>
+      <c r="E580" s="19"/>
+      <c r="F580" s="19"/>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B581" s="19"/>
@@ -17587,278 +17581,278 @@
       <c r="F581" s="19"/>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B582" s="19"/>
-      <c r="C582" s="19"/>
-      <c r="D582" s="19"/>
-      <c r="E582" s="19"/>
-      <c r="F582" s="19"/>
+      <c r="A582" s="6">
+        <v>35</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C582" s="8"/>
+      <c r="D582" s="9"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="10"/>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A583" s="6">
-        <v>35</v>
-      </c>
-      <c r="B583" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C583" s="8"/>
-      <c r="D583" s="9"/>
-      <c r="E583" s="9"/>
-      <c r="F583" s="10"/>
+      <c r="B583" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C583" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D583" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F583" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B584" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C584" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D584" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E584" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F584" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B584" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C584" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D584" s="13"/>
+      <c r="E584" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F584" s="14"/>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B585" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C585" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D585" s="13"/>
-      <c r="E585" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F585" s="14"/>
+      <c r="B585" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="C585" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585" s="46"/>
+      <c r="E585" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="F585" s="23"/>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B586" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="C586" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D586" s="46"/>
-      <c r="E586" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="F586" s="23"/>
+      <c r="B586" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C586" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D586" s="51"/>
+      <c r="E586" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="F586" s="33"/>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B587" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="C587" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D587" s="51"/>
-      <c r="E587" s="43" t="s">
-        <v>526</v>
+      <c r="B587" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C587" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D587" s="23"/>
+      <c r="E587" s="23" t="s">
+        <v>500</v>
       </c>
       <c r="F587" s="33"/>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B588" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C588" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D588" s="23"/>
-      <c r="E588" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F588" s="33"/>
+      <c r="B588" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="C588" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D588" s="54"/>
+      <c r="E588" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F588" s="28"/>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B589" s="53" t="s">
-        <v>527</v>
-      </c>
-      <c r="C589" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D589" s="54"/>
-      <c r="E589" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F589" s="28"/>
+        <v>528</v>
+      </c>
+      <c r="C589" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D589" s="51"/>
+      <c r="E589" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="F589" s="33"/>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B590" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="C590" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D590" s="51"/>
-      <c r="E590" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="F590" s="33"/>
-    </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B591" s="47" t="s">
+      <c r="B590" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C591" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D591" s="23"/>
-      <c r="E591" s="23" t="s">
+      <c r="C590" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D590" s="23"/>
+      <c r="E590" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F591" s="23"/>
+      <c r="F590" s="23"/>
+    </row>
+    <row r="591" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="C591" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D591" s="28"/>
+      <c r="E591" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="F591" s="28"/>
     </row>
     <row r="592" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B592" s="53" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C592" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D592" s="28"/>
       <c r="E592" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F592" s="28"/>
     </row>
-    <row r="593" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B593" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="C593" s="53" t="s">
-        <v>7</v>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B593" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C593" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="D593" s="28"/>
       <c r="E593" s="28" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F593" s="28"/>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B594" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="C594" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D594" s="28"/>
-      <c r="E594" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="F594" s="28"/>
+      <c r="B594" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C594" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D594" s="22"/>
+      <c r="E594" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F594" s="29"/>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B595" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C595" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D595" s="22"/>
-      <c r="E595" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="F595" s="29"/>
+      <c r="B595" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C595" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D595" s="24"/>
+      <c r="E595" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="F595" s="21"/>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B596" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="C596" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D596" s="24"/>
-      <c r="E596" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="F596" s="21"/>
+      <c r="B596" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D596" s="16"/>
+      <c r="E596" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F596" s="14"/>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B597" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C597" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D597" s="16"/>
       <c r="E597" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F597" s="14"/>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B598" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C598" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D598" s="16"/>
       <c r="E598" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F598" s="14"/>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B599" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C599" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D599" s="16"/>
       <c r="E599" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F599" s="14"/>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B600" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C600" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D600" s="16"/>
-      <c r="E600" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F600" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C600" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D600" s="14"/>
+      <c r="E600" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F600" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B601" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C601" s="14" t="s">
+      <c r="B601" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C601" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D601" s="14"/>
-      <c r="E601" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F601" s="14" t="s">
-        <v>29</v>
+      <c r="D601" s="17"/>
+      <c r="E601" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F601" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B602" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C602" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D602" s="17"/>
-      <c r="E602" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F602" s="17" t="s">
-        <v>279</v>
-      </c>
+      <c r="B602" s="19"/>
+      <c r="C602" s="19"/>
+      <c r="D602" s="19"/>
+      <c r="E602" s="19"/>
+      <c r="F602" s="19"/>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B603" s="19"/>
@@ -17868,513 +17862,506 @@
       <c r="F603" s="19"/>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B604" s="19"/>
-      <c r="C604" s="19"/>
-      <c r="D604" s="19"/>
-      <c r="E604" s="19"/>
-      <c r="F604" s="19"/>
+      <c r="A604" s="6">
+        <v>36</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C604" s="8"/>
+      <c r="D604" s="9"/>
+      <c r="E604" s="9"/>
+      <c r="F604" s="10"/>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A605" s="6">
-        <v>36</v>
-      </c>
-      <c r="B605" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C605" s="8"/>
-      <c r="D605" s="9"/>
-      <c r="E605" s="9"/>
-      <c r="F605" s="10"/>
+      <c r="B605" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C605" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D605" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E605" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F605" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B606" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C606" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D606" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E606" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F606" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="B606" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C606" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D606" s="13"/>
+      <c r="E606" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F606" s="14"/>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B607" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C607" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D607" s="13"/>
-      <c r="E607" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F607" s="14"/>
+      <c r="B607" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C607" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D607" s="51"/>
+      <c r="E607" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="F607" s="33"/>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B608" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="C608" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D608" s="51"/>
-      <c r="E608" s="43" t="s">
-        <v>539</v>
-      </c>
-      <c r="F608" s="33"/>
+      <c r="B608" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C608" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D608" s="23"/>
+      <c r="E608" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="F608" s="28"/>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B609" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C609" s="23" t="s">
+      <c r="B609" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="C609" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D609" s="23"/>
       <c r="E609" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="F609" s="28"/>
+        <v>515</v>
+      </c>
+      <c r="F609" s="23"/>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B610" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="C610" s="47" t="s">
+      <c r="B610" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C610" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D610" s="23"/>
       <c r="E610" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F610" s="23"/>
+        <v>371</v>
+      </c>
+      <c r="F610" s="29"/>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B611" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C611" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D611" s="23"/>
-      <c r="E611" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="F611" s="29"/>
+      <c r="B611" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C611" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D611" s="28"/>
+      <c r="E611" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="F611" s="28"/>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B612" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="C612" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D612" s="28"/>
-      <c r="E612" s="28" t="s">
-        <v>541</v>
+      <c r="B612" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C612" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D612" s="23"/>
+      <c r="E612" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="F612" s="28"/>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B613" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="C613" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D613" s="23"/>
-      <c r="E613" s="23" t="s">
-        <v>173</v>
+      <c r="B613" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="C613" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D613" s="28"/>
+      <c r="E613" s="28" t="s">
+        <v>519</v>
       </c>
       <c r="F613" s="28"/>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B614" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C614" s="28" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D614" s="28"/>
       <c r="E614" s="28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F614" s="28"/>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B615" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="C615" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D615" s="28"/>
-      <c r="E615" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="F615" s="28"/>
+      <c r="B615" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C615" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D615" s="16"/>
+      <c r="E615" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F615" s="14"/>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B616" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C616" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D616" s="16"/>
       <c r="E616" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F616" s="14"/>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B617" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C617" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D617" s="16"/>
       <c r="E617" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F617" s="14"/>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B618" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C618" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D618" s="16"/>
       <c r="E618" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F618" s="14"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B619" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C619" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D619" s="16"/>
-      <c r="E619" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F619" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C619" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D619" s="14"/>
+      <c r="E619" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F619" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B620" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C620" s="14" t="s">
+      <c r="B620" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C620" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D620" s="14"/>
-      <c r="E620" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F620" s="14" t="s">
-        <v>29</v>
+      <c r="D620" s="17"/>
+      <c r="E620" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F620" s="17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B621" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C621" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D621" s="17"/>
-      <c r="E621" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F621" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B622" s="19"/>
-      <c r="C622" s="19"/>
-      <c r="D622" s="19"/>
-      <c r="E622" s="19"/>
-      <c r="F622" s="19"/>
+      <c r="B621" s="19"/>
+      <c r="C621" s="19"/>
+      <c r="D621" s="19"/>
+      <c r="E621" s="19"/>
+      <c r="F621" s="19"/>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="6">
+        <v>37</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C623" s="8"/>
+      <c r="D623" s="9"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="10"/>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624" s="6">
-        <v>37</v>
-      </c>
-      <c r="B624" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C624" s="8"/>
-      <c r="D624" s="9"/>
-      <c r="E624" s="9"/>
-      <c r="F624" s="10"/>
+      <c r="B624" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C624" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D624" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E624" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F624" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="625" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B625" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C625" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D625" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E625" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F625" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B626" s="12" t="s">
+      <c r="B625" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C626" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D626" s="13"/>
-      <c r="E626" s="13" t="s">
+      <c r="C625" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D625" s="13"/>
+      <c r="E625" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F626" s="14"/>
-    </row>
-    <row r="627" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B627" s="23" t="s">
+      <c r="F625" s="14"/>
+    </row>
+    <row r="626" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B626" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C627" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D627" s="46"/>
-      <c r="E627" s="50" t="s">
+      <c r="C626" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D626" s="46"/>
+      <c r="E626" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="F627" s="23"/>
+      <c r="F626" s="23"/>
+    </row>
+    <row r="627" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B627" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C627" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D627" s="51"/>
+      <c r="E627" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="F627" s="33"/>
     </row>
     <row r="628" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B628" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="C628" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D628" s="51"/>
-      <c r="E628" s="43" t="s">
-        <v>526</v>
+      <c r="B628" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C628" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D628" s="23"/>
+      <c r="E628" s="23" t="s">
+        <v>500</v>
       </c>
       <c r="F628" s="33"/>
     </row>
     <row r="629" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B629" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C629" s="23" t="s">
+      <c r="B629" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C629" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D629" s="23"/>
       <c r="E629" s="23" t="s">
-        <v>500</v>
+        <v>166</v>
       </c>
       <c r="F629" s="33"/>
     </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B630" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C630" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D630" s="23"/>
-      <c r="E630" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F630" s="33"/>
-    </row>
-    <row r="631" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B630" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="C630" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D630" s="54"/>
+      <c r="E630" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F630" s="28"/>
+    </row>
+    <row r="631" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B631" s="53" t="s">
-        <v>527</v>
-      </c>
-      <c r="C631" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D631" s="54"/>
-      <c r="E631" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F631" s="28"/>
+        <v>547</v>
+      </c>
+      <c r="C631" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D631" s="51"/>
+      <c r="E631" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="F631" s="33"/>
     </row>
     <row r="632" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B632" s="53" t="s">
-        <v>547</v>
-      </c>
-      <c r="C632" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D632" s="51"/>
-      <c r="E632" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="F632" s="33"/>
-    </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B633" s="47" t="s">
+      <c r="B632" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C633" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D633" s="23"/>
-      <c r="E633" s="23" t="s">
+      <c r="C632" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D632" s="23"/>
+      <c r="E632" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F633" s="23"/>
-    </row>
-    <row r="634" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B634" s="28" t="s">
+      <c r="F632" s="23"/>
+    </row>
+    <row r="633" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B633" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="C634" s="28" t="s">
+      <c r="C633" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D634" s="28"/>
-      <c r="E634" s="28" t="s">
+      <c r="D633" s="28"/>
+      <c r="E633" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="F634" s="28"/>
+      <c r="F633" s="28"/>
+    </row>
+    <row r="634" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B634" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="C634" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D634" s="23"/>
+      <c r="E634" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="F634" s="23" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="635" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B635" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="C635" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D635" s="23"/>
-      <c r="E635" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="F635" s="23" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B636" s="32" t="s">
+      <c r="B635" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="C636" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D636" s="22"/>
-      <c r="E636" s="22" t="s">
+      <c r="C635" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D635" s="22"/>
+      <c r="E635" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F636" s="29"/>
-    </row>
-    <row r="637" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="21" t="s">
+      <c r="F635" s="29"/>
+    </row>
+    <row r="636" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B636" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C637" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D637" s="24"/>
-      <c r="E637" s="56" t="s">
+      <c r="C636" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D636" s="24"/>
+      <c r="E636" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="F637" s="21"/>
+      <c r="F636" s="21"/>
+    </row>
+    <row r="637" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B637" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C637" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D637" s="16"/>
+      <c r="E637" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F637" s="14"/>
     </row>
     <row r="638" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B638" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C638" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D638" s="16"/>
       <c r="E638" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F638" s="14"/>
     </row>
     <row r="639" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B639" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C639" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D639" s="16"/>
       <c r="E639" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F639" s="14"/>
     </row>
     <row r="640" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B640" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C640" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D640" s="16"/>
       <c r="E640" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F640" s="14"/>
     </row>
     <row r="641" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B641" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C641" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D641" s="16"/>
-      <c r="E641" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F641" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="C641" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D641" s="14"/>
+      <c r="E641" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F641" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="642" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B642" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C642" s="14" t="s">
+      <c r="B642" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C642" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D642" s="14"/>
-      <c r="E642" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="F642" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B643" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C643" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D643" s="17"/>
-      <c r="E643" s="17" t="s">
+      <c r="D642" s="17"/>
+      <c r="E642" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F643" s="17" t="s">
+      <c r="F642" s="17" t="s">
         <v>279</v>
       </c>
     </row>
@@ -18385,5 +18372,6 @@
     <hyperlink ref="A112" r:id="rId2" location="/javascript:;" tooltip="file:///D:\YoudaoDict\8.5.1.0\resultui\html\index.html#\javascript:;" display="../../../../../YoudaoDict/8.5.1.0/resultui/html/index.html - /javascript:;" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\IcpForCitln\icpForCitln\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEF87C3-152C-46B9-B41B-2A7C017A18D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081D67D-0E1C-40C7-AACF-976E4FC248E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="555">
   <si>
     <t>定义企业产品属性表</t>
   </si>
@@ -2059,12 +2059,41 @@
   <si>
     <t>现在还没做</t>
   </si>
+  <si>
+    <t>CREATER</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INVENTORY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_LOCATIOM_REMARK</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存地点描述</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,6 +2211,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2360,7 +2397,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2706,6 +2743,12 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10067,10 +10110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:M642"/>
+  <dimension ref="A2:M643"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:XFD158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12387,7 +12430,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B161" s="14" t="s">
-        <v>17</v>
+        <v>551</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>7</v>
@@ -12542,5036 +12585,5042 @@
       </c>
       <c r="F173" s="29"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" s="14"/>
+    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="115" t="s">
+        <v>552</v>
+      </c>
+      <c r="C174" s="116" t="s">
+        <v>553</v>
+      </c>
+      <c r="D174" s="27"/>
+      <c r="E174" s="116" t="s">
+        <v>554</v>
+      </c>
+      <c r="F174" s="29"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
-        <v>19</v>
+        <v>551</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F175" s="14"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B176" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F176" s="14"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B177" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F177" s="14"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B178" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" s="14"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C179" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14" t="s">
+      <c r="D179" s="14"/>
+      <c r="E179" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F178" s="14" t="s">
+      <c r="F179" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="17" t="s">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C180" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17" t="s">
+      <c r="D180" s="17"/>
+      <c r="E180" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F179" s="17" t="s">
+      <c r="F180" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
         <v>12</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B183" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="10"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="11" t="s">
+      <c r="C183" s="8"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="10"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C184" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D184" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="E184" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F183" s="11" t="s">
+      <c r="F184" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="12" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13" t="s">
+      <c r="C185" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F184" s="14"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="21" t="s">
+      <c r="F185" s="14"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C185" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="23" t="s">
+      <c r="C186" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="F185" s="21"/>
-    </row>
-    <row r="186" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="32" t="s">
+      <c r="F186" s="21"/>
+    </row>
+    <row r="187" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="C186" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22" t="s">
+      <c r="C187" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="22"/>
+      <c r="E187" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F186" s="21"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B187" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F187" s="14"/>
+      <c r="F187" s="21"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B188" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F188" s="14"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F189" s="14"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B190" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F191" s="14"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C192" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14" t="s">
+      <c r="D192" s="14"/>
+      <c r="E192" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F191" s="14" t="s">
+      <c r="F192" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="17" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C193" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17" t="s">
+      <c r="D193" s="17"/>
+      <c r="E193" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F192" s="17" t="s">
+      <c r="F193" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
         <v>13</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="10"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="11" t="s">
+      <c r="C196" s="8"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="10"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C197" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D197" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E196" s="11" t="s">
+      <c r="E197" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F196" s="11" t="s">
+      <c r="F197" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C197" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13" t="s">
+      <c r="C198" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F197" s="14"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" s="22"/>
-      <c r="E198" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="F198" s="21"/>
+      <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B199" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C199" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D199" s="22"/>
       <c r="E199" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F199" s="21"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="F199" s="21"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200" s="14"/>
+      <c r="F200" s="21"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B201" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F201" s="14"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B202" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F202" s="14"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B204" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204" s="14"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C204" s="14" t="s">
+      <c r="C205" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14" t="s">
+      <c r="D205" s="14"/>
+      <c r="E205" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F204" s="14" t="s">
+      <c r="F205" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="17" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C206" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17" t="s">
+      <c r="D206" s="17"/>
+      <c r="E206" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F205" s="17" t="s">
+      <c r="F206" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
         <v>14</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C208" s="8"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
-      <c r="F208" s="10"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="11" t="s">
+      <c r="C209" s="8"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="10"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C210" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D210" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E209" s="11" t="s">
+      <c r="E210" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F209" s="11" t="s">
+      <c r="F210" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="12" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13" t="s">
+      <c r="C211" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F210" s="14"/>
-    </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C211" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D211" s="28"/>
-      <c r="E211" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="F211" s="29"/>
+      <c r="F211" s="14"/>
     </row>
     <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="29" t="s">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="C212" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="28"/>
       <c r="E212" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="F212" s="29"/>
+    </row>
+    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="F212" s="29"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F213" s="14"/>
+      <c r="F213" s="29"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B214" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D214" s="16"/>
       <c r="E214" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F214" s="14"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B215" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D215" s="16"/>
       <c r="E215" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F215" s="14"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B216" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D216" s="16"/>
       <c r="E216" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F216" s="14"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B217" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217" s="14"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C217" s="14" t="s">
+      <c r="C218" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D217" s="14"/>
-      <c r="E217" s="14" t="s">
+      <c r="D218" s="14"/>
+      <c r="E218" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F217" s="14" t="s">
+      <c r="F218" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="17" t="s">
+    <row r="219" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C219" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17" t="s">
+      <c r="D219" s="17"/>
+      <c r="E219" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F218" s="17" t="s">
+      <c r="F219" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="219" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="19"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="6">
+    <row r="220" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="19"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
         <v>15</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B222" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C221" s="8"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="10"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B222" s="11" t="s">
+      <c r="C222" s="8"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="10"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C223" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D222" s="11" t="s">
+      <c r="D223" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E222" s="11" t="s">
+      <c r="E223" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F222" s="11" t="s">
+      <c r="F223" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B223" s="12" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C223" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13" t="s">
+      <c r="C224" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F223" s="13"/>
-    </row>
-    <row r="224" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="33" t="s">
+      <c r="F224" s="13"/>
+    </row>
+    <row r="225" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C224" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33" t="s">
+      <c r="C225" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F224" s="33"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="35" t="s">
+      <c r="F225" s="33"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C225" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="35"/>
-      <c r="E225" s="35" t="s">
+      <c r="C226" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="35"/>
+      <c r="E226" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F225" s="35"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C226" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="15"/>
-      <c r="E226" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F226" s="15"/>
+      <c r="F226" s="35"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B227" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F227" s="15"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B228" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F228" s="15"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B229" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F229" s="15"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B230" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230" s="15"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F230" s="15" t="s">
+      <c r="F231" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B231" s="17" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C232" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17" t="s">
+      <c r="D232" s="17"/>
+      <c r="E232" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F231" s="17" t="s">
+      <c r="F232" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="19"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
         <v>16</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B235" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C234" s="8"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="10"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B235" s="11" t="s">
+      <c r="C235" s="8"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="10"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C236" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D236" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E235" s="11" t="s">
+      <c r="E236" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F235" s="11" t="s">
+      <c r="F236" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="12" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13" t="s">
+      <c r="C237" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F236" s="13"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="27" t="s">
+      <c r="F237" s="13"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="C237" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27" t="s">
+      <c r="C238" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="F237" s="27"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C238" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="15"/>
-      <c r="E238" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="F238" s="15"/>
+      <c r="F238" s="27"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B239" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F239" s="15"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C240" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="F239" s="15" t="s">
+      <c r="F240" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="22" t="s">
+    <row r="241" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C240" s="37" t="s">
+      <c r="C241" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D240" s="22"/>
-      <c r="E240" s="22" t="s">
+      <c r="D241" s="22"/>
+      <c r="E241" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="F240" s="22" t="s">
+      <c r="F241" s="22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B241" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C241" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" s="15"/>
-      <c r="E241" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="F241" s="15"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B242" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C242" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C242" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="15" t="s">
-        <v>18</v>
+        <v>419</v>
       </c>
       <c r="F242" s="15"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B243" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F243" s="15"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B244" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F244" s="15"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B245" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F245" s="15"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B246" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F246" s="15"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F246" s="15" t="s">
+      <c r="F247" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B247" s="17" t="s">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C247" s="17" t="s">
+      <c r="C248" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17" t="s">
+      <c r="D248" s="17"/>
+      <c r="E248" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F247" s="17" t="s">
+      <c r="F248" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
-      <c r="D248" s="19"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="19"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
         <v>17</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C250" s="8"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="9"/>
-      <c r="F250" s="10"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B251" s="11" t="s">
+      <c r="C251" s="8"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="10"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C252" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="D252" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E251" s="11" t="s">
+      <c r="E252" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="F252" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="12" t="s">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C252" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13" t="s">
+      <c r="C253" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F252" s="13"/>
-    </row>
-    <row r="253" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="22" t="s">
+      <c r="F253" s="13"/>
+    </row>
+    <row r="254" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C253" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" s="22"/>
-      <c r="E253" s="22" t="s">
+      <c r="C254" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="22"/>
+      <c r="E254" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="F253" s="22"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B254" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="C254" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="F254" s="39"/>
+      <c r="F254" s="22"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B255" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C255" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="27"/>
       <c r="E255" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F255" s="39"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C256" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27" t="s">
         <v>425</v>
-      </c>
-      <c r="F255" s="15"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B256" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" s="15"/>
-      <c r="E256" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="F256" s="15"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B257" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D257" s="15"/>
       <c r="E257" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F257" s="15"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B258" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F258" s="15"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B259" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F259" s="15"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B260" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260" s="15"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F260" s="15" t="s">
+      <c r="F261" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B261" s="17" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C262" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="17"/>
-      <c r="E261" s="17" t="s">
+      <c r="D262" s="17"/>
+      <c r="E262" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F261" s="17" t="s">
+      <c r="F262" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B262" s="19"/>
-      <c r="C262" s="19"/>
-      <c r="D262" s="19"/>
-      <c r="E262" s="19"/>
-      <c r="F262" s="19"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="19"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="6">
         <v>18</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B265" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C264" s="8"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
-      <c r="F264" s="10"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B265" s="11" t="s">
+      <c r="C265" s="8"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="10"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B266" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C265" s="11" t="s">
+      <c r="C266" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="11" t="s">
+      <c r="D266" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E265" s="11" t="s">
+      <c r="E266" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F265" s="11" t="s">
+      <c r="F266" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B266" s="12" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13" t="s">
+      <c r="C267" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F266" s="13"/>
-    </row>
-    <row r="267" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="32" t="s">
+      <c r="F267" s="13"/>
+    </row>
+    <row r="268" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="C267" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" s="22"/>
-      <c r="E267" s="22" t="s">
+      <c r="C268" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="22"/>
+      <c r="E268" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="F267" s="22"/>
-    </row>
-    <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="27" t="s">
+      <c r="F268" s="22"/>
+    </row>
+    <row r="269" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="C268" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" s="27"/>
-      <c r="E268" s="27" t="s">
+      <c r="C269" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="27"/>
+      <c r="E269" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="F268" s="27"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B269" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C269" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="F269" s="15"/>
+      <c r="F269" s="27"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B270" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C270" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C270" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="15" t="s">
-        <v>18</v>
+        <v>431</v>
       </c>
       <c r="F270" s="15"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B271" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C271" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F271" s="15"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B272" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F272" s="15"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B273" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F273" s="15"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B274" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F274" s="15"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B275" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F274" s="15" t="s">
+      <c r="F275" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B275" s="17" t="s">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C276" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17" t="s">
+      <c r="D276" s="17"/>
+      <c r="E276" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F275" s="17" t="s">
+      <c r="F276" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
-      <c r="D276" s="19"/>
-      <c r="E276" s="19"/>
-      <c r="F276" s="19"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="19"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
         <v>19</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B279" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C278" s="8"/>
-      <c r="D278" s="9"/>
-      <c r="E278" s="9"/>
-      <c r="F278" s="10"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B279" s="11" t="s">
+      <c r="C279" s="8"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="10"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="C280" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="11" t="s">
+      <c r="D280" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E279" s="11" t="s">
+      <c r="E280" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F279" s="11" t="s">
+      <c r="F280" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="12" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B281" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C280" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" s="13"/>
-      <c r="E280" s="13" t="s">
+      <c r="C281" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F280" s="13"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B281" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="C281" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="F281" s="33"/>
+      <c r="F281" s="13"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B282" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C282" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="33"/>
       <c r="E282" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F282" s="33"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B283" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="C283" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C283" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="33"/>
       <c r="E283" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F283" s="33"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B284" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C284" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="F283" s="33"/>
-    </row>
-    <row r="284" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="23" t="s">
+      <c r="F284" s="33"/>
+    </row>
+    <row r="285" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="C284" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" s="23"/>
-      <c r="E284" s="23" t="s">
+      <c r="C285" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="23"/>
+      <c r="E285" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="F284" s="23"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B285" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C285" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" s="33"/>
-      <c r="E285" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F285" s="33"/>
+      <c r="F285" s="23"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B286" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C286" s="33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D286" s="33"/>
       <c r="E286" s="33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F286" s="33"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B287" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C287" s="33" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D287" s="33"/>
       <c r="E287" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F287" s="33"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B288" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D288" s="33"/>
       <c r="E288" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F288" s="33"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B289" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D289" s="33"/>
       <c r="E289" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289" s="33"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B290" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D290" s="33"/>
+      <c r="E290" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F289" s="33" t="s">
+      <c r="F290" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B290" s="17" t="s">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B291" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="C291" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D290" s="17"/>
-      <c r="E290" s="17" t="s">
+      <c r="D291" s="17"/>
+      <c r="E291" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F290" s="17" t="s">
+      <c r="F291" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
-      <c r="D291" s="19"/>
-      <c r="E291" s="19"/>
-      <c r="F291" s="19"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
+      <c r="D292" s="19"/>
+      <c r="E292" s="19"/>
+      <c r="F292" s="19"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
         <v>20</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B294" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C293" s="8"/>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
-      <c r="F293" s="10"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B294" s="11" t="s">
+      <c r="C294" s="8"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="10"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B295" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C294" s="11" t="s">
+      <c r="C295" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D294" s="11" t="s">
+      <c r="D295" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E294" s="11" t="s">
+      <c r="E295" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F294" s="11" t="s">
+      <c r="F295" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B295" s="12" t="s">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B296" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C295" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13" t="s">
+      <c r="C296" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F295" s="13"/>
-    </row>
-    <row r="296" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="23" t="s">
+      <c r="F296" s="13"/>
+    </row>
+    <row r="297" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C296" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D296" s="23"/>
-      <c r="E296" s="23" t="s">
+      <c r="C297" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="23"/>
+      <c r="E297" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="F296" s="23"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B297" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="C297" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" s="28"/>
-      <c r="E297" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="F297" s="28"/>
+      <c r="F297" s="23"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B298" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="C298" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="C298" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D298" s="28"/>
       <c r="E298" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F298" s="28"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B299" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C299" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C299" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="28"/>
       <c r="E299" s="28" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="F299" s="28"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B300" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C300" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D300" s="28"/>
       <c r="E300" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F300" s="28"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B301" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C301" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D301" s="28"/>
       <c r="E301" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F301" s="28"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B302" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C302" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D302" s="28"/>
       <c r="E302" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F302" s="28"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B303" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C303" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D303" s="28"/>
       <c r="E303" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303" s="28"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B304" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D304" s="28"/>
+      <c r="E304" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F303" s="28" t="s">
+      <c r="F304" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B304" s="17" t="s">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B305" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C305" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D304" s="17"/>
-      <c r="E304" s="17" t="s">
+      <c r="D305" s="17"/>
+      <c r="E305" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F304" s="17" t="s">
+      <c r="F305" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B306" s="19"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
+      <c r="E306" s="19"/>
+      <c r="F306" s="19"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
         <v>21</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B308" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C307" s="8"/>
-      <c r="D307" s="9"/>
-      <c r="E307" s="9"/>
-      <c r="F307" s="10"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B308" s="11" t="s">
+      <c r="C308" s="8"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="10"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B309" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C308" s="11" t="s">
+      <c r="C309" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="11" t="s">
+      <c r="D309" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E308" s="11" t="s">
+      <c r="E309" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F308" s="11" t="s">
+      <c r="F309" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B309" s="12" t="s">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B310" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C309" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13" t="s">
+      <c r="C310" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F309" s="14"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B310" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="C310" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" s="16"/>
-      <c r="E310" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F310" s="16"/>
+      <c r="F310" s="14"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B311" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C311" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D311" s="16"/>
       <c r="E311" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F311" s="16"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B312" s="16" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="C312" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="16"/>
       <c r="E312" s="16" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="F312" s="16"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B313" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D313" s="16"/>
       <c r="E313" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F313" s="16"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B314" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F314" s="16"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B315" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D315" s="16"/>
       <c r="E315" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F315" s="16"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B316" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D316" s="16"/>
       <c r="E316" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F316" s="16"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B317" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D317" s="16"/>
+      <c r="E317" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F316" s="16" t="s">
+      <c r="F317" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B317" s="17" t="s">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B318" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C318" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D317" s="17"/>
-      <c r="E317" s="17" t="s">
+      <c r="D318" s="17"/>
+      <c r="E318" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F317" s="17" t="s">
+      <c r="F318" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
-      <c r="D318" s="19"/>
-      <c r="E318" s="19"/>
-      <c r="F318" s="19"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B319" s="19"/>
+      <c r="C319" s="19"/>
+      <c r="D319" s="19"/>
+      <c r="E319" s="19"/>
+      <c r="F319" s="19"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
         <v>22</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B321" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C320" s="8"/>
-      <c r="D320" s="9"/>
-      <c r="E320" s="9"/>
-      <c r="F320" s="10"/>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B321" s="11" t="s">
+      <c r="C321" s="8"/>
+      <c r="D321" s="9"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="10"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B322" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C321" s="11" t="s">
+      <c r="C322" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D321" s="11" t="s">
+      <c r="D322" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E321" s="11" t="s">
+      <c r="E322" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F321" s="11" t="s">
+      <c r="F322" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B322" s="12" t="s">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B323" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C322" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D322" s="13"/>
-      <c r="E322" s="13" t="s">
+      <c r="C323" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="13"/>
+      <c r="E323" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F322" s="13"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B323" s="40" t="s">
+      <c r="F323" s="13"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B324" s="40" t="s">
         <v>58</v>
-      </c>
-      <c r="C323" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D323" s="40"/>
-      <c r="E323" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F323" s="40"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B324" s="40" t="s">
-        <v>60</v>
       </c>
       <c r="C324" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D324" s="40"/>
       <c r="E324" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F324" s="40"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B325" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C325" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="40"/>
+      <c r="E325" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F324" s="40"/>
-    </row>
-    <row r="325" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="23" t="s">
+      <c r="F325" s="40"/>
+    </row>
+    <row r="326" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="23" t="s">
         <v>450</v>
-      </c>
-      <c r="C325" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D325" s="23"/>
-      <c r="E325" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="F325" s="23"/>
-    </row>
-    <row r="326" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="23" t="s">
-        <v>452</v>
       </c>
       <c r="C326" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D326" s="23"/>
       <c r="E326" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C327" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D327" s="23"/>
       <c r="E327" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="F327" s="23"/>
+    </row>
+    <row r="328" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C328" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="F327" s="23"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B328" s="40" t="s">
+      <c r="F328" s="23"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B329" s="40" t="s">
         <v>456</v>
-      </c>
-      <c r="C328" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D328" s="40"/>
-      <c r="E328" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F328" s="40"/>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B329" s="40" t="s">
-        <v>457</v>
       </c>
       <c r="C329" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D329" s="40"/>
       <c r="E329" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F329" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F329" s="40"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B330" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C330" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="C330" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D330" s="40"/>
       <c r="E330" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F330" s="40"/>
-    </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F330" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B331" s="40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C331" s="40" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D331" s="40"/>
       <c r="E331" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F331" s="40"/>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B332" s="40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C332" s="40" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D332" s="40"/>
       <c r="E332" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F332" s="40"/>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B333" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C333" s="40" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D333" s="40"/>
       <c r="E333" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F333" s="40"/>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B334" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C334" s="40" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D334" s="40"/>
       <c r="E334" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334" s="40"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B335" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335" s="40"/>
+      <c r="E335" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F334" s="40" t="s">
+      <c r="F335" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B335" s="17" t="s">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B336" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C335" s="17" t="s">
+      <c r="C336" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D335" s="17"/>
-      <c r="E335" s="17" t="s">
+      <c r="D336" s="17"/>
+      <c r="E336" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F335" s="17" t="s">
+      <c r="F336" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B336" s="19"/>
-      <c r="C336" s="19"/>
-      <c r="D336" s="19"/>
-      <c r="E336" s="19"/>
-      <c r="F336" s="19"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B337" s="19"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="19"/>
+      <c r="E337" s="19"/>
+      <c r="F337" s="19"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
         <v>23</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B339" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C338" s="8"/>
-      <c r="D338" s="9"/>
-      <c r="E338" s="9"/>
-      <c r="F338" s="10"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B339" s="11" t="s">
+      <c r="C339" s="8"/>
+      <c r="D339" s="9"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="10"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B340" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C339" s="11" t="s">
+      <c r="C340" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D339" s="11" t="s">
+      <c r="D340" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E339" s="11" t="s">
+      <c r="E340" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F339" s="11" t="s">
+      <c r="F340" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B340" s="12" t="s">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B341" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C340" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D340" s="13"/>
-      <c r="E340" s="13" t="s">
+      <c r="C341" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F340" s="13"/>
-    </row>
-    <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C341" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D341" s="23"/>
-      <c r="E341" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="F341" s="23"/>
+      <c r="F341" s="13"/>
     </row>
     <row r="342" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="23" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="C342" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D342" s="23"/>
       <c r="E342" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F342" s="23"/>
+    </row>
+    <row r="343" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C343" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="23"/>
+      <c r="E343" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="F342" s="23"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B343" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C343" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D343" s="28"/>
-      <c r="E343" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F343" s="28"/>
+      <c r="F343" s="23"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B344" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C344" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D344" s="28"/>
       <c r="E344" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F344" s="28"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B345" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C345" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D345" s="28"/>
       <c r="E345" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F345" s="28"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B346" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C346" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D346" s="28"/>
       <c r="E346" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F346" s="28"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B347" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C347" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D347" s="28"/>
       <c r="E347" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" s="28"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B348" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C348" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F347" s="28" t="s">
+      <c r="F348" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B348" s="17" t="s">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B349" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C348" s="17" t="s">
+      <c r="C349" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D348" s="17"/>
-      <c r="E348" s="17" t="s">
+      <c r="D349" s="17"/>
+      <c r="E349" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F348" s="17" t="s">
+      <c r="F349" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
-      <c r="D349" s="19"/>
-      <c r="E349" s="19"/>
-      <c r="F349" s="19"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="19"/>
+      <c r="E350" s="19"/>
+      <c r="F350" s="19"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
         <v>24</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B352" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C351" s="8"/>
-      <c r="D351" s="9"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="10"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B352" s="11" t="s">
+      <c r="C352" s="8"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="10"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B353" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C352" s="11" t="s">
+      <c r="C353" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D352" s="11" t="s">
+      <c r="D353" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E352" s="11" t="s">
+      <c r="E353" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F352" s="11" t="s">
+      <c r="F353" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B353" s="12" t="s">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B354" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C353" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13" t="s">
+      <c r="C354" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F353" s="13"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B354" s="23" t="s">
+      <c r="F354" s="13"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B355" s="23" t="s">
         <v>459</v>
-      </c>
-      <c r="C354" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D354" s="23"/>
-      <c r="E354" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="F354" s="23"/>
-    </row>
-    <row r="355" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="23" t="s">
-        <v>462</v>
       </c>
       <c r="C355" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D355" s="23"/>
       <c r="E355" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F355" s="23"/>
+    </row>
+    <row r="356" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C356" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="23"/>
+      <c r="E356" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="F355" s="23"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B356" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C356" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D356" s="16"/>
-      <c r="E356" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F356" s="16"/>
+      <c r="F356" s="23"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B357" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D357" s="16"/>
       <c r="E357" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F357" s="16"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B358" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D358" s="16"/>
       <c r="E358" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F358" s="16"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B359" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D359" s="16"/>
       <c r="E359" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F359" s="16"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B360" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D360" s="16"/>
       <c r="E360" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F360" s="16"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B361" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D361" s="16"/>
+      <c r="E361" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F360" s="16" t="s">
+      <c r="F361" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B361" s="17" t="s">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B362" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C361" s="17" t="s">
+      <c r="C362" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D361" s="17"/>
-      <c r="E361" s="17" t="s">
+      <c r="D362" s="17"/>
+      <c r="E362" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F361" s="17" t="s">
+      <c r="F362" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B362" s="19"/>
-      <c r="C362" s="19"/>
-      <c r="D362" s="19"/>
-      <c r="E362" s="19"/>
-      <c r="F362" s="19"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B363" s="19"/>
+      <c r="C363" s="19"/>
+      <c r="D363" s="19"/>
+      <c r="E363" s="19"/>
+      <c r="F363" s="19"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="6">
         <v>25</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B365" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C364" s="8"/>
-      <c r="D364" s="9"/>
-      <c r="E364" s="9"/>
-      <c r="F364" s="10"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B365" s="11" t="s">
+      <c r="C365" s="8"/>
+      <c r="D365" s="9"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="10"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B366" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C365" s="11" t="s">
+      <c r="C366" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D365" s="11" t="s">
+      <c r="D366" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E365" s="11" t="s">
+      <c r="E366" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F365" s="11" t="s">
+      <c r="F366" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B366" s="12" t="s">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B367" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C366" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D366" s="13"/>
-      <c r="E366" s="13" t="s">
+      <c r="C367" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="13"/>
+      <c r="E367" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F366" s="13"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B367" s="33" t="s">
+      <c r="F367" s="13"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B368" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C367" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D367" s="33"/>
-      <c r="E367" s="33" t="s">
+      <c r="C368" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="33"/>
+      <c r="E368" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F367" s="33"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B368" s="16" t="s">
+      <c r="F368" s="33"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B369" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C368" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D368" s="16"/>
-      <c r="E368" s="16" t="s">
+      <c r="C369" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="16"/>
+      <c r="E369" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F368" s="16"/>
-    </row>
-    <row r="369" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="C369" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D369" s="23"/>
-      <c r="E369" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F369" s="23"/>
+      <c r="F369" s="16"/>
     </row>
     <row r="370" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="23" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="C370" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D370" s="23"/>
       <c r="E370" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F370" s="23"/>
+    </row>
+    <row r="371" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C371" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="F370" s="23"/>
-    </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B371" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C371" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371" s="16"/>
-      <c r="E371" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F371" s="16"/>
+      <c r="F371" s="23"/>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C372" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C372" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D372" s="16"/>
       <c r="E372" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F372" s="16"/>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C373" s="16" t="s">
-        <v>27</v>
+        <v>93</v>
+      </c>
+      <c r="C373" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="D373" s="16"/>
       <c r="E373" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F373" s="16"/>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D374" s="16"/>
       <c r="E374" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F374" s="16"/>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C375" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D375" s="16"/>
       <c r="E375" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F375" s="16"/>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D376" s="16"/>
       <c r="E376" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F376" s="16"/>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D377" s="16"/>
       <c r="E377" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F377" s="16"/>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D378" s="16"/>
       <c r="E378" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F378" s="16"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D379" s="16"/>
       <c r="E379" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F379" s="16"/>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D380" s="16"/>
       <c r="E380" s="16" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="F380" s="16"/>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D381" s="16"/>
       <c r="E381" s="16" t="s">
-        <v>112</v>
+        <v>464</v>
       </c>
       <c r="F381" s="16"/>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D382" s="16"/>
-      <c r="E382" s="28" t="s">
-        <v>465</v>
+      <c r="E382" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="F382" s="16"/>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C383" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D383" s="16"/>
-      <c r="E383" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F383" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="E383" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F383" s="16"/>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="16" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D384" s="16"/>
       <c r="E384" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F384" s="16"/>
+        <v>116</v>
+      </c>
+      <c r="F384" s="16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B385" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D385" s="16"/>
       <c r="E385" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F385" s="16"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B386" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D386" s="16"/>
       <c r="E386" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F386" s="16"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B387" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D387" s="16"/>
       <c r="E387" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F387" s="16"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B388" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D388" s="16"/>
       <c r="E388" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F388" s="16"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B389" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C389" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D389" s="16"/>
+      <c r="E389" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F388" s="16" t="s">
+      <c r="F389" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B389" s="17" t="s">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B390" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C389" s="17" t="s">
+      <c r="C390" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D389" s="17"/>
-      <c r="E389" s="17" t="s">
+      <c r="D390" s="17"/>
+      <c r="E390" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F389" s="17" t="s">
+      <c r="F390" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B390" s="19"/>
-      <c r="C390" s="19"/>
-      <c r="D390" s="19"/>
-      <c r="E390" s="19"/>
-      <c r="F390" s="19"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B391" s="19"/>
+      <c r="C391" s="19"/>
+      <c r="D391" s="19"/>
+      <c r="E391" s="19"/>
+      <c r="F391" s="19"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="6">
         <v>26</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B393" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C392" s="8"/>
-      <c r="D392" s="9"/>
-      <c r="E392" s="9"/>
-      <c r="F392" s="10"/>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B393" s="11" t="s">
+      <c r="C393" s="8"/>
+      <c r="D393" s="9"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="10"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B394" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C393" s="11" t="s">
+      <c r="C394" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D393" s="11" t="s">
+      <c r="D394" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E393" s="11" t="s">
+      <c r="E394" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F393" s="11" t="s">
+      <c r="F394" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B394" s="12" t="s">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B395" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C394" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D394" s="13"/>
-      <c r="E394" s="13" t="s">
+      <c r="C395" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="13"/>
+      <c r="E395" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F394" s="13"/>
-    </row>
-    <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="32" t="s">
+      <c r="F395" s="13"/>
+    </row>
+    <row r="396" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="C395" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D395" s="22"/>
-      <c r="E395" s="22" t="s">
+      <c r="C396" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="22"/>
+      <c r="E396" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="F395" s="22"/>
-    </row>
-    <row r="396" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="C396" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D396" s="23"/>
-      <c r="E396" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="F396" s="23"/>
+      <c r="F396" s="22"/>
     </row>
     <row r="397" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B397" s="23" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="C397" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="23"/>
       <c r="E397" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="F397" s="23"/>
+    </row>
+    <row r="398" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="C398" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" s="23"/>
+      <c r="E398" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F397" s="23" t="s">
+      <c r="F398" s="23" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="398" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="28" t="s">
+    <row r="399" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="C398" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D398" s="28"/>
-      <c r="E398" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="F398" s="28" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B399" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C399" s="28" t="s">
+      <c r="C399" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="28"/>
       <c r="E399" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F399" s="28"/>
+        <v>472</v>
+      </c>
+      <c r="F399" s="28" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B400" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C400" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D400" s="28"/>
       <c r="E400" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F400" s="28"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B401" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C401" s="28" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D401" s="28"/>
       <c r="E401" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F401" s="28"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B402" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C402" s="28" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D402" s="28"/>
       <c r="E402" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F402" s="28"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B403" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C403" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D403" s="28"/>
       <c r="E403" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" s="28"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B404" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C404" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D404" s="28"/>
+      <c r="E404" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F403" s="28" t="s">
+      <c r="F404" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B404" s="17" t="s">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B405" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C404" s="17" t="s">
+      <c r="C405" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D404" s="17"/>
-      <c r="E404" s="17" t="s">
+      <c r="D405" s="17"/>
+      <c r="E405" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F404" s="17" t="s">
+      <c r="F405" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B405" s="19"/>
-      <c r="C405" s="19"/>
-      <c r="D405" s="19"/>
-      <c r="E405" s="19"/>
-      <c r="F405" s="19"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B406" s="19"/>
+      <c r="C406" s="19"/>
+      <c r="D406" s="19"/>
+      <c r="E406" s="19"/>
+      <c r="F406" s="19"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="6">
         <v>27</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B408" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C407" s="8"/>
-      <c r="D407" s="9"/>
-      <c r="E407" s="9"/>
-      <c r="F407" s="10"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B408" s="11" t="s">
+      <c r="C408" s="8"/>
+      <c r="D408" s="9"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="10"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B409" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C408" s="11" t="s">
+      <c r="C409" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D408" s="11" t="s">
+      <c r="D409" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E408" s="11" t="s">
+      <c r="E409" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F408" s="11" t="s">
+      <c r="F409" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B409" s="12" t="s">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B410" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C409" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D409" s="13"/>
-      <c r="E409" s="13" t="s">
+      <c r="C410" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D410" s="13"/>
+      <c r="E410" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F409" s="14"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B410" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C410" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D410" s="28"/>
-      <c r="E410" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F410" s="33"/>
+      <c r="F410" s="14"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B411" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C411" s="33" t="s">
-        <v>7</v>
+        <v>474</v>
+      </c>
+      <c r="C411" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F411" s="42"/>
+        <v>189</v>
+      </c>
+      <c r="F411" s="33"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B412" s="16" t="s">
-        <v>475</v>
+        <v>194</v>
       </c>
       <c r="C412" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D412" s="28"/>
-      <c r="E412" s="43" t="s">
-        <v>199</v>
+      <c r="E412" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="F412" s="42"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B413" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C413" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D413" s="28"/>
       <c r="E413" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F413" s="42"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B414" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C414" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414" s="28"/>
+      <c r="E414" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F413" s="44"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B414" s="33" t="s">
+      <c r="F414" s="44"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B415" s="33" t="s">
         <v>477</v>
-      </c>
-      <c r="C414" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D414" s="28"/>
-      <c r="E414" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="F414" s="33"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B415" s="45" t="s">
-        <v>478</v>
       </c>
       <c r="C415" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D415" s="28"/>
       <c r="E415" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F415" s="33"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B416" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="C416" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D416" s="28"/>
+      <c r="E416" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F415" s="33"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B416" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C416" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D416" s="28"/>
-      <c r="E416" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="F416" s="16"/>
+      <c r="F416" s="33"/>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C417" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D417" s="28"/>
-      <c r="E417" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F417" s="33"/>
+      <c r="E417" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F417" s="16"/>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C418" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D418" s="28"/>
+      <c r="E418" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F418" s="33"/>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B419" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="C418" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D418" s="28"/>
-      <c r="E418" s="43" t="s">
+      <c r="C419" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" s="28"/>
+      <c r="E419" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F418" s="16"/>
-    </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B419" s="24" t="s">
+      <c r="F419" s="16"/>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B420" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="C419" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D419" s="21"/>
-      <c r="E419" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="F419" s="21"/>
-    </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B420" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="C420" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D420" s="21"/>
       <c r="E420" s="24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F420" s="21"/>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B421" s="21" t="s">
-        <v>333</v>
+      <c r="B421" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="C421" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D421" s="21"/>
       <c r="E421" s="24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F421" s="21"/>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C422" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D422" s="21"/>
       <c r="E422" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F422" s="21"/>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B423" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C423" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="21"/>
+      <c r="E423" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="F422" s="21"/>
-    </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B423" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C423" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D423" s="28"/>
-      <c r="E423" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F423" s="16"/>
+      <c r="F423" s="21"/>
     </row>
     <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C424" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D424" s="16"/>
+      <c r="D424" s="28"/>
       <c r="E424" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F424" s="16"/>
     </row>
     <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C425" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D425" s="28"/>
+      <c r="D425" s="16"/>
       <c r="E425" s="16" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="F425" s="16"/>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="16" t="s">
-        <v>231</v>
+        <v>484</v>
       </c>
       <c r="C426" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D426" s="28"/>
       <c r="E426" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F426" s="16"/>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B427" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C427" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" s="28"/>
+      <c r="E427" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F426" s="16"/>
-    </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B427" s="21" t="s">
+      <c r="F427" s="16"/>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B428" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C427" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D427" s="23"/>
-      <c r="E427" s="23" t="s">
+      <c r="C428" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" s="23"/>
+      <c r="E428" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F427" s="21"/>
-    </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B428" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C428" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D428" s="28"/>
-      <c r="E428" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F428" s="33"/>
+      <c r="F428" s="21"/>
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C429" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" s="28"/>
+      <c r="E429" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F429" s="33"/>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B430" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C429" s="33" t="s">
+      <c r="C430" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="D429" s="28"/>
-      <c r="E429" s="33" t="s">
+      <c r="D430" s="28"/>
+      <c r="E430" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F429" s="16" t="s">
+      <c r="F430" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B430" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C430" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D430" s="16"/>
-      <c r="E430" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F430" s="16"/>
     </row>
     <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D431" s="16"/>
       <c r="E431" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F431" s="16"/>
     </row>
     <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D432" s="16"/>
       <c r="E432" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F432" s="16"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B433" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D433" s="16"/>
       <c r="E433" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F433" s="16"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B434" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D434" s="16"/>
       <c r="E434" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F434" s="16"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B435" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C435" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D435" s="16"/>
+      <c r="E435" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F434" s="16" t="s">
+      <c r="F435" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B435" s="17" t="s">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B436" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C435" s="17" t="s">
+      <c r="C436" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D435" s="17"/>
-      <c r="E435" s="17" t="s">
+      <c r="D436" s="17"/>
+      <c r="E436" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F435" s="17" t="s">
+      <c r="F436" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B436" s="19"/>
-      <c r="C436" s="19"/>
-      <c r="D436" s="19"/>
-      <c r="E436" s="19"/>
-      <c r="F436" s="19"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B437" s="19"/>
+      <c r="C437" s="19"/>
+      <c r="D437" s="19"/>
+      <c r="E437" s="19"/>
+      <c r="F437" s="19"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="6">
         <v>28</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B439" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C438" s="8"/>
-      <c r="D438" s="9"/>
-      <c r="E438" s="9"/>
-      <c r="F438" s="10"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B439" s="11" t="s">
+      <c r="C439" s="8"/>
+      <c r="D439" s="9"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="10"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B440" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C439" s="11" t="s">
+      <c r="C440" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D439" s="11" t="s">
+      <c r="D440" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E439" s="11" t="s">
+      <c r="E440" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F439" s="11" t="s">
+      <c r="F440" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B440" s="12" t="s">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B441" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C440" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13" t="s">
+      <c r="C441" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441" s="13"/>
+      <c r="E441" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F440" s="14"/>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B441" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C441" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D441" s="28"/>
-      <c r="E441" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="F441" s="33"/>
+      <c r="F441" s="14"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B442" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C442" s="33" t="s">
-        <v>7</v>
+        <v>485</v>
+      </c>
+      <c r="C442" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F442" s="42"/>
+        <v>240</v>
+      </c>
+      <c r="F442" s="33"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B443" s="16" t="s">
-        <v>486</v>
+        <v>194</v>
       </c>
       <c r="C443" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D443" s="28"/>
-      <c r="E443" s="43" t="s">
-        <v>199</v>
+      <c r="E443" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="F443" s="42"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B444" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C444" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D444" s="28"/>
       <c r="E444" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F444" s="42"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B445" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C445" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445" s="28"/>
+      <c r="E445" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F444" s="44"/>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B445" s="33" t="s">
+      <c r="F445" s="44"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B446" s="33" t="s">
         <v>488</v>
-      </c>
-      <c r="C445" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D445" s="28"/>
-      <c r="E445" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="F445" s="33"/>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B446" s="45" t="s">
-        <v>489</v>
       </c>
       <c r="C446" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D446" s="28"/>
       <c r="E446" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="F446" s="33"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B447" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="C447" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" s="28"/>
+      <c r="E447" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F446" s="33"/>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B447" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C447" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D447" s="28"/>
-      <c r="E447" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="F447" s="16"/>
+      <c r="F447" s="33"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B448" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C448" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D448" s="28"/>
-      <c r="E448" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F448" s="33"/>
+      <c r="E448" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F448" s="16"/>
     </row>
     <row r="449" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B449" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C449" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" s="28"/>
+      <c r="E449" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F449" s="33"/>
+    </row>
+    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B450" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="C449" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D449" s="28"/>
-      <c r="E449" s="43" t="s">
+      <c r="C450" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="28"/>
+      <c r="E450" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F449" s="16"/>
-    </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B450" s="46" t="s">
+      <c r="F450" s="16"/>
+    </row>
+    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B451" s="46" t="s">
         <v>331</v>
-      </c>
-      <c r="C450" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D450" s="23"/>
-      <c r="E450" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="F450" s="23"/>
-    </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B451" s="23" t="s">
-        <v>332</v>
       </c>
       <c r="C451" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D451" s="23"/>
       <c r="E451" s="46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F451" s="23"/>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B452" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C452" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D452" s="23"/>
       <c r="E452" s="46" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F452" s="23"/>
     </row>
     <row r="453" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B453" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C453" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D453" s="23"/>
       <c r="E453" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F453" s="23"/>
+    </row>
+    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B454" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C454" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" s="23"/>
+      <c r="E454" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="F453" s="23"/>
-    </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B454" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C454" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D454" s="28"/>
-      <c r="E454" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F454" s="16"/>
+      <c r="F454" s="23"/>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B455" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C455" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D455" s="16"/>
+      <c r="D455" s="28"/>
       <c r="E455" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F455" s="16"/>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B456" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C456" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D456" s="28"/>
+      <c r="D456" s="16"/>
       <c r="E456" s="16" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="F456" s="16"/>
     </row>
     <row r="457" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B457" s="16" t="s">
-        <v>231</v>
+        <v>495</v>
       </c>
       <c r="C457" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D457" s="28"/>
       <c r="E457" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F457" s="16"/>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B458" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C458" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" s="28"/>
+      <c r="E458" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F457" s="16"/>
-    </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B458" s="23" t="s">
+      <c r="F458" s="16"/>
+    </row>
+    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B459" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C458" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D458" s="23"/>
-      <c r="E458" s="23" t="s">
+      <c r="C459" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" s="23"/>
+      <c r="E459" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F458" s="23"/>
-    </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B459" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C459" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D459" s="28"/>
-      <c r="E459" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F459" s="33"/>
+      <c r="F459" s="23"/>
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B460" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C460" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" s="28"/>
+      <c r="E460" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F460" s="33"/>
+    </row>
+    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B461" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C460" s="33" t="s">
+      <c r="C461" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="D460" s="28"/>
-      <c r="E460" s="33" t="s">
+      <c r="D461" s="28"/>
+      <c r="E461" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F460" s="16" t="s">
+      <c r="F461" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B461" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C461" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D461" s="16"/>
-      <c r="E461" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F461" s="16"/>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B462" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D462" s="16"/>
       <c r="E462" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F462" s="16"/>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B463" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D463" s="16"/>
       <c r="E463" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F463" s="16"/>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B464" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C464" s="16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D464" s="16"/>
       <c r="E464" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F464" s="16"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B465" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C465" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D465" s="16"/>
       <c r="E465" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F465" s="16"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B466" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C466" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D466" s="16"/>
+      <c r="E466" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F465" s="16" t="s">
+      <c r="F466" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B466" s="17" t="s">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B467" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C466" s="17" t="s">
+      <c r="C467" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D466" s="17"/>
-      <c r="E466" s="17" t="s">
+      <c r="D467" s="17"/>
+      <c r="E467" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F466" s="17" t="s">
+      <c r="F467" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B467" s="19"/>
-      <c r="C467" s="19"/>
-      <c r="D467" s="19"/>
-      <c r="E467" s="19"/>
-      <c r="F467" s="19"/>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B468" s="19"/>
+      <c r="C468" s="19"/>
+      <c r="D468" s="19"/>
+      <c r="E468" s="19"/>
+      <c r="F468" s="19"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="6">
         <v>29</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B470" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C469" s="8"/>
-      <c r="D469" s="9"/>
-      <c r="E469" s="9"/>
-      <c r="F469" s="10"/>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B470" s="11" t="s">
+      <c r="C470" s="8"/>
+      <c r="D470" s="9"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="10"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B471" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C470" s="11" t="s">
+      <c r="C471" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D470" s="11" t="s">
+      <c r="D471" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E470" s="11" t="s">
+      <c r="E471" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F470" s="11" t="s">
+      <c r="F471" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B471" s="12" t="s">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B472" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C471" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D471" s="13"/>
-      <c r="E471" s="13" t="s">
+      <c r="C472" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" s="13"/>
+      <c r="E472" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F471" s="14"/>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B472" s="16" t="s">
+      <c r="F472" s="14"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B473" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C472" s="16" t="s">
+      <c r="C473" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D472" s="16"/>
-      <c r="E472" s="43" t="s">
+      <c r="D473" s="16"/>
+      <c r="E473" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F472" s="42"/>
-    </row>
-    <row r="473" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="23" t="s">
+      <c r="F473" s="42"/>
+    </row>
+    <row r="474" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C473" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D473" s="23"/>
-      <c r="E473" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="F473" s="23"/>
-    </row>
-    <row r="474" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C474" s="47" t="s">
+      <c r="C474" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D474" s="23"/>
       <c r="E474" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F474" s="23"/>
+    </row>
+    <row r="475" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C475" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D475" s="23"/>
+      <c r="E475" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F474" s="23"/>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B475" s="14" t="s">
+      <c r="F475" s="23"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B476" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C475" s="15" t="s">
+      <c r="C476" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D475" s="14"/>
-      <c r="E475" s="48" t="s">
+      <c r="D476" s="14"/>
+      <c r="E476" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F475" s="14"/>
-    </row>
-    <row r="476" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="23" t="s">
+      <c r="F476" s="14"/>
+    </row>
+    <row r="477" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C476" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D476" s="23"/>
-      <c r="E476" s="23" t="s">
+      <c r="C477" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D477" s="23"/>
+      <c r="E477" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F476" s="23"/>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B477" s="14" t="s">
+      <c r="F477" s="23"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B478" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C477" s="15" t="s">
+      <c r="C478" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D477" s="14"/>
-      <c r="E477" s="48" t="s">
+      <c r="D478" s="14"/>
+      <c r="E478" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F477" s="14"/>
-    </row>
-    <row r="478" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="47" t="s">
+      <c r="F478" s="14"/>
+    </row>
+    <row r="479" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C478" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D478" s="23"/>
-      <c r="E478" s="23" t="s">
+      <c r="C479" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479" s="23"/>
+      <c r="E479" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F478" s="23"/>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B479" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C479" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D479" s="16"/>
-      <c r="E479" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F479" s="14"/>
+      <c r="F479" s="23"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B480" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C480" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D480" s="16"/>
       <c r="E480" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F480" s="14"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B481" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C481" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D481" s="16"/>
       <c r="E481" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F481" s="14"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B482" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D482" s="16"/>
       <c r="E482" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F482" s="14"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B483" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C483" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D483" s="16"/>
+      <c r="E483" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F483" s="14"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B484" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C483" s="14" t="s">
+      <c r="C484" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D483" s="14"/>
-      <c r="E483" s="14" t="s">
+      <c r="D484" s="14"/>
+      <c r="E484" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F483" s="14" t="s">
+      <c r="F484" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B484" s="17" t="s">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B485" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C484" s="17" t="s">
+      <c r="C485" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D484" s="17"/>
-      <c r="E484" s="17" t="s">
+      <c r="D485" s="17"/>
+      <c r="E485" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F484" s="17" t="s">
+      <c r="F485" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B485" s="19"/>
-      <c r="C485" s="19"/>
-      <c r="D485" s="19"/>
-      <c r="E485" s="19"/>
-      <c r="F485" s="19"/>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B486" s="19"/>
+      <c r="C486" s="19"/>
+      <c r="D486" s="19"/>
+      <c r="E486" s="19"/>
+      <c r="F486" s="19"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="6">
         <v>30</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B488" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C487" s="8"/>
-      <c r="D487" s="9"/>
-      <c r="E487" s="9"/>
-      <c r="F487" s="10"/>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B488" s="11" t="s">
+      <c r="C488" s="8"/>
+      <c r="D488" s="9"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="10"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B489" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C488" s="11" t="s">
+      <c r="C489" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D488" s="11" t="s">
+      <c r="D489" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E488" s="11" t="s">
+      <c r="E489" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F488" s="11" t="s">
+      <c r="F489" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B489" s="12" t="s">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B490" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C489" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D489" s="13"/>
-      <c r="E489" s="13" t="s">
+      <c r="C490" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490" s="13"/>
+      <c r="E490" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F489" s="14"/>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B490" s="14" t="s">
+      <c r="F490" s="14"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B491" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="C490" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D490" s="14"/>
-      <c r="E490" s="48" t="s">
+      <c r="C491" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491" s="14"/>
+      <c r="E491" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F490" s="49"/>
-    </row>
-    <row r="491" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="23" t="s">
+      <c r="F491" s="49"/>
+    </row>
+    <row r="492" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C491" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D491" s="23"/>
-      <c r="E491" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F491" s="23"/>
-    </row>
-    <row r="492" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C492" s="47" t="s">
+      <c r="C492" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D492" s="23"/>
       <c r="E492" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F492" s="23"/>
+    </row>
+    <row r="493" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C493" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D493" s="23"/>
+      <c r="E493" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F492" s="23"/>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B493" s="14" t="s">
+      <c r="F493" s="23"/>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B494" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C493" s="15" t="s">
+      <c r="C494" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D493" s="14"/>
-      <c r="E493" s="48" t="s">
+      <c r="D494" s="14"/>
+      <c r="E494" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F493" s="14"/>
-    </row>
-    <row r="494" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B494" s="23" t="s">
+      <c r="F494" s="14"/>
+    </row>
+    <row r="495" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C494" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D494" s="23"/>
-      <c r="E494" s="23" t="s">
+      <c r="C495" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D495" s="23"/>
+      <c r="E495" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F494" s="23"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B495" s="14" t="s">
+      <c r="F495" s="23"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B496" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C495" s="15" t="s">
+      <c r="C496" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D495" s="14"/>
-      <c r="E495" s="48" t="s">
+      <c r="D496" s="14"/>
+      <c r="E496" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F495" s="14"/>
-    </row>
-    <row r="496" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="47" t="s">
+      <c r="F496" s="14"/>
+    </row>
+    <row r="497" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C496" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D496" s="23"/>
-      <c r="E496" s="23" t="s">
+      <c r="C497" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D497" s="23"/>
+      <c r="E497" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F496" s="23"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B497" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C497" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D497" s="16"/>
-      <c r="E497" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F497" s="14"/>
+      <c r="F497" s="23"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B498" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C498" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D498" s="16"/>
       <c r="E498" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F498" s="14"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B499" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D499" s="16"/>
       <c r="E499" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F499" s="14"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B500" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D500" s="16"/>
       <c r="E500" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F500" s="14"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B501" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C501" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D501" s="16"/>
+      <c r="E501" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F501" s="14"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B502" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C501" s="14" t="s">
+      <c r="C502" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D501" s="14"/>
-      <c r="E501" s="14" t="s">
+      <c r="D502" s="14"/>
+      <c r="E502" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F501" s="14" t="s">
+      <c r="F502" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B502" s="17" t="s">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B503" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C502" s="17" t="s">
+      <c r="C503" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D502" s="17"/>
-      <c r="E502" s="17" t="s">
+      <c r="D503" s="17"/>
+      <c r="E503" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F502" s="17" t="s">
+      <c r="F503" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B503" s="19"/>
-      <c r="C503" s="19"/>
-      <c r="D503" s="19"/>
-      <c r="E503" s="19"/>
-      <c r="F503" s="19"/>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B504" s="19"/>
+      <c r="C504" s="19"/>
+      <c r="D504" s="19"/>
+      <c r="E504" s="19"/>
+      <c r="F504" s="19"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="6">
         <v>31</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="B506" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C505" s="8"/>
-      <c r="D505" s="9"/>
-      <c r="E505" s="9"/>
-      <c r="F505" s="10"/>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B506" s="11" t="s">
+      <c r="C506" s="8"/>
+      <c r="D506" s="9"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="10"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B507" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C506" s="11" t="s">
+      <c r="C507" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D506" s="11" t="s">
+      <c r="D507" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E506" s="11" t="s">
+      <c r="E507" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F506" s="11" t="s">
+      <c r="F507" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B507" s="12" t="s">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B508" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C507" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D507" s="13"/>
-      <c r="E507" s="13" t="s">
+      <c r="C508" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D508" s="13"/>
+      <c r="E508" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F507" s="14"/>
-    </row>
-    <row r="508" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B508" s="16" t="s">
+      <c r="F508" s="14"/>
+    </row>
+    <row r="509" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C508" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D508" s="16"/>
-      <c r="E508" s="43" t="s">
+      <c r="C509" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D509" s="16"/>
+      <c r="E509" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F508" s="42"/>
-    </row>
-    <row r="509" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="23" t="s">
+      <c r="F509" s="42"/>
+    </row>
+    <row r="510" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C509" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D509" s="23"/>
-      <c r="E509" s="50" t="s">
+      <c r="C510" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D510" s="23"/>
+      <c r="E510" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="F509" s="23"/>
-    </row>
-    <row r="510" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B510" s="23" t="s">
+      <c r="F510" s="23"/>
+    </row>
+    <row r="511" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C510" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D510" s="23"/>
-      <c r="E510" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="F510" s="33"/>
-    </row>
-    <row r="511" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C511" s="47" t="s">
+      <c r="C511" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D511" s="23"/>
       <c r="E511" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F511" s="33"/>
+    </row>
+    <row r="512" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C512" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D512" s="23"/>
+      <c r="E512" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F511" s="33"/>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B512" s="14" t="s">
+      <c r="F512" s="33"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B513" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C512" s="15" t="s">
+      <c r="C513" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D512" s="14"/>
-      <c r="E512" s="48" t="s">
+      <c r="D513" s="14"/>
+      <c r="E513" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F512" s="14"/>
-    </row>
-    <row r="513" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="23" t="s">
+      <c r="F513" s="14"/>
+    </row>
+    <row r="514" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C513" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D513" s="23"/>
-      <c r="E513" s="23" t="s">
+      <c r="C514" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D514" s="23"/>
+      <c r="E514" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F513" s="33"/>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B514" s="14" t="s">
+      <c r="F514" s="33"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B515" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C514" s="15" t="s">
+      <c r="C515" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D514" s="14"/>
-      <c r="E514" s="48" t="s">
+      <c r="D515" s="14"/>
+      <c r="E515" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F514" s="14"/>
-    </row>
-    <row r="515" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B515" s="47" t="s">
+      <c r="F515" s="14"/>
+    </row>
+    <row r="516" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C515" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D515" s="23"/>
-      <c r="E515" s="23" t="s">
+      <c r="C516" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D516" s="23"/>
+      <c r="E516" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F515" s="33"/>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B516" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C516" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D516" s="16"/>
-      <c r="E516" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F516" s="14"/>
+      <c r="F516" s="33"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B517" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C517" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D517" s="16"/>
       <c r="E517" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F517" s="14"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B518" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C518" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D518" s="16"/>
       <c r="E518" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F518" s="14"/>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B519" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D519" s="16"/>
       <c r="E519" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F519" s="14"/>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B520" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C520" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D520" s="16"/>
+      <c r="E520" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F520" s="14"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B521" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C520" s="14" t="s">
+      <c r="C521" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D520" s="14"/>
-      <c r="E520" s="14" t="s">
+      <c r="D521" s="14"/>
+      <c r="E521" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F520" s="14" t="s">
+      <c r="F521" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B521" s="17" t="s">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B522" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C521" s="17" t="s">
+      <c r="C522" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D521" s="17"/>
-      <c r="E521" s="17" t="s">
+      <c r="D522" s="17"/>
+      <c r="E522" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F521" s="17" t="s">
+      <c r="F522" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B522" s="19"/>
-      <c r="C522" s="19"/>
-      <c r="D522" s="19"/>
-      <c r="E522" s="19"/>
-      <c r="F522" s="19"/>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B523" s="19"/>
+      <c r="C523" s="19"/>
+      <c r="D523" s="19"/>
+      <c r="E523" s="19"/>
+      <c r="F523" s="19"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="6">
         <v>32</v>
       </c>
-      <c r="B524" s="7" t="s">
+      <c r="B525" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C524" s="8"/>
-      <c r="D524" s="9"/>
-      <c r="E524" s="9"/>
-      <c r="F524" s="10"/>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B525" s="11" t="s">
+      <c r="C525" s="8"/>
+      <c r="D525" s="9"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="10"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B526" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C525" s="11" t="s">
+      <c r="C526" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D525" s="11" t="s">
+      <c r="D526" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E525" s="11" t="s">
+      <c r="E526" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F525" s="11" t="s">
+      <c r="F526" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B526" s="12" t="s">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B527" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C526" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D526" s="13"/>
-      <c r="E526" s="13" t="s">
+      <c r="C527" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D527" s="13"/>
+      <c r="E527" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F526" s="14"/>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B527" s="14" t="s">
+      <c r="F527" s="14"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B528" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="C527" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D527" s="14"/>
-      <c r="E527" s="48" t="s">
+      <c r="C528" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D528" s="14"/>
+      <c r="E528" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F527" s="49"/>
-    </row>
-    <row r="528" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B528" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="C528" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D528" s="23"/>
-      <c r="E528" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="F528" s="44"/>
+      <c r="F528" s="49"/>
     </row>
     <row r="529" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="C529" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D529" s="23"/>
+      <c r="E529" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F529" s="44"/>
+    </row>
+    <row r="530" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C529" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D529" s="23"/>
-      <c r="E529" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F529" s="33"/>
-    </row>
-    <row r="530" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C530" s="47" t="s">
+      <c r="C530" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D530" s="23"/>
       <c r="E530" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F530" s="33"/>
+    </row>
+    <row r="531" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C531" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D531" s="23"/>
+      <c r="E531" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F530" s="33"/>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B531" s="14" t="s">
+      <c r="F531" s="33"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B532" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C531" s="15" t="s">
+      <c r="C532" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D531" s="14"/>
-      <c r="E531" s="48" t="s">
+      <c r="D532" s="14"/>
+      <c r="E532" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="F531" s="14"/>
-    </row>
-    <row r="532" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B532" s="23" t="s">
+      <c r="F532" s="14"/>
+    </row>
+    <row r="533" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C532" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D532" s="23"/>
-      <c r="E532" s="23" t="s">
+      <c r="C533" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D533" s="23"/>
+      <c r="E533" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F532" s="33"/>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B533" s="14" t="s">
+      <c r="F533" s="33"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B534" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C533" s="15" t="s">
+      <c r="C534" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D533" s="14"/>
-      <c r="E533" s="48" t="s">
+      <c r="D534" s="14"/>
+      <c r="E534" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F533" s="14"/>
-    </row>
-    <row r="534" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B534" s="47" t="s">
+      <c r="F534" s="14"/>
+    </row>
+    <row r="535" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C534" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D534" s="23"/>
-      <c r="E534" s="23" t="s">
+      <c r="C535" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D535" s="23"/>
+      <c r="E535" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F534" s="33"/>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B535" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C535" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D535" s="16"/>
-      <c r="E535" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F535" s="14"/>
+      <c r="F535" s="33"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B536" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C536" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D536" s="16"/>
       <c r="E536" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F536" s="14"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B537" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C537" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D537" s="16"/>
       <c r="E537" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F537" s="14"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B538" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C538" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D538" s="16"/>
       <c r="E538" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F538" s="14"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B539" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C539" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D539" s="16"/>
+      <c r="E539" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F539" s="14"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B540" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C539" s="14" t="s">
+      <c r="C540" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D539" s="14"/>
-      <c r="E539" s="14" t="s">
+      <c r="D540" s="14"/>
+      <c r="E540" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F539" s="14" t="s">
+      <c r="F540" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B540" s="17" t="s">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B541" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C540" s="17" t="s">
+      <c r="C541" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D540" s="17"/>
-      <c r="E540" s="17" t="s">
+      <c r="D541" s="17"/>
+      <c r="E541" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F540" s="17" t="s">
+      <c r="F541" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B541" s="19"/>
-      <c r="C541" s="19"/>
-      <c r="D541" s="19"/>
-      <c r="E541" s="19"/>
-      <c r="F541" s="19"/>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B542" s="19"/>
+      <c r="C542" s="19"/>
+      <c r="D542" s="19"/>
+      <c r="E542" s="19"/>
+      <c r="F542" s="19"/>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="6">
         <v>33</v>
       </c>
-      <c r="B543" s="7" t="s">
+      <c r="B544" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C543" s="8"/>
-      <c r="D543" s="9"/>
-      <c r="E543" s="9"/>
-      <c r="F543" s="10"/>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B544" s="11" t="s">
+      <c r="C544" s="8"/>
+      <c r="D544" s="9"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="10"/>
+    </row>
+    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B545" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C544" s="11" t="s">
+      <c r="C545" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D544" s="11" t="s">
+      <c r="D545" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E544" s="11" t="s">
+      <c r="E545" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F544" s="11" t="s">
+      <c r="F545" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B545" s="12" t="s">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B546" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C545" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D545" s="13"/>
-      <c r="E545" s="13" t="s">
+      <c r="C546" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D546" s="13"/>
+      <c r="E546" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F545" s="14"/>
-    </row>
-    <row r="546" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B546" s="16" t="s">
+      <c r="F546" s="14"/>
+    </row>
+    <row r="547" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C546" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D546" s="51"/>
-      <c r="E546" s="43" t="s">
+      <c r="C547" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D547" s="51"/>
+      <c r="E547" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F546" s="33"/>
-    </row>
-    <row r="547" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="23" t="s">
+      <c r="F547" s="33"/>
+    </row>
+    <row r="548" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="23" t="s">
         <v>506</v>
-      </c>
-      <c r="C547" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D547" s="23"/>
-      <c r="E547" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F547" s="23"/>
-    </row>
-    <row r="548" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B548" s="23" t="s">
-        <v>466</v>
       </c>
       <c r="C548" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D548" s="23"/>
       <c r="E548" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F548" s="33"/>
+        <v>507</v>
+      </c>
+      <c r="F548" s="23"/>
     </row>
     <row r="549" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C549" s="47" t="s">
+      <c r="B549" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C549" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D549" s="23"/>
       <c r="E549" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F549" s="33"/>
+    </row>
+    <row r="550" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C550" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D550" s="23"/>
+      <c r="E550" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F549" s="33"/>
-    </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B550" s="14" t="s">
+      <c r="F550" s="33"/>
+    </row>
+    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B551" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C550" s="35" t="s">
+      <c r="C551" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D550" s="20"/>
-      <c r="E550" s="52" t="s">
+      <c r="D551" s="20"/>
+      <c r="E551" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="F550" s="35"/>
-    </row>
-    <row r="551" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B551" s="23" t="s">
+      <c r="F551" s="35"/>
+    </row>
+    <row r="552" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C551" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D551" s="23"/>
-      <c r="E551" s="23" t="s">
+      <c r="C552" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D552" s="23"/>
+      <c r="E552" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F551" s="33"/>
-    </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B552" s="14" t="s">
+      <c r="F552" s="33"/>
+    </row>
+    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B553" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C552" s="14" t="s">
+      <c r="C553" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D552" s="20"/>
-      <c r="E552" s="52" t="s">
+      <c r="D553" s="20"/>
+      <c r="E553" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="F552" s="14"/>
-    </row>
-    <row r="553" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B553" s="47" t="s">
+      <c r="F553" s="14"/>
+    </row>
+    <row r="554" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C553" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D553" s="23"/>
-      <c r="E553" s="23" t="s">
+      <c r="C554" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D554" s="23"/>
+      <c r="E554" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F553" s="33"/>
-    </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B554" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C554" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D554" s="16"/>
-      <c r="E554" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F554" s="14"/>
+      <c r="F554" s="33"/>
     </row>
     <row r="555" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B555" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C555" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D555" s="16"/>
       <c r="E555" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F555" s="14"/>
     </row>
     <row r="556" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B556" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C556" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D556" s="16"/>
       <c r="E556" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F556" s="14"/>
     </row>
     <row r="557" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B557" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C557" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D557" s="16"/>
       <c r="E557" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F557" s="14"/>
     </row>
     <row r="558" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B558" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C558" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D558" s="16"/>
+      <c r="E558" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F558" s="14"/>
+    </row>
+    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B559" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C558" s="14" t="s">
+      <c r="C559" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D558" s="14"/>
-      <c r="E558" s="14" t="s">
+      <c r="D559" s="14"/>
+      <c r="E559" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F558" s="14" t="s">
+      <c r="F559" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B559" s="17" t="s">
+    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B560" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C559" s="17" t="s">
+      <c r="C560" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D559" s="17"/>
-      <c r="E559" s="17" t="s">
+      <c r="D560" s="17"/>
+      <c r="E560" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F559" s="17" t="s">
+      <c r="F560" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B560" s="19"/>
-      <c r="C560" s="19"/>
-      <c r="D560" s="19"/>
-      <c r="E560" s="19"/>
-      <c r="F560" s="19"/>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" s="6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B561" s="19"/>
+      <c r="C561" s="19"/>
+      <c r="D561" s="19"/>
+      <c r="E561" s="19"/>
+      <c r="F561" s="19"/>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="6">
         <v>34</v>
       </c>
-      <c r="B562" s="7" t="s">
+      <c r="B563" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C562" s="8"/>
-      <c r="D562" s="9"/>
-      <c r="E562" s="9"/>
-      <c r="F562" s="10"/>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B563" s="11" t="s">
+      <c r="C563" s="8"/>
+      <c r="D563" s="9"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="10"/>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B564" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C563" s="11" t="s">
+      <c r="C564" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D563" s="11" t="s">
+      <c r="D564" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E563" s="11" t="s">
+      <c r="E564" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F563" s="11" t="s">
+      <c r="F564" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B564" s="12" t="s">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B565" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C564" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D564" s="13"/>
-      <c r="E564" s="13" t="s">
+      <c r="C565" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D565" s="13"/>
+      <c r="E565" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F564" s="14"/>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B565" s="16" t="s">
+      <c r="F565" s="14"/>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B566" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C565" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D565" s="51"/>
-      <c r="E565" s="43" t="s">
+      <c r="C566" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D566" s="51"/>
+      <c r="E566" s="43" t="s">
         <v>510</v>
       </c>
-      <c r="F565" s="33"/>
-    </row>
-    <row r="566" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B566" s="23" t="s">
+      <c r="F566" s="33"/>
+    </row>
+    <row r="567" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="23" t="s">
         <v>511</v>
-      </c>
-      <c r="C566" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D566" s="23"/>
-      <c r="E566" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="F566" s="23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B567" s="23" t="s">
-        <v>506</v>
       </c>
       <c r="C567" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D567" s="23"/>
       <c r="E567" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F567" s="28"/>
-    </row>
-    <row r="568" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="C568" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="F567" s="23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C568" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D568" s="23"/>
       <c r="E568" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F568" s="23"/>
-    </row>
-    <row r="569" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C569" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="F568" s="28"/>
+    </row>
+    <row r="569" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="C569" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D569" s="23"/>
       <c r="E569" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="F569" s="23"/>
+    </row>
+    <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C570" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D570" s="23"/>
+      <c r="E570" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="F569" s="29"/>
-    </row>
-    <row r="570" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="28" t="s">
+      <c r="F570" s="29"/>
+    </row>
+    <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="C570" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D570" s="28"/>
-      <c r="E570" s="28" t="s">
+      <c r="C571" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D571" s="28"/>
+      <c r="E571" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="F570" s="28"/>
-    </row>
-    <row r="571" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B571" s="23" t="s">
+      <c r="F571" s="28"/>
+    </row>
+    <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C571" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D571" s="23"/>
-      <c r="E571" s="23" t="s">
+      <c r="C572" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D572" s="23"/>
+      <c r="E572" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="F571" s="28"/>
-    </row>
-    <row r="572" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="C572" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D572" s="28"/>
-      <c r="E572" s="28" t="s">
-        <v>519</v>
       </c>
       <c r="F572" s="28"/>
     </row>
     <row r="573" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B573" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C573" s="28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D573" s="28"/>
       <c r="E573" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="F573" s="28"/>
+    </row>
+    <row r="574" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C574" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D574" s="28"/>
+      <c r="E574" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="F573" s="28"/>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B574" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C574" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D574" s="16"/>
-      <c r="E574" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F574" s="14"/>
+      <c r="F574" s="28"/>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B575" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C575" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D575" s="16"/>
       <c r="E575" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F575" s="14"/>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B576" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C576" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D576" s="16"/>
       <c r="E576" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F576" s="14"/>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B577" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C577" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D577" s="16"/>
       <c r="E577" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F577" s="14"/>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B578" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C578" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D578" s="16"/>
+      <c r="E578" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F578" s="14"/>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B579" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C578" s="14" t="s">
+      <c r="C579" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D578" s="14"/>
-      <c r="E578" s="14" t="s">
+      <c r="D579" s="14"/>
+      <c r="E579" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F578" s="14" t="s">
+      <c r="F579" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B579" s="17" t="s">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B580" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C579" s="17" t="s">
+      <c r="C580" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D579" s="17"/>
-      <c r="E579" s="17" t="s">
+      <c r="D580" s="17"/>
+      <c r="E580" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F579" s="17" t="s">
+      <c r="F580" s="17" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B580" s="19"/>
-      <c r="C580" s="19"/>
-      <c r="D580" s="19"/>
-      <c r="E580" s="19"/>
-      <c r="F580" s="19"/>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B581" s="19"/>
@@ -17581,278 +17630,278 @@
       <c r="F581" s="19"/>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582" s="6">
+      <c r="B582" s="19"/>
+      <c r="C582" s="19"/>
+      <c r="D582" s="19"/>
+      <c r="E582" s="19"/>
+      <c r="F582" s="19"/>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="6">
         <v>35</v>
       </c>
-      <c r="B582" s="7" t="s">
+      <c r="B583" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C582" s="8"/>
-      <c r="D582" s="9"/>
-      <c r="E582" s="9"/>
-      <c r="F582" s="10"/>
-    </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B583" s="11" t="s">
+      <c r="C583" s="8"/>
+      <c r="D583" s="9"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="10"/>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B584" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C583" s="11" t="s">
+      <c r="C584" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D583" s="11" t="s">
+      <c r="D584" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E583" s="11" t="s">
+      <c r="E584" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F583" s="11" t="s">
+      <c r="F584" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B584" s="12" t="s">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B585" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C584" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D584" s="13"/>
-      <c r="E584" s="13" t="s">
+      <c r="C585" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585" s="13"/>
+      <c r="E585" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F584" s="14"/>
-    </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B585" s="23" t="s">
+      <c r="F585" s="14"/>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B586" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C585" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D585" s="46"/>
-      <c r="E585" s="50" t="s">
+      <c r="C586" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D586" s="46"/>
+      <c r="E586" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="F585" s="23"/>
-    </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B586" s="16" t="s">
+      <c r="F586" s="23"/>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B587" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="C586" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D586" s="51"/>
-      <c r="E586" s="43" t="s">
+      <c r="C587" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D587" s="51"/>
+      <c r="E587" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="F586" s="33"/>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B587" s="23" t="s">
+      <c r="F587" s="33"/>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B588" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C587" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D587" s="23"/>
-      <c r="E587" s="23" t="s">
+      <c r="C588" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D588" s="23"/>
+      <c r="E588" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="F587" s="33"/>
-    </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B588" s="53" t="s">
-        <v>527</v>
-      </c>
-      <c r="C588" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D588" s="54"/>
-      <c r="E588" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F588" s="28"/>
+      <c r="F588" s="33"/>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B589" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="C589" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D589" s="54"/>
+      <c r="E589" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F589" s="28"/>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B590" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="C589" s="16" t="s">
+      <c r="C590" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="D589" s="51"/>
-      <c r="E589" s="43" t="s">
+      <c r="D590" s="51"/>
+      <c r="E590" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="F589" s="33"/>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B590" s="47" t="s">
+      <c r="F590" s="33"/>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B591" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C590" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D590" s="23"/>
-      <c r="E590" s="23" t="s">
+      <c r="C591" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D591" s="23"/>
+      <c r="E591" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F590" s="23"/>
-    </row>
-    <row r="591" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B591" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="C591" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D591" s="28"/>
-      <c r="E591" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="F591" s="28"/>
+      <c r="F591" s="23"/>
     </row>
     <row r="592" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B592" s="53" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C592" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D592" s="28"/>
       <c r="E592" s="28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F592" s="28"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B593" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="C593" s="28" t="s">
-        <v>20</v>
+    <row r="593" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C593" s="53" t="s">
+        <v>7</v>
       </c>
       <c r="D593" s="28"/>
       <c r="E593" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="F593" s="28"/>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B594" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C594" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D594" s="28"/>
+      <c r="E594" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="F593" s="28"/>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B594" s="32" t="s">
+      <c r="F594" s="28"/>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B595" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="C594" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D594" s="22"/>
-      <c r="E594" s="22" t="s">
+      <c r="C595" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D595" s="22"/>
+      <c r="E595" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F594" s="29"/>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B595" s="21" t="s">
+      <c r="F595" s="29"/>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B596" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C595" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D595" s="24"/>
-      <c r="E595" s="56" t="s">
+      <c r="C596" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D596" s="24"/>
+      <c r="E596" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="F595" s="21"/>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B596" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C596" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D596" s="16"/>
-      <c r="E596" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F596" s="14"/>
+      <c r="F596" s="21"/>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B597" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C597" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D597" s="16"/>
       <c r="E597" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F597" s="14"/>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B598" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C598" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D598" s="16"/>
       <c r="E598" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F598" s="14"/>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B599" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C599" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D599" s="16"/>
       <c r="E599" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F599" s="14"/>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B600" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C600" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D600" s="16"/>
+      <c r="E600" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F600" s="14"/>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B601" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C600" s="14" t="s">
+      <c r="C601" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D600" s="14"/>
-      <c r="E600" s="14" t="s">
+      <c r="D601" s="14"/>
+      <c r="E601" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F600" s="14" t="s">
+      <c r="F601" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B601" s="17" t="s">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B602" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C601" s="17" t="s">
+      <c r="C602" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D601" s="17"/>
-      <c r="E601" s="17" t="s">
+      <c r="D602" s="17"/>
+      <c r="E602" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F601" s="17" t="s">
+      <c r="F602" s="17" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B602" s="19"/>
-      <c r="C602" s="19"/>
-      <c r="D602" s="19"/>
-      <c r="E602" s="19"/>
-      <c r="F602" s="19"/>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B603" s="19"/>
@@ -17862,506 +17911,513 @@
       <c r="F603" s="19"/>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A604" s="6">
+      <c r="B604" s="19"/>
+      <c r="C604" s="19"/>
+      <c r="D604" s="19"/>
+      <c r="E604" s="19"/>
+      <c r="F604" s="19"/>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="6">
         <v>36</v>
       </c>
-      <c r="B604" s="7" t="s">
+      <c r="B605" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C604" s="8"/>
-      <c r="D604" s="9"/>
-      <c r="E604" s="9"/>
-      <c r="F604" s="10"/>
-    </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B605" s="11" t="s">
+      <c r="C605" s="8"/>
+      <c r="D605" s="9"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="10"/>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B606" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C605" s="11" t="s">
+      <c r="C606" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D605" s="11" t="s">
+      <c r="D606" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E605" s="11" t="s">
+      <c r="E606" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F605" s="11" t="s">
+      <c r="F606" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B606" s="12" t="s">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B607" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C606" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D606" s="13"/>
-      <c r="E606" s="13" t="s">
+      <c r="C607" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D607" s="13"/>
+      <c r="E607" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F606" s="14"/>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B607" s="16" t="s">
+      <c r="F607" s="14"/>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B608" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="C607" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D607" s="51"/>
-      <c r="E607" s="43" t="s">
+      <c r="C608" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D608" s="51"/>
+      <c r="E608" s="43" t="s">
         <v>539</v>
       </c>
-      <c r="F607" s="33"/>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B608" s="23" t="s">
+      <c r="F608" s="33"/>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B609" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C608" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D608" s="23"/>
-      <c r="E608" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="F608" s="28"/>
-    </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B609" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="C609" s="47" t="s">
+      <c r="C609" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D609" s="23"/>
       <c r="E609" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F609" s="23"/>
+        <v>503</v>
+      </c>
+      <c r="F609" s="28"/>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B610" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C610" s="22" t="s">
+      <c r="B610" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="C610" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D610" s="23"/>
       <c r="E610" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="F610" s="23"/>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B611" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C611" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D611" s="23"/>
+      <c r="E611" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="F610" s="29"/>
-    </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B611" s="28" t="s">
+      <c r="F611" s="29"/>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B612" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="C611" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D611" s="28"/>
-      <c r="E611" s="28" t="s">
+      <c r="C612" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D612" s="28"/>
+      <c r="E612" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="F611" s="28"/>
-    </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B612" s="23" t="s">
+      <c r="F612" s="28"/>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B613" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C612" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D612" s="23"/>
-      <c r="E612" s="23" t="s">
+      <c r="C613" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D613" s="23"/>
+      <c r="E613" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="F612" s="28"/>
-    </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B613" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="C613" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D613" s="28"/>
-      <c r="E613" s="28" t="s">
-        <v>519</v>
       </c>
       <c r="F613" s="28"/>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B614" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C614" s="28" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D614" s="28"/>
       <c r="E614" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="F614" s="28"/>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B615" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C615" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D615" s="28"/>
+      <c r="E615" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="F614" s="28"/>
-    </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B615" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C615" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D615" s="16"/>
-      <c r="E615" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F615" s="14"/>
+      <c r="F615" s="28"/>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B616" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C616" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D616" s="16"/>
       <c r="E616" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F616" s="14"/>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B617" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C617" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D617" s="16"/>
       <c r="E617" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F617" s="14"/>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B618" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C618" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D618" s="16"/>
       <c r="E618" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F618" s="14"/>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B619" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C619" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D619" s="16"/>
+      <c r="E619" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F619" s="14"/>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B620" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C619" s="14" t="s">
+      <c r="C620" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D619" s="14"/>
-      <c r="E619" s="14" t="s">
+      <c r="D620" s="14"/>
+      <c r="E620" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F619" s="14" t="s">
+      <c r="F620" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B620" s="17" t="s">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B621" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C620" s="17" t="s">
+      <c r="C621" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D620" s="17"/>
-      <c r="E620" s="17" t="s">
+      <c r="D621" s="17"/>
+      <c r="E621" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F620" s="17" t="s">
+      <c r="F621" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B621" s="19"/>
-      <c r="C621" s="19"/>
-      <c r="D621" s="19"/>
-      <c r="E621" s="19"/>
-      <c r="F621" s="19"/>
-    </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A623" s="6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B622" s="19"/>
+      <c r="C622" s="19"/>
+      <c r="D622" s="19"/>
+      <c r="E622" s="19"/>
+      <c r="F622" s="19"/>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="6">
         <v>37</v>
       </c>
-      <c r="B623" s="7" t="s">
+      <c r="B624" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="C623" s="8"/>
-      <c r="D623" s="9"/>
-      <c r="E623" s="9"/>
-      <c r="F623" s="10"/>
-    </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B624" s="11" t="s">
+      <c r="C624" s="8"/>
+      <c r="D624" s="9"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="10"/>
+    </row>
+    <row r="625" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B625" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C624" s="11" t="s">
+      <c r="C625" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D624" s="11" t="s">
+      <c r="D625" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E624" s="11" t="s">
+      <c r="E625" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F624" s="11" t="s">
+      <c r="F625" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B625" s="12" t="s">
+    <row r="626" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B626" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C625" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D625" s="13"/>
-      <c r="E625" s="13" t="s">
+      <c r="C626" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D626" s="13"/>
+      <c r="E626" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F625" s="14"/>
-    </row>
-    <row r="626" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B626" s="23" t="s">
+      <c r="F626" s="14"/>
+    </row>
+    <row r="627" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B627" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C626" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D626" s="46"/>
-      <c r="E626" s="50" t="s">
+      <c r="C627" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D627" s="46"/>
+      <c r="E627" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="F626" s="23"/>
-    </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B627" s="16" t="s">
+      <c r="F627" s="23"/>
+    </row>
+    <row r="628" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B628" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="C627" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D627" s="51"/>
-      <c r="E627" s="43" t="s">
+      <c r="C628" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D628" s="51"/>
+      <c r="E628" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="F627" s="33"/>
-    </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B628" s="23" t="s">
+      <c r="F628" s="33"/>
+    </row>
+    <row r="629" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B629" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C628" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D628" s="23"/>
-      <c r="E628" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="F628" s="33"/>
-    </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B629" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="C629" s="47" t="s">
+      <c r="C629" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D629" s="23"/>
       <c r="E629" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F629" s="33"/>
+    </row>
+    <row r="630" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B630" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C630" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D630" s="23"/>
+      <c r="E630" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F629" s="33"/>
-    </row>
-    <row r="630" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B630" s="53" t="s">
+      <c r="F630" s="33"/>
+    </row>
+    <row r="631" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B631" s="53" t="s">
         <v>527</v>
       </c>
-      <c r="C630" s="28" t="s">
+      <c r="C631" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D630" s="54"/>
-      <c r="E630" s="55" t="s">
+      <c r="D631" s="54"/>
+      <c r="E631" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="F630" s="28"/>
-    </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B631" s="53" t="s">
+      <c r="F631" s="28"/>
+    </row>
+    <row r="632" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B632" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="C631" s="16" t="s">
+      <c r="C632" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="D631" s="51"/>
-      <c r="E631" s="43" t="s">
+      <c r="D632" s="51"/>
+      <c r="E632" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="F631" s="33"/>
-    </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B632" s="47" t="s">
+      <c r="F632" s="33"/>
+    </row>
+    <row r="633" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B633" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C632" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D632" s="23"/>
-      <c r="E632" s="23" t="s">
+      <c r="C633" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D633" s="23"/>
+      <c r="E633" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="F632" s="23"/>
-    </row>
-    <row r="633" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B633" s="28" t="s">
+      <c r="F633" s="23"/>
+    </row>
+    <row r="634" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B634" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="C633" s="28" t="s">
+      <c r="C634" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D633" s="28"/>
-      <c r="E633" s="28" t="s">
+      <c r="D634" s="28"/>
+      <c r="E634" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="F633" s="28"/>
-    </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B634" s="47" t="s">
+      <c r="F634" s="28"/>
+    </row>
+    <row r="635" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B635" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="C634" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D634" s="23"/>
-      <c r="E634" s="23" t="s">
+      <c r="C635" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D635" s="23"/>
+      <c r="E635" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="F634" s="23" t="s">
+      <c r="F635" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B635" s="32" t="s">
+    <row r="636" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B636" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="C635" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D635" s="22"/>
-      <c r="E635" s="22" t="s">
+      <c r="C636" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D636" s="22"/>
+      <c r="E636" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="F635" s="29"/>
-    </row>
-    <row r="636" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B636" s="21" t="s">
+      <c r="F636" s="29"/>
+    </row>
+    <row r="637" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B637" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C636" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D636" s="24"/>
-      <c r="E636" s="56" t="s">
+      <c r="C637" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D637" s="24"/>
+      <c r="E637" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="F636" s="21"/>
-    </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B637" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C637" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D637" s="16"/>
-      <c r="E637" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F637" s="14"/>
+      <c r="F637" s="21"/>
     </row>
     <row r="638" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B638" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C638" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D638" s="16"/>
       <c r="E638" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F638" s="14"/>
     </row>
     <row r="639" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B639" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C639" s="15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D639" s="16"/>
       <c r="E639" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F639" s="14"/>
     </row>
     <row r="640" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B640" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C640" s="15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D640" s="16"/>
       <c r="E640" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F640" s="14"/>
     </row>
     <row r="641" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B641" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C641" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D641" s="16"/>
+      <c r="E641" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F641" s="14"/>
+    </row>
+    <row r="642" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B642" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C641" s="14" t="s">
+      <c r="C642" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D641" s="14"/>
-      <c r="E641" s="14" t="s">
+      <c r="D642" s="14"/>
+      <c r="E642" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F641" s="14" t="s">
+      <c r="F642" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B642" s="17" t="s">
+    <row r="643" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B643" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C642" s="17" t="s">
+      <c r="C643" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D642" s="17"/>
-      <c r="E642" s="17" t="s">
+      <c r="D643" s="17"/>
+      <c r="E643" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F642" s="17" t="s">
+      <c r="F643" s="17" t="s">
         <v>279</v>
       </c>
     </row>

--- a/icpForCitln/doc/DB设计.xlsx
+++ b/icpForCitln/doc/DB设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
+    <workbookView windowWidth="28245" windowHeight="12480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ver1.0" sheetId="5" r:id="rId1"/>
@@ -1534,10 +1534,10 @@
     <t>用户公司部门角色表(USER_COMPANY_DEPARTMENT_ROLE)</t>
   </si>
   <si>
-    <t>USER_ROLE_CODE</t>
-  </si>
-  <si>
-    <t>用户角色编码</t>
+    <t>USER_COMPANY_DEPARTMENT_ROLE_CODE</t>
+  </si>
+  <si>
+    <t>用户公司部门角色编码</t>
   </si>
   <si>
     <t>USER_INFO_ID</t>
@@ -2085,10 +2085,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2133,13 +2133,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2181,22 +2174,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2211,7 +2189,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,12 +2218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2242,15 +2239,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2268,15 +2306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2285,45 +2317,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,7 +2349,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2449,7 +2442,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,7 +2496,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,25 +2550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,127 +2580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,50 +2665,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2774,8 +2692,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2794,17 +2762,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2813,10 +2770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2825,16 +2782,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2843,120 +2800,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3053,25 +3010,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3080,25 +3031,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3107,7 +3058,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3119,7 +3070,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3134,34 +3085,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3179,52 +3130,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3236,19 +3187,19 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3257,25 +3208,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3284,7 +3235,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3293,19 +3244,19 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3670,22 +3621,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="70"/>
-    <col min="2" max="2" width="33.775" style="70" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="70" customWidth="1"/>
-    <col min="4" max="4" width="5.10833333333333" style="70" customWidth="1"/>
-    <col min="5" max="5" width="19.1083333333333" style="70" customWidth="1"/>
-    <col min="6" max="6" width="21.2166666666667" style="70" customWidth="1"/>
-    <col min="7" max="7" width="9" style="70"/>
-    <col min="8" max="8" width="26" style="70" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="70"/>
+    <col min="1" max="1" width="9" style="68"/>
+    <col min="2" max="2" width="33.775" style="68" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="68" customWidth="1"/>
+    <col min="4" max="4" width="5.10833333333333" style="68" customWidth="1"/>
+    <col min="5" max="5" width="19.1083333333333" style="68" customWidth="1"/>
+    <col min="6" max="6" width="21.2166666666667" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9" style="68"/>
+    <col min="8" max="8" width="26" style="68" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -3720,18 +3671,18 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" s="59" customFormat="1" spans="2:6">
-      <c r="B5" s="74" t="s">
+    <row r="5" s="57" customFormat="1" spans="2:6">
+      <c r="B5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74" t="s">
+      <c r="C5" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="72"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="15" t="s">
@@ -3750,7 +3701,7 @@
       <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="15"/>
@@ -3759,18 +3710,18 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" s="60" customFormat="1" spans="2:6">
-      <c r="B8" s="75" t="s">
+    <row r="8" s="58" customFormat="1" spans="2:6">
+      <c r="B8" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75" t="s">
+      <c r="C8" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="75"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="15" t="s">
@@ -3825,7 +3776,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" customFormat="1" spans="1:8">
-      <c r="A13" s="70"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
@@ -3839,14 +3790,14 @@
       <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3881,35 +3832,35 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" s="59" customFormat="1" spans="2:6">
-      <c r="B19" s="74" t="s">
+    <row r="19" s="57" customFormat="1" spans="2:6">
+      <c r="B19" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74" t="s">
+      <c r="C19" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="74"/>
-    </row>
-    <row r="20" s="61" customFormat="1" spans="2:6">
-      <c r="B20" s="77" t="s">
+      <c r="F19" s="72"/>
+    </row>
+    <row r="20" s="59" customFormat="1" spans="2:6">
+      <c r="B20" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="15"/>
@@ -3971,7 +3922,7 @@
       <c r="F25" s="15"/>
     </row>
     <row r="26" customFormat="1" spans="1:8">
-      <c r="A26" s="70"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
@@ -3985,14 +3936,14 @@
       <c r="F26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -4027,19 +3978,19 @@
       </c>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" s="62" customFormat="1" spans="2:8">
-      <c r="B32" s="78" t="s">
+    <row r="32" s="60" customFormat="1" spans="2:8">
+      <c r="B32" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78" t="s">
+      <c r="C32" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="H32" s="62" t="str">
+      <c r="F32" s="76"/>
+      <c r="H32" s="60" t="str">
         <f>UPPER(B32)</f>
         <v>PLATFORM_DIRECTORY_CODE</v>
       </c>
@@ -4048,7 +3999,7 @@
       <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="15"/>
@@ -4061,7 +4012,7 @@
       <c r="B34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="15"/>
@@ -4076,7 +4027,7 @@
       <c r="B35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="15"/>
@@ -4091,7 +4042,7 @@
       <c r="B36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="15"/>
@@ -4153,7 +4104,7 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41" customFormat="1" spans="1:8">
-      <c r="A41" s="70"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="15" t="s">
         <v>26</v>
       </c>
@@ -4167,14 +4118,14 @@
       <c r="F41" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="73"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -4209,37 +4160,37 @@
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" s="62" customFormat="1" spans="2:6">
-      <c r="B47" s="78" t="s">
+    <row r="47" s="60" customFormat="1" spans="2:6">
+      <c r="B47" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78" t="s">
+      <c r="C47" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="78"/>
-    </row>
-    <row r="48" s="63" customFormat="1" spans="2:6">
-      <c r="B48" s="41" t="s">
+      <c r="F47" s="76"/>
+    </row>
+    <row r="48" s="61" customFormat="1" spans="2:6">
+      <c r="B48" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="C48" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="15"/>
@@ -4301,7 +4252,7 @@
       <c r="F53" s="15"/>
     </row>
     <row r="54" customFormat="1" spans="1:8">
-      <c r="A54" s="70"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="15" t="s">
         <v>26</v>
       </c>
@@ -4315,14 +4266,14 @@
       <c r="F54" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="73"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -4357,24 +4308,24 @@
       </c>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" s="63" customFormat="1" spans="2:6">
-      <c r="B60" s="41" t="s">
+    <row r="60" s="61" customFormat="1" spans="2:6">
+      <c r="B60" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41" t="s">
+      <c r="C60" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="41"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="15"/>
@@ -4436,7 +4387,7 @@
       <c r="F65" s="15"/>
     </row>
     <row r="66" customFormat="1" spans="1:8">
-      <c r="A66" s="70"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="15" t="s">
         <v>26</v>
       </c>
@@ -4450,14 +4401,14 @@
       <c r="F66" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="73"/>
+      <c r="C69" s="71"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -4492,24 +4443,24 @@
       </c>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" s="64" customFormat="1" spans="2:6">
-      <c r="B72" s="82" t="s">
+    <row r="72" s="62" customFormat="1" spans="2:6">
+      <c r="B72" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82" t="s">
+      <c r="C72" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="82"/>
+      <c r="F72" s="80"/>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="15"/>
@@ -4522,7 +4473,7 @@
       <c r="B74" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="15"/>
@@ -4535,7 +4486,7 @@
       <c r="B75" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="15"/>
@@ -4548,7 +4499,7 @@
       <c r="B76" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="15"/>
@@ -4561,7 +4512,7 @@
       <c r="B77" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="15"/>
@@ -4574,7 +4525,7 @@
       <c r="B78" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="15"/>
@@ -4638,7 +4589,7 @@
       <c r="F82" s="15"/>
     </row>
     <row r="83" customFormat="1" spans="1:8">
-      <c r="A83" s="70"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="15" t="s">
         <v>26</v>
       </c>
@@ -4652,14 +4603,14 @@
       <c r="F83" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="73"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -4694,31 +4645,31 @@
       </c>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" s="64" customFormat="1" spans="2:6">
-      <c r="B89" s="82" t="s">
+    <row r="89" s="62" customFormat="1" spans="2:6">
+      <c r="B89" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82" t="s">
+      <c r="C89" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F89" s="82"/>
-    </row>
-    <row r="90" s="63" customFormat="1" spans="2:6">
-      <c r="B90" s="41" t="s">
+      <c r="F89" s="80"/>
+    </row>
+    <row r="90" s="61" customFormat="1" spans="2:6">
+      <c r="B90" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41" t="s">
+      <c r="C90" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F90" s="41"/>
+      <c r="F90" s="39"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="15" t="s">
@@ -4773,7 +4724,7 @@
       <c r="F94" s="15"/>
     </row>
     <row r="95" customFormat="1" spans="1:8">
-      <c r="A95" s="70"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="15" t="s">
         <v>26</v>
       </c>
@@ -4787,14 +4738,14 @@
       <c r="F95" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="72" t="s">
+      <c r="B98" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="73"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -4829,31 +4780,31 @@
       </c>
       <c r="F100" s="13"/>
     </row>
-    <row r="101" s="64" customFormat="1" spans="2:6">
-      <c r="B101" s="82" t="s">
+    <row r="101" s="62" customFormat="1" spans="2:6">
+      <c r="B101" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82" t="s">
+      <c r="C101" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F101" s="82"/>
-    </row>
-    <row r="102" s="59" customFormat="1" spans="2:6">
-      <c r="B102" s="74" t="s">
+      <c r="F101" s="80"/>
+    </row>
+    <row r="102" s="57" customFormat="1" spans="2:6">
+      <c r="B102" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C102" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74" t="s">
+      <c r="C102" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="74"/>
+      <c r="F102" s="72"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="15" t="s">
@@ -4908,7 +4859,7 @@
       <c r="F106" s="15"/>
     </row>
     <row r="107" customFormat="1" spans="1:8">
-      <c r="A107" s="70"/>
+      <c r="A107" s="68"/>
       <c r="B107" s="15" t="s">
         <v>26</v>
       </c>
@@ -4922,14 +4873,14 @@
       <c r="F107" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="68"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="72" t="s">
+      <c r="B110" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C110" s="73"/>
+      <c r="C110" s="71"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -4964,31 +4915,31 @@
       </c>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" s="64" customFormat="1" spans="2:6">
-      <c r="B113" s="82" t="s">
+    <row r="113" s="62" customFormat="1" spans="2:6">
+      <c r="B113" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C113" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="82"/>
-      <c r="E113" s="82" t="s">
+      <c r="C113" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F113" s="82"/>
-    </row>
-    <row r="114" s="66" customFormat="1" spans="2:6">
-      <c r="B114" s="88" t="s">
+      <c r="F113" s="80"/>
+    </row>
+    <row r="114" s="64" customFormat="1" spans="2:6">
+      <c r="B114" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C114" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88" t="s">
+      <c r="C114" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="86"/>
+      <c r="E114" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="F114" s="88"/>
+      <c r="F114" s="86"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="15" t="s">
@@ -5043,7 +4994,7 @@
       <c r="F118" s="15"/>
     </row>
     <row r="119" customFormat="1" spans="1:8">
-      <c r="A119" s="70"/>
+      <c r="A119" s="68"/>
       <c r="B119" s="15" t="s">
         <v>26</v>
       </c>
@@ -5057,14 +5008,14 @@
       <c r="F119" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G119" s="70"/>
-      <c r="H119" s="70"/>
+      <c r="G119" s="68"/>
+      <c r="H119" s="68"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C122" s="73"/>
+      <c r="C122" s="71"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -5099,31 +5050,31 @@
       </c>
       <c r="F124" s="13"/>
     </row>
-    <row r="125" s="66" customFormat="1" spans="2:6">
-      <c r="B125" s="88" t="s">
+    <row r="125" s="64" customFormat="1" spans="2:6">
+      <c r="B125" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C125" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" s="88"/>
-      <c r="E125" s="88" t="s">
+      <c r="C125" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="86"/>
+      <c r="E125" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="F125" s="88"/>
-    </row>
-    <row r="126" s="67" customFormat="1" spans="2:6">
-      <c r="B126" s="37" t="s">
+      <c r="F125" s="86"/>
+    </row>
+    <row r="126" s="65" customFormat="1" spans="2:6">
+      <c r="B126" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C126" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37" t="s">
+      <c r="C126" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F126" s="37"/>
+      <c r="F126" s="35"/>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="15" t="s">
@@ -5178,7 +5129,7 @@
       <c r="F130" s="15"/>
     </row>
     <row r="131" customFormat="1" spans="1:8">
-      <c r="A131" s="70"/>
+      <c r="A131" s="68"/>
       <c r="B131" s="15" t="s">
         <v>26</v>
       </c>
@@ -5192,14 +5143,14 @@
       <c r="F131" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G131" s="70"/>
-      <c r="H131" s="70"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
     </row>
     <row r="134" spans="2:6">
-      <c r="B134" s="72" t="s">
+      <c r="B134" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C134" s="73"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
@@ -5253,10 +5204,10 @@
       <c r="B138" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C138" s="106" t="s">
+      <c r="C138" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="D138" s="104">
+      <c r="D138" s="102">
         <v>10</v>
       </c>
       <c r="E138" s="27" t="s">
@@ -5264,18 +5215,18 @@
       </c>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" s="68" customFormat="1" spans="2:6">
-      <c r="B139" s="93" t="s">
+    <row r="139" s="66" customFormat="1" spans="2:6">
+      <c r="B139" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C139" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" s="93"/>
-      <c r="E139" s="93" t="s">
+      <c r="C139" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="91"/>
+      <c r="E139" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="93"/>
+      <c r="F139" s="91"/>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" s="15" t="s">
@@ -5290,31 +5241,31 @@
       </c>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" s="60" customFormat="1" spans="2:6">
-      <c r="B141" s="75" t="s">
+    <row r="141" s="58" customFormat="1" spans="2:6">
+      <c r="B141" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" s="75"/>
-      <c r="E141" s="75" t="s">
+      <c r="C141" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="75"/>
-    </row>
-    <row r="142" s="114" customFormat="1" spans="2:6">
-      <c r="B142" s="116" t="s">
+      <c r="F141" s="73"/>
+    </row>
+    <row r="142" s="112" customFormat="1" spans="2:6">
+      <c r="B142" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="C142" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" s="116"/>
-      <c r="E142" s="116" t="s">
+      <c r="C142" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="F142" s="116"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" s="15" t="s">
@@ -5333,7 +5284,7 @@
       <c r="B144" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="15"/>
@@ -5561,7 +5512,7 @@
       <c r="F160" s="15"/>
     </row>
     <row r="161" customFormat="1" spans="1:8">
-      <c r="A161" s="70"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="15" t="s">
         <v>26</v>
       </c>
@@ -5575,8 +5526,8 @@
       <c r="F161" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G161" s="70"/>
-      <c r="H161" s="70"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="68"/>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" s="15" t="s">
@@ -5596,10 +5547,10 @@
       </c>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="72" t="s">
+      <c r="B166" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C166" s="73"/>
+      <c r="C166" s="71"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -5634,31 +5585,31 @@
       </c>
       <c r="F168" s="13"/>
     </row>
-    <row r="169" s="68" customFormat="1" spans="2:6">
-      <c r="B169" s="93" t="s">
+    <row r="169" s="66" customFormat="1" spans="2:6">
+      <c r="B169" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C169" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" s="93"/>
-      <c r="E169" s="93" t="s">
+      <c r="C169" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="91"/>
+      <c r="E169" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F169" s="93"/>
-    </row>
-    <row r="170" s="69" customFormat="1" spans="2:6">
-      <c r="B170" s="94" t="s">
+      <c r="F169" s="91"/>
+    </row>
+    <row r="170" s="67" customFormat="1" spans="2:6">
+      <c r="B170" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C170" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" s="94"/>
-      <c r="E170" s="94" t="s">
+      <c r="C170" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="92"/>
+      <c r="E170" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F170" s="94"/>
+      <c r="F170" s="92"/>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="15" t="s">
@@ -5713,7 +5664,7 @@
       <c r="F174" s="15"/>
     </row>
     <row r="175" customFormat="1" spans="1:8">
-      <c r="A175" s="70"/>
+      <c r="A175" s="68"/>
       <c r="B175" s="15" t="s">
         <v>26</v>
       </c>
@@ -5727,14 +5678,14 @@
       <c r="F175" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G175" s="70"/>
-      <c r="H175" s="70"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="68"/>
     </row>
     <row r="179" spans="2:6">
-      <c r="B179" s="72" t="s">
+      <c r="B179" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C179" s="73"/>
+      <c r="C179" s="71"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
@@ -5769,46 +5720,46 @@
       </c>
       <c r="F181" s="13"/>
     </row>
-    <row r="182" s="115" customFormat="1" spans="2:6">
-      <c r="B182" s="80" t="s">
+    <row r="182" s="113" customFormat="1" spans="2:6">
+      <c r="B182" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C182" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="81"/>
-      <c r="E182" s="81" t="s">
+      <c r="C182" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="79"/>
+      <c r="E182" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F182" s="81"/>
-    </row>
-    <row r="183" s="67" customFormat="1" spans="2:6">
-      <c r="B183" s="37" t="s">
+      <c r="F182" s="79"/>
+    </row>
+    <row r="183" s="65" customFormat="1" spans="2:6">
+      <c r="B183" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C183" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37" t="s">
+      <c r="C183" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="35"/>
+      <c r="E183" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F183" s="37" t="s">
+      <c r="F183" s="35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="184" s="67" customFormat="1" spans="2:6">
-      <c r="B184" s="37" t="s">
+    <row r="184" s="65" customFormat="1" spans="2:6">
+      <c r="B184" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C184" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37" t="s">
+      <c r="C184" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="35"/>
+      <c r="E184" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F184" s="37" t="s">
+      <c r="F184" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5865,7 +5816,7 @@
       <c r="F188" s="15"/>
     </row>
     <row r="189" customFormat="1" spans="1:8">
-      <c r="A189" s="70"/>
+      <c r="A189" s="68"/>
       <c r="B189" s="15" t="s">
         <v>26</v>
       </c>
@@ -5879,11 +5830,11 @@
       <c r="F189" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G189" s="70"/>
-      <c r="H189" s="70"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="68"/>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="70" t="s">
+      <c r="F192" s="68" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5905,30 +5856,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.33333333333333" style="70" customWidth="1"/>
-    <col min="2" max="2" width="64.1083333333333" style="70" customWidth="1"/>
-    <col min="3" max="3" width="11.4416666666667" style="70" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="70" customWidth="1"/>
-    <col min="5" max="5" width="21.2166666666667" style="70" customWidth="1"/>
-    <col min="6" max="6" width="32.8833333333333" style="70" customWidth="1"/>
-    <col min="7" max="7" width="9" style="70"/>
-    <col min="8" max="8" width="26" style="70" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="70"/>
+    <col min="1" max="1" width="3.33333333333333" style="68" customWidth="1"/>
+    <col min="2" max="2" width="64.1083333333333" style="68" customWidth="1"/>
+    <col min="3" max="3" width="11.4416666666667" style="68" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="68" customWidth="1"/>
+    <col min="5" max="5" width="21.2166666666667" style="68" customWidth="1"/>
+    <col min="6" max="6" width="32.8833333333333" style="68" customWidth="1"/>
+    <col min="7" max="7" width="9" style="68"/>
+    <col min="8" max="8" width="26" style="68" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="70">
+      <c r="A4" s="68">
         <v>1</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -5963,18 +5914,18 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" s="59" customFormat="1" spans="2:6">
-      <c r="B7" s="74" t="s">
+    <row r="7" s="57" customFormat="1" spans="2:6">
+      <c r="B7" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74" t="s">
+      <c r="C7" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="15" t="s">
@@ -5993,7 +5944,7 @@
       <c r="B9" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="15"/>
@@ -6002,18 +5953,18 @@
       </c>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" s="60" customFormat="1" spans="2:6">
-      <c r="B10" s="75" t="s">
+    <row r="10" s="58" customFormat="1" spans="2:6">
+      <c r="B10" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75" t="s">
+      <c r="C10" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="15" t="s">
@@ -6068,7 +6019,7 @@
       <c r="F14" s="15"/>
     </row>
     <row r="15" customFormat="1" spans="1:8">
-      <c r="A15" s="70"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -6082,17 +6033,17 @@
       <c r="F15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="70">
+      <c r="A18" s="68">
         <v>2</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -6127,35 +6078,35 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" s="59" customFormat="1" spans="2:6">
-      <c r="B21" s="74" t="s">
+    <row r="21" s="57" customFormat="1" spans="2:6">
+      <c r="B21" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74" t="s">
+      <c r="C21" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="74"/>
-    </row>
-    <row r="22" s="61" customFormat="1" spans="2:6">
-      <c r="B22" s="77" t="s">
+      <c r="F21" s="72"/>
+    </row>
+    <row r="22" s="59" customFormat="1" spans="2:6">
+      <c r="B22" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="77"/>
+      <c r="F22" s="75"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="15"/>
@@ -6217,7 +6168,7 @@
       <c r="F27" s="15"/>
     </row>
     <row r="28" customFormat="1" spans="1:8">
-      <c r="A28" s="70"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="15" t="s">
         <v>26</v>
       </c>
@@ -6231,17 +6182,17 @@
       <c r="F28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="70">
+      <c r="A31" s="68">
         <v>3</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -6276,19 +6227,19 @@
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" s="62" customFormat="1" spans="2:8">
-      <c r="B34" s="78" t="s">
+    <row r="34" s="60" customFormat="1" spans="2:8">
+      <c r="B34" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78" t="s">
+      <c r="C34" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="H34" s="62" t="str">
+      <c r="F34" s="76"/>
+      <c r="H34" s="60" t="str">
         <f>UPPER(B34)</f>
         <v>PLATFORM_DIRECTORY_CODE</v>
       </c>
@@ -6297,7 +6248,7 @@
       <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="15"/>
@@ -6310,7 +6261,7 @@
       <c r="B36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="15"/>
@@ -6325,7 +6276,7 @@
       <c r="B37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="15"/>
@@ -6340,7 +6291,7 @@
       <c r="B38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="15"/>
@@ -6402,7 +6353,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" customFormat="1" spans="1:8">
-      <c r="A43" s="70"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="15" t="s">
         <v>26</v>
       </c>
@@ -6416,17 +6367,17 @@
       <c r="F43" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="70">
+      <c r="A46" s="68">
         <v>4</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="73"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -6461,37 +6412,37 @@
       </c>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" s="62" customFormat="1" spans="2:6">
-      <c r="B49" s="78" t="s">
+    <row r="49" s="60" customFormat="1" spans="2:6">
+      <c r="B49" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78" t="s">
+      <c r="C49" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="78"/>
-    </row>
-    <row r="50" s="63" customFormat="1" spans="2:6">
-      <c r="B50" s="41" t="s">
+      <c r="F49" s="76"/>
+    </row>
+    <row r="50" s="61" customFormat="1" spans="2:6">
+      <c r="B50" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41" t="s">
+      <c r="C50" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="15"/>
@@ -6553,7 +6504,7 @@
       <c r="F55" s="15"/>
     </row>
     <row r="56" customFormat="1" spans="1:8">
-      <c r="A56" s="70"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="15" t="s">
         <v>26</v>
       </c>
@@ -6567,17 +6518,17 @@
       <c r="F56" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="70">
+      <c r="A59" s="68">
         <v>5</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="73"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -6612,24 +6563,24 @@
       </c>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" s="63" customFormat="1" spans="2:6">
-      <c r="B62" s="41" t="s">
+    <row r="62" s="61" customFormat="1" spans="2:6">
+      <c r="B62" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41" t="s">
+      <c r="C62" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="41"/>
+      <c r="F62" s="39"/>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="15"/>
@@ -6691,7 +6642,7 @@
       <c r="F67" s="15"/>
     </row>
     <row r="68" customFormat="1" spans="1:8">
-      <c r="A68" s="70"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="15" t="s">
         <v>26</v>
       </c>
@@ -6705,17 +6656,17 @@
       <c r="F68" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="70">
+      <c r="A72" s="68">
         <v>6</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="73"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -6751,60 +6702,60 @@
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81" t="s">
+      <c r="C75" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="81"/>
+      <c r="F75" s="79"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37" t="s">
+      <c r="C76" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F76" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37" t="s">
+      <c r="C77" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="37" t="s">
+      <c r="F77" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37" t="s">
+      <c r="C78" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F78" s="37" t="s">
+      <c r="F78" s="35" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6876,13 +6827,13 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="70">
-        <v>7</v>
-      </c>
-      <c r="B87" s="72" t="s">
+      <c r="A87" s="68">
+        <v>7</v>
+      </c>
+      <c r="B87" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="73"/>
+      <c r="C87" s="71"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -6917,24 +6868,24 @@
       </c>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" s="64" customFormat="1" spans="2:6">
-      <c r="B90" s="82" t="s">
+    <row r="90" s="62" customFormat="1" spans="2:6">
+      <c r="B90" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82" t="s">
+      <c r="C90" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F90" s="82"/>
+      <c r="F90" s="80"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="15"/>
@@ -6947,7 +6898,7 @@
       <c r="B92" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="15"/>
@@ -6960,7 +6911,7 @@
       <c r="B93" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="15"/>
@@ -6969,24 +6920,24 @@
       </c>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" s="65" customFormat="1" spans="2:6">
-      <c r="B94" s="84" t="s">
+    <row r="94" s="63" customFormat="1" spans="2:6">
+      <c r="B94" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="86" t="s">
+      <c r="C94" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="82"/>
+      <c r="E94" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="F94" s="84"/>
+      <c r="F94" s="82"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="15"/>
@@ -6999,7 +6950,7 @@
       <c r="B96" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="15"/>
@@ -7063,7 +7014,7 @@
       <c r="F100" s="15"/>
     </row>
     <row r="101" customFormat="1" spans="1:8">
-      <c r="A101" s="70"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="15" t="s">
         <v>26</v>
       </c>
@@ -7077,17 +7028,17 @@
       <c r="F101" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="70">
+      <c r="A104" s="68">
         <v>8</v>
       </c>
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C104" s="73"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -7122,31 +7073,31 @@
       </c>
       <c r="F106" s="13"/>
     </row>
-    <row r="107" s="64" customFormat="1" spans="2:6">
-      <c r="B107" s="82" t="s">
+    <row r="107" s="62" customFormat="1" spans="2:6">
+      <c r="B107" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82" t="s">
+      <c r="C107" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="82"/>
-    </row>
-    <row r="108" s="63" customFormat="1" spans="2:6">
-      <c r="B108" s="41" t="s">
+      <c r="F107" s="80"/>
+    </row>
+    <row r="108" s="61" customFormat="1" spans="2:6">
+      <c r="B108" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C108" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41" t="s">
+      <c r="C108" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F108" s="41"/>
+      <c r="F108" s="39"/>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="15" t="s">
@@ -7201,7 +7152,7 @@
       <c r="F112" s="15"/>
     </row>
     <row r="113" customFormat="1" spans="1:8">
-      <c r="A113" s="70"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="15" t="s">
         <v>26</v>
       </c>
@@ -7215,17 +7166,17 @@
       <c r="F113" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
+      <c r="G113" s="68"/>
+      <c r="H113" s="68"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="70">
+      <c r="A116" s="68">
         <v>9</v>
       </c>
-      <c r="B116" s="72" t="s">
+      <c r="B116" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="C116" s="73"/>
+      <c r="C116" s="71"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -7260,31 +7211,31 @@
       </c>
       <c r="F118" s="13"/>
     </row>
-    <row r="119" s="64" customFormat="1" spans="2:6">
-      <c r="B119" s="82" t="s">
+    <row r="119" s="62" customFormat="1" spans="2:6">
+      <c r="B119" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C119" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="82"/>
-      <c r="E119" s="82" t="s">
+      <c r="C119" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F119" s="82"/>
-    </row>
-    <row r="120" s="59" customFormat="1" spans="2:6">
-      <c r="B120" s="74" t="s">
+      <c r="F119" s="80"/>
+    </row>
+    <row r="120" s="57" customFormat="1" spans="2:6">
+      <c r="B120" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C120" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74" t="s">
+      <c r="C120" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="74"/>
+      <c r="F120" s="72"/>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="15" t="s">
@@ -7339,7 +7290,7 @@
       <c r="F124" s="15"/>
     </row>
     <row r="125" customFormat="1" spans="1:8">
-      <c r="A125" s="70"/>
+      <c r="A125" s="68"/>
       <c r="B125" s="15" t="s">
         <v>26</v>
       </c>
@@ -7353,17 +7304,17 @@
       <c r="F125" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="70">
+      <c r="A128" s="68">
         <v>10</v>
       </c>
-      <c r="B128" s="72" t="s">
+      <c r="B128" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C128" s="73"/>
+      <c r="C128" s="71"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -7398,31 +7349,31 @@
       </c>
       <c r="F130" s="13"/>
     </row>
-    <row r="131" s="64" customFormat="1" spans="2:6">
-      <c r="B131" s="82" t="s">
+    <row r="131" s="62" customFormat="1" spans="2:6">
+      <c r="B131" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C131" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82" t="s">
+      <c r="C131" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F131" s="82"/>
-    </row>
-    <row r="132" s="66" customFormat="1" spans="2:6">
-      <c r="B132" s="88" t="s">
+      <c r="F131" s="80"/>
+    </row>
+    <row r="132" s="64" customFormat="1" spans="2:6">
+      <c r="B132" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88" t="s">
+      <c r="C132" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="86"/>
+      <c r="E132" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="F132" s="88"/>
+      <c r="F132" s="86"/>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" s="15" t="s">
@@ -7477,7 +7428,7 @@
       <c r="F136" s="15"/>
     </row>
     <row r="137" customFormat="1" spans="1:8">
-      <c r="A137" s="70"/>
+      <c r="A137" s="68"/>
       <c r="B137" s="15" t="s">
         <v>26</v>
       </c>
@@ -7491,17 +7442,17 @@
       <c r="F137" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G137" s="70"/>
-      <c r="H137" s="70"/>
+      <c r="G137" s="68"/>
+      <c r="H137" s="68"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="70">
+      <c r="A140" s="68">
         <v>11</v>
       </c>
-      <c r="B140" s="72" t="s">
+      <c r="B140" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="C140" s="73"/>
+      <c r="C140" s="71"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -7536,31 +7487,31 @@
       </c>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" s="66" customFormat="1" spans="2:6">
-      <c r="B143" s="88" t="s">
+    <row r="143" s="64" customFormat="1" spans="2:6">
+      <c r="B143" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C143" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="88"/>
-      <c r="E143" s="88" t="s">
+      <c r="C143" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="86"/>
+      <c r="E143" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="F143" s="88"/>
-    </row>
-    <row r="144" s="67" customFormat="1" spans="2:6">
-      <c r="B144" s="37" t="s">
+      <c r="F143" s="86"/>
+    </row>
+    <row r="144" s="65" customFormat="1" spans="2:6">
+      <c r="B144" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C144" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37" t="s">
+      <c r="C144" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F144" s="37"/>
+      <c r="F144" s="35"/>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" s="15" t="s">
@@ -7615,7 +7566,7 @@
       <c r="F148" s="15"/>
     </row>
     <row r="149" customFormat="1" spans="1:8">
-      <c r="A149" s="70"/>
+      <c r="A149" s="68"/>
       <c r="B149" s="15" t="s">
         <v>26</v>
       </c>
@@ -7629,17 +7580,17 @@
       <c r="F149" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G149" s="70"/>
-      <c r="H149" s="70"/>
+      <c r="G149" s="68"/>
+      <c r="H149" s="68"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="70">
+      <c r="A152" s="68">
         <v>12</v>
       </c>
-      <c r="B152" s="72" t="s">
+      <c r="B152" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="73"/>
+      <c r="C152" s="71"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
@@ -7675,47 +7626,47 @@
       <c r="F154" s="13"/>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="90" t="s">
+      <c r="B155" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C155" s="90" t="s">
+      <c r="C155" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D155" s="90">
+      <c r="D155" s="88">
         <v>8</v>
       </c>
-      <c r="E155" s="91" t="s">
+      <c r="E155" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="F155" s="92"/>
+      <c r="F155" s="90"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="90" t="s">
+      <c r="B156" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C156" s="90" t="s">
+      <c r="C156" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D156" s="90">
+      <c r="D156" s="88">
         <v>10</v>
       </c>
-      <c r="E156" s="91" t="s">
+      <c r="E156" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F156" s="92"/>
-    </row>
-    <row r="157" s="68" customFormat="1" spans="2:6">
-      <c r="B157" s="93" t="s">
+      <c r="F156" s="90"/>
+    </row>
+    <row r="157" s="66" customFormat="1" spans="2:6">
+      <c r="B157" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C157" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" s="93"/>
-      <c r="E157" s="93" t="s">
+      <c r="C157" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="91"/>
+      <c r="E157" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F157" s="93"/>
+      <c r="F157" s="91"/>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" s="15" t="s">
@@ -7730,31 +7681,31 @@
       </c>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" s="60" customFormat="1" spans="2:6">
-      <c r="B159" s="75" t="s">
+    <row r="159" s="58" customFormat="1" spans="2:6">
+      <c r="B159" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C159" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="75"/>
-      <c r="E159" s="75" t="s">
+      <c r="C159" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="75"/>
-    </row>
-    <row r="160" s="64" customFormat="1" spans="2:6">
-      <c r="B160" s="82" t="s">
+      <c r="F159" s="73"/>
+    </row>
+    <row r="160" s="62" customFormat="1" spans="2:6">
+      <c r="B160" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C160" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="82"/>
-      <c r="E160" s="82" t="s">
+      <c r="C160" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="80"/>
+      <c r="E160" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F160" s="82"/>
+      <c r="F160" s="80"/>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" s="15" t="s">
@@ -7773,7 +7724,7 @@
       <c r="B162" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C162" s="35" t="s">
+      <c r="C162" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="15"/>
@@ -8001,7 +7952,7 @@
       <c r="F178" s="15"/>
     </row>
     <row r="179" customFormat="1" spans="1:8">
-      <c r="A179" s="70"/>
+      <c r="A179" s="68"/>
       <c r="B179" s="15" t="s">
         <v>26</v>
       </c>
@@ -8015,8 +7966,8 @@
       <c r="F179" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="68"/>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" s="15" t="s">
@@ -8036,13 +7987,13 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="70">
+      <c r="A184" s="68">
         <v>13</v>
       </c>
-      <c r="B184" s="72" t="s">
+      <c r="B184" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C184" s="73"/>
+      <c r="C184" s="71"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
@@ -8077,31 +8028,31 @@
       </c>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" s="68" customFormat="1" spans="2:6">
-      <c r="B187" s="93" t="s">
+    <row r="187" s="66" customFormat="1" spans="2:6">
+      <c r="B187" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C187" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="93"/>
-      <c r="E187" s="93" t="s">
+      <c r="C187" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="91"/>
+      <c r="E187" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F187" s="93"/>
-    </row>
-    <row r="188" s="69" customFormat="1" spans="2:6">
-      <c r="B188" s="94" t="s">
+      <c r="F187" s="91"/>
+    </row>
+    <row r="188" s="67" customFormat="1" spans="2:6">
+      <c r="B188" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C188" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="94"/>
-      <c r="E188" s="94" t="s">
+      <c r="C188" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="92"/>
+      <c r="E188" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F188" s="94"/>
+      <c r="F188" s="92"/>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" s="15" t="s">
@@ -8156,7 +8107,7 @@
       <c r="F192" s="15"/>
     </row>
     <row r="193" customFormat="1" spans="1:8">
-      <c r="A193" s="70"/>
+      <c r="A193" s="68"/>
       <c r="B193" s="15" t="s">
         <v>26</v>
       </c>
@@ -8170,22 +8121,22 @@
       <c r="F193" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G193" s="70"/>
-      <c r="H193" s="70"/>
+      <c r="G193" s="68"/>
+      <c r="H193" s="68"/>
     </row>
     <row r="194" spans="6:6">
-      <c r="F194" s="70" t="s">
+      <c r="F194" s="68" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="70">
+      <c r="A197" s="68">
         <v>14</v>
       </c>
-      <c r="B197" s="72" t="s">
+      <c r="B197" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C197" s="73"/>
+      <c r="C197" s="71"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
@@ -8221,85 +8172,85 @@
       <c r="F199" s="14"/>
     </row>
     <row r="200" spans="2:6">
-      <c r="B200" s="90" t="s">
+      <c r="B200" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C200" s="90" t="s">
+      <c r="C200" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D200" s="90" t="s">
+      <c r="D200" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E200" s="91" t="s">
+      <c r="E200" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="F200" s="92" t="s">
+      <c r="F200" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="201" spans="2:6">
-      <c r="B201" s="90" t="s">
+      <c r="B201" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C201" s="90" t="s">
+      <c r="C201" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D201" s="90" t="s">
+      <c r="D201" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="E201" s="91" t="s">
+      <c r="E201" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F201" s="92" t="s">
+      <c r="F201" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="202" spans="2:6">
-      <c r="B202" s="96" t="s">
+      <c r="B202" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="C202" s="96" t="s">
+      <c r="C202" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D202" s="96" t="s">
+      <c r="D202" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="E202" s="97" t="s">
+      <c r="E202" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="F202" s="98" t="s">
+      <c r="F202" s="96" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="203" s="67" customFormat="1" spans="2:6">
-      <c r="B203" s="82" t="s">
+    <row r="203" s="65" customFormat="1" spans="2:6">
+      <c r="B203" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C203" s="83" t="s">
+      <c r="C203" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="82" t="s">
+      <c r="D203" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="E203" s="82" t="s">
+      <c r="E203" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F203" s="82"/>
+      <c r="F203" s="80"/>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="80" t="s">
+      <c r="B204" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C204" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="81" t="s">
+      <c r="C204" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E204" s="81" t="s">
+      <c r="E204" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F204" s="81" t="s">
+      <c r="F204" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8307,31 +8258,31 @@
       <c r="B205" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C205" s="70" t="s">
+      <c r="C205" s="68" t="s">
         <v>169</v>
       </c>
       <c r="D205" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E205" s="50" t="s">
+      <c r="E205" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F205" s="14"/>
     </row>
     <row r="206" spans="2:6">
-      <c r="B206" s="80" t="s">
+      <c r="B206" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C206" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206" s="81" t="s">
+      <c r="C206" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E206" s="81" t="s">
+      <c r="E206" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F206" s="81" t="s">
+      <c r="F206" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8339,31 +8290,31 @@
       <c r="B207" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C207" s="70" t="s">
+      <c r="C207" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D207" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E207" s="50" t="s">
+      <c r="E207" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F207" s="14"/>
     </row>
     <row r="208" spans="2:6">
-      <c r="B208" s="80" t="s">
+      <c r="B208" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C208" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" s="81" t="s">
+      <c r="C208" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E208" s="81" t="s">
+      <c r="E208" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F208" s="81" t="s">
+      <c r="F208" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8371,7 +8322,7 @@
       <c r="B209" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C209" s="70" t="s">
+      <c r="C209" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D209" s="16" t="s">
@@ -8386,7 +8337,7 @@
       <c r="B210" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C210" s="70" t="s">
+      <c r="C210" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D210" s="16" t="s">
@@ -8401,7 +8352,7 @@
       <c r="B211" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C211" s="70" t="s">
+      <c r="C211" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D211" s="16" t="s">
@@ -8416,7 +8367,7 @@
       <c r="B212" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C212" s="70" t="s">
+      <c r="C212" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D212" s="16" t="s">
@@ -8443,13 +8394,13 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="70">
+      <c r="A216" s="68">
         <v>15</v>
       </c>
-      <c r="B216" s="72" t="s">
+      <c r="B216" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="C216" s="73"/>
+      <c r="C216" s="71"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
@@ -8485,36 +8436,36 @@
       <c r="F218" s="14"/>
     </row>
     <row r="219" spans="2:6">
-      <c r="B219" s="90" t="s">
+      <c r="B219" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C219" s="90" t="s">
+      <c r="C219" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D219" s="90" t="s">
+      <c r="D219" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E219" s="91" t="s">
+      <c r="E219" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="F219" s="92" t="s">
+      <c r="F219" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="90" t="s">
+      <c r="B220" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C220" s="90" t="s">
+      <c r="C220" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D220" s="90" t="s">
+      <c r="D220" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="E220" s="91" t="s">
+      <c r="E220" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F220" s="92" t="s">
+      <c r="F220" s="90" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8528,44 +8479,44 @@
       <c r="D221" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E221" s="50" t="s">
+      <c r="E221" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F221" s="51" t="s">
+      <c r="F221" s="49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="222" s="68" customFormat="1" spans="1:7">
-      <c r="A222" s="70"/>
-      <c r="B222" s="68" t="s">
+    <row r="222" s="66" customFormat="1" spans="1:7">
+      <c r="A222" s="68"/>
+      <c r="B222" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C222" s="93" t="s">
+      <c r="C222" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D222" s="93" t="s">
+      <c r="D222" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="E222" s="93" t="s">
+      <c r="E222" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F222" s="93"/>
-      <c r="G222" s="93"/>
+      <c r="F222" s="91"/>
+      <c r="G222" s="91"/>
     </row>
     <row r="223" spans="2:6">
-      <c r="B223" s="80" t="s">
+      <c r="B223" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C223" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" s="81" t="s">
+      <c r="C223" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E223" s="81" t="s">
+      <c r="E223" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F223" s="81" t="s">
+      <c r="F223" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8573,31 +8524,31 @@
       <c r="B224" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C224" s="70" t="s">
+      <c r="C224" s="68" t="s">
         <v>169</v>
       </c>
       <c r="D224" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E224" s="50" t="s">
+      <c r="E224" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F224" s="14"/>
     </row>
     <row r="225" spans="2:6">
-      <c r="B225" s="80" t="s">
+      <c r="B225" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C225" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="81" t="s">
+      <c r="C225" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E225" s="81" t="s">
+      <c r="E225" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F225" s="81" t="s">
+      <c r="F225" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8605,31 +8556,31 @@
       <c r="B226" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C226" s="70" t="s">
+      <c r="C226" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D226" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E226" s="50" t="s">
+      <c r="E226" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F226" s="14"/>
     </row>
     <row r="227" spans="2:6">
-      <c r="B227" s="80" t="s">
+      <c r="B227" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C227" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="81" t="s">
+      <c r="C227" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E227" s="81" t="s">
+      <c r="E227" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F227" s="81" t="s">
+      <c r="F227" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8637,7 +8588,7 @@
       <c r="B228" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C228" s="70" t="s">
+      <c r="C228" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="16" t="s">
@@ -8652,7 +8603,7 @@
       <c r="B229" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C229" s="70" t="s">
+      <c r="C229" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D229" s="16" t="s">
@@ -8667,7 +8618,7 @@
       <c r="B230" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C230" s="70" t="s">
+      <c r="C230" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D230" s="16" t="s">
@@ -8682,7 +8633,7 @@
       <c r="B231" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C231" s="70" t="s">
+      <c r="C231" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D231" s="16" t="s">
@@ -8709,13 +8660,13 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="70">
+      <c r="A235" s="68">
         <v>16</v>
       </c>
-      <c r="B235" s="72" t="s">
+      <c r="B235" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="C235" s="73"/>
+      <c r="C235" s="71"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
@@ -8751,100 +8702,100 @@
       <c r="F237" s="14"/>
     </row>
     <row r="238" spans="2:6">
-      <c r="B238" s="90" t="s">
+      <c r="B238" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C238" s="90" t="s">
+      <c r="C238" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D238" s="90" t="s">
+      <c r="D238" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E238" s="91" t="s">
+      <c r="E238" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="F238" s="92" t="s">
+      <c r="F238" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="239" spans="2:6">
-      <c r="B239" s="90" t="s">
+      <c r="B239" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C239" s="90" t="s">
+      <c r="C239" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D239" s="90" t="s">
+      <c r="D239" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="E239" s="91" t="s">
+      <c r="E239" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="F239" s="92" t="s">
+      <c r="F239" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="240" spans="2:6">
-      <c r="B240" s="96" t="s">
+      <c r="B240" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="C240" s="96" t="s">
+      <c r="C240" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D240" s="96" t="s">
+      <c r="D240" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="E240" s="97" t="s">
+      <c r="E240" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="F240" s="98" t="s">
+      <c r="F240" s="96" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="241" s="18" customFormat="1" spans="2:6">
-      <c r="B241" s="99" t="s">
+      <c r="B241" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C241" s="99" t="s">
+      <c r="C241" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D241" s="99" t="s">
+      <c r="D241" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="E241" s="100" t="s">
+      <c r="E241" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="F241" s="101"/>
+      <c r="F241" s="99"/>
     </row>
     <row r="242" spans="2:6">
-      <c r="B242" s="82" t="s">
+      <c r="B242" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C242" s="83" t="s">
+      <c r="C242" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D242" s="82" t="s">
+      <c r="D242" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="E242" s="82" t="s">
+      <c r="E242" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="F242" s="82"/>
+      <c r="F242" s="80"/>
     </row>
     <row r="243" spans="2:6">
-      <c r="B243" s="80" t="s">
+      <c r="B243" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C243" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" s="81" t="s">
+      <c r="C243" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E243" s="81" t="s">
+      <c r="E243" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F243" s="81" t="s">
+      <c r="F243" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8852,31 +8803,31 @@
       <c r="B244" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C244" s="70" t="s">
+      <c r="C244" s="68" t="s">
         <v>169</v>
       </c>
       <c r="D244" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E244" s="50" t="s">
+      <c r="E244" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F244" s="14"/>
     </row>
     <row r="245" spans="2:6">
-      <c r="B245" s="80" t="s">
+      <c r="B245" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C245" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" s="81" t="s">
+      <c r="C245" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E245" s="81" t="s">
+      <c r="E245" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F245" s="81" t="s">
+      <c r="F245" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8884,31 +8835,31 @@
       <c r="B246" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C246" s="70" t="s">
+      <c r="C246" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D246" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E246" s="50" t="s">
+      <c r="E246" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F246" s="14"/>
     </row>
     <row r="247" spans="2:6">
-      <c r="B247" s="80" t="s">
+      <c r="B247" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C247" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="81" t="s">
+      <c r="C247" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E247" s="81" t="s">
+      <c r="E247" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F247" s="81" t="s">
+      <c r="F247" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -8916,7 +8867,7 @@
       <c r="B248" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C248" s="70" t="s">
+      <c r="C248" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D248" s="16" t="s">
@@ -8931,7 +8882,7 @@
       <c r="B249" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C249" s="70" t="s">
+      <c r="C249" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -8946,7 +8897,7 @@
       <c r="B250" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C250" s="70" t="s">
+      <c r="C250" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D250" s="16" t="s">
@@ -8961,7 +8912,7 @@
       <c r="B251" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C251" s="70" t="s">
+      <c r="C251" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D251" s="16" t="s">
@@ -8988,13 +8939,13 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="70">
+      <c r="A256" s="68">
         <v>17</v>
       </c>
-      <c r="B256" s="72" t="s">
+      <c r="B256" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C256" s="73"/>
+      <c r="C256" s="71"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
@@ -9030,36 +8981,36 @@
       <c r="F258" s="14"/>
     </row>
     <row r="259" spans="2:6">
-      <c r="B259" s="90" t="s">
+      <c r="B259" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C259" s="90" t="s">
+      <c r="C259" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D259" s="90" t="s">
+      <c r="D259" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="E259" s="91" t="s">
+      <c r="E259" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="F259" s="92" t="s">
+      <c r="F259" s="90" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="260" spans="2:6">
-      <c r="B260" s="90" t="s">
+      <c r="B260" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C260" s="90" t="s">
+      <c r="C260" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D260" s="90" t="s">
+      <c r="D260" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="E260" s="91" t="s">
+      <c r="E260" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="F260" s="92" t="s">
+      <c r="F260" s="90" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9073,57 +9024,57 @@
       <c r="D261" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E261" s="50" t="s">
+      <c r="E261" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F261" s="51" t="s">
+      <c r="F261" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="262" spans="2:6">
-      <c r="B262" s="99" t="s">
+      <c r="B262" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C262" s="99" t="s">
+      <c r="C262" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D262" s="99" t="s">
+      <c r="D262" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="E262" s="100" t="s">
+      <c r="E262" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="F262" s="101"/>
+      <c r="F262" s="99"/>
     </row>
     <row r="263" spans="2:6">
-      <c r="B263" s="93" t="s">
+      <c r="B263" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C263" s="93" t="s">
+      <c r="C263" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D263" s="93" t="s">
+      <c r="D263" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="E263" s="93" t="s">
+      <c r="E263" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F263" s="93"/>
+      <c r="F263" s="91"/>
     </row>
     <row r="264" spans="2:6">
-      <c r="B264" s="80" t="s">
+      <c r="B264" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C264" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" s="81" t="s">
+      <c r="C264" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E264" s="81" t="s">
+      <c r="E264" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F264" s="81" t="s">
+      <c r="F264" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9137,25 +9088,25 @@
       <c r="D265" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E265" s="50" t="s">
+      <c r="E265" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F265" s="14"/>
     </row>
     <row r="266" spans="2:6">
-      <c r="B266" s="80" t="s">
+      <c r="B266" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C266" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" s="81" t="s">
+      <c r="C266" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E266" s="81" t="s">
+      <c r="E266" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F266" s="81" t="s">
+      <c r="F266" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9169,25 +9120,25 @@
       <c r="D267" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E267" s="50" t="s">
+      <c r="E267" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F267" s="14"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="80" t="s">
+      <c r="B268" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C268" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" s="81" t="s">
+      <c r="C268" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="E268" s="81" t="s">
+      <c r="E268" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="F268" s="81" t="s">
+      <c r="F268" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9267,13 +9218,13 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="70">
+      <c r="A279" s="68">
         <v>18</v>
       </c>
-      <c r="B279" s="72" t="s">
+      <c r="B279" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="C279" s="73"/>
+      <c r="C279" s="71"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
@@ -9309,19 +9260,19 @@
       <c r="F281" s="14"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="99" t="s">
+      <c r="B282" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C282" s="99" t="s">
+      <c r="C282" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D282" s="102" t="s">
+      <c r="D282" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="E282" s="102" t="s">
+      <c r="E282" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="F282" s="103" t="s">
+      <c r="F282" s="101" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9329,7 +9280,7 @@
       <c r="B283" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C283" s="104" t="s">
+      <c r="C283" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="29" t="s">
@@ -9338,79 +9289,79 @@
       <c r="E283" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F283" s="51"/>
+      <c r="F283" s="49"/>
     </row>
     <row r="284" spans="2:6">
       <c r="B284" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C284" s="104" t="s">
+      <c r="C284" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E284" s="50" t="s">
+      <c r="E284" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F284" s="51"/>
+      <c r="F284" s="49"/>
     </row>
     <row r="285" spans="2:6">
       <c r="B285" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C285" s="104" t="s">
+      <c r="C285" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E285" s="50" t="s">
+      <c r="E285" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="F285" s="105"/>
+      <c r="F285" s="103"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="B286" s="37" t="s">
+      <c r="B286" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C286" s="104" t="s">
+      <c r="C286" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E286" s="37" t="s">
+      <c r="E286" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F286" s="37"/>
+      <c r="F286" s="35"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="106" t="s">
+      <c r="B287" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="C287" s="104" t="s">
+      <c r="C287" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E287" s="37" t="s">
+      <c r="E287" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F287" s="37"/>
+      <c r="F287" s="35"/>
     </row>
     <row r="288" spans="2:6">
       <c r="B288" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C288" s="104" t="s">
+      <c r="C288" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E288" s="50" t="s">
+      <c r="E288" s="48" t="s">
         <v>210</v>
       </c>
       <c r="F288" s="14"/>
@@ -9419,97 +9370,97 @@
       <c r="B289" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C289" s="104" t="s">
+      <c r="C289" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E289" s="37" t="s">
+      <c r="E289" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F289" s="37"/>
+      <c r="F289" s="35"/>
     </row>
     <row r="290" spans="2:6">
       <c r="B290" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C290" s="104" t="s">
+      <c r="C290" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E290" s="50" t="s">
+      <c r="E290" s="48" t="s">
         <v>214</v>
       </c>
       <c r="F290" s="14"/>
     </row>
     <row r="291" spans="2:6">
-      <c r="B291" s="81" t="s">
+      <c r="B291" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="C291" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D291" s="81" t="s">
+      <c r="C291" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E291" s="81" t="s">
+      <c r="E291" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="F291" s="81" t="s">
+      <c r="F291" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="292" spans="2:6">
-      <c r="B292" s="81" t="s">
+      <c r="B292" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="C292" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D292" s="81" t="s">
+      <c r="C292" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E292" s="81" t="s">
+      <c r="E292" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="F292" s="81" t="s">
+      <c r="F292" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="293" spans="2:6">
-      <c r="B293" s="81" t="s">
+      <c r="B293" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C293" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D293" s="81" t="s">
+      <c r="C293" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E293" s="81" t="s">
+      <c r="E293" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="F293" s="81" t="s">
+      <c r="F293" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="294" spans="2:6">
-      <c r="B294" s="81" t="s">
+      <c r="B294" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="C294" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294" s="81" t="s">
+      <c r="C294" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E294" s="81" t="s">
+      <c r="E294" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="F294" s="81" t="s">
+      <c r="F294" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9517,7 +9468,7 @@
       <c r="B295" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C295" s="104" t="s">
+      <c r="C295" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D295" s="29" t="s">
@@ -9532,7 +9483,7 @@
       <c r="B296" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C296" s="104" t="s">
+      <c r="C296" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D296" s="14" t="s">
@@ -9547,7 +9498,7 @@
       <c r="B297" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C297" s="104" t="s">
+      <c r="C297" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D297" s="29" t="s">
@@ -9562,7 +9513,7 @@
       <c r="B298" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C298" s="104" t="s">
+      <c r="C298" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D298" s="29" t="s">
@@ -9574,27 +9525,27 @@
       <c r="F298" s="14"/>
     </row>
     <row r="299" spans="2:6">
-      <c r="B299" s="81" t="s">
+      <c r="B299" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C299" s="81" t="s">
+      <c r="C299" s="79" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E299" s="81" t="s">
+      <c r="E299" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F299" s="81" t="s">
+      <c r="F299" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="300" spans="2:6">
-      <c r="B300" s="37" t="s">
+      <c r="B300" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C300" s="104" t="s">
+      <c r="C300" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="29" t="s">
@@ -9603,19 +9554,19 @@
       <c r="E300" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F300" s="37"/>
+      <c r="F300" s="35"/>
     </row>
     <row r="301" spans="2:6">
-      <c r="B301" s="37" t="s">
+      <c r="B301" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C301" s="104" t="s">
+      <c r="C301" s="102" t="s">
         <v>235</v>
       </c>
       <c r="D301" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E301" s="37" t="s">
+      <c r="E301" s="35" t="s">
         <v>116</v>
       </c>
       <c r="F301" s="15" t="s">
@@ -9623,10 +9574,10 @@
       </c>
     </row>
     <row r="302" spans="2:6">
-      <c r="B302" s="37" t="s">
+      <c r="B302" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C302" s="104" t="s">
+      <c r="C302" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D302" s="29" t="s">
@@ -9635,7 +9586,7 @@
       <c r="E302" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F302" s="37"/>
+      <c r="F302" s="35"/>
     </row>
     <row r="303" spans="2:6">
       <c r="B303" s="14" t="s">
@@ -9713,13 +9664,13 @@
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="70">
+      <c r="A310" s="68">
         <v>19</v>
       </c>
-      <c r="B310" s="72" t="s">
+      <c r="B310" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C310" s="73"/>
+      <c r="C310" s="71"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
@@ -9755,19 +9706,19 @@
       <c r="F312" s="14"/>
     </row>
     <row r="313" spans="2:6">
-      <c r="B313" s="107" t="s">
+      <c r="B313" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="C313" s="107" t="s">
+      <c r="C313" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D313" s="108" t="s">
+      <c r="D313" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="E313" s="108" t="s">
+      <c r="E313" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="F313" s="109" t="s">
+      <c r="F313" s="107" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9775,7 +9726,7 @@
       <c r="B314" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C314" s="104" t="s">
+      <c r="C314" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D314" s="29" t="s">
@@ -9784,79 +9735,79 @@
       <c r="E314" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F314" s="51"/>
+      <c r="F314" s="49"/>
     </row>
     <row r="315" spans="2:6">
       <c r="B315" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C315" s="104" t="s">
+      <c r="C315" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E315" s="50" t="s">
+      <c r="E315" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="F315" s="51"/>
+      <c r="F315" s="49"/>
     </row>
     <row r="316" spans="2:6">
       <c r="B316" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C316" s="104" t="s">
+      <c r="C316" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E316" s="50" t="s">
+      <c r="E316" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="F316" s="105"/>
+      <c r="F316" s="103"/>
     </row>
     <row r="317" spans="2:6">
-      <c r="B317" s="37" t="s">
+      <c r="B317" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C317" s="104" t="s">
+      <c r="C317" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D317" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E317" s="37" t="s">
+      <c r="E317" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F317" s="37"/>
+      <c r="F317" s="35"/>
     </row>
     <row r="318" spans="2:6">
-      <c r="B318" s="106" t="s">
+      <c r="B318" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="C318" s="104" t="s">
+      <c r="C318" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D318" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E318" s="37" t="s">
+      <c r="E318" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="F318" s="37"/>
+      <c r="F318" s="35"/>
     </row>
     <row r="319" spans="2:6">
       <c r="B319" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C319" s="104" t="s">
+      <c r="C319" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D319" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E319" s="50" t="s">
+      <c r="E319" s="48" t="s">
         <v>210</v>
       </c>
       <c r="F319" s="14"/>
@@ -9865,97 +9816,97 @@
       <c r="B320" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C320" s="104" t="s">
+      <c r="C320" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D320" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E320" s="37" t="s">
+      <c r="E320" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F320" s="37"/>
+      <c r="F320" s="35"/>
     </row>
     <row r="321" spans="2:6">
       <c r="B321" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C321" s="104" t="s">
+      <c r="C321" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D321" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E321" s="50" t="s">
+      <c r="E321" s="48" t="s">
         <v>214</v>
       </c>
       <c r="F321" s="14"/>
     </row>
     <row r="322" spans="2:6">
-      <c r="B322" s="81" t="s">
+      <c r="B322" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="C322" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D322" s="81" t="s">
+      <c r="C322" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E322" s="81" t="s">
+      <c r="E322" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="F322" s="81" t="s">
+      <c r="F322" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="323" spans="2:6">
-      <c r="B323" s="81" t="s">
+      <c r="B323" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="C323" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D323" s="81" t="s">
+      <c r="C323" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E323" s="81" t="s">
+      <c r="E323" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="F323" s="81" t="s">
+      <c r="F323" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="324" spans="2:6">
-      <c r="B324" s="81" t="s">
+      <c r="B324" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C324" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D324" s="81" t="s">
+      <c r="C324" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E324" s="81" t="s">
+      <c r="E324" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="F324" s="81" t="s">
+      <c r="F324" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="325" spans="2:6">
-      <c r="B325" s="81" t="s">
+      <c r="B325" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="C325" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D325" s="81" t="s">
+      <c r="C325" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E325" s="81" t="s">
+      <c r="E325" s="79" t="s">
         <v>223</v>
       </c>
-      <c r="F325" s="81" t="s">
+      <c r="F325" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9963,7 +9914,7 @@
       <c r="B326" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C326" s="104" t="s">
+      <c r="C326" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D326" s="29" t="s">
@@ -9978,7 +9929,7 @@
       <c r="B327" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C327" s="104" t="s">
+      <c r="C327" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D327" s="14" t="s">
@@ -9993,7 +9944,7 @@
       <c r="B328" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C328" s="104" t="s">
+      <c r="C328" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D328" s="29" t="s">
@@ -10008,7 +9959,7 @@
       <c r="B329" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C329" s="104" t="s">
+      <c r="C329" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D329" s="29" t="s">
@@ -10020,27 +9971,27 @@
       <c r="F329" s="14"/>
     </row>
     <row r="330" spans="2:6">
-      <c r="B330" s="81" t="s">
+      <c r="B330" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C330" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330" s="81" t="s">
+      <c r="C330" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="E330" s="81" t="s">
+      <c r="E330" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="F330" s="81" t="s">
+      <c r="F330" s="79" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="331" spans="2:6">
-      <c r="B331" s="37" t="s">
+      <c r="B331" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C331" s="104" t="s">
+      <c r="C331" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D331" s="29" t="s">
@@ -10049,19 +10000,19 @@
       <c r="E331" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F331" s="37"/>
+      <c r="F331" s="35"/>
     </row>
     <row r="332" spans="2:6">
-      <c r="B332" s="37" t="s">
+      <c r="B332" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C332" s="104" t="s">
+      <c r="C332" s="102" t="s">
         <v>235</v>
       </c>
       <c r="D332" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E332" s="37" t="s">
+      <c r="E332" s="35" t="s">
         <v>116</v>
       </c>
       <c r="F332" s="15" t="s">
@@ -10069,10 +10020,10 @@
       </c>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="37" t="s">
+      <c r="B333" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C333" s="104" t="s">
+      <c r="C333" s="102" t="s">
         <v>7</v>
       </c>
       <c r="D333" s="29" t="s">
@@ -10081,7 +10032,7 @@
       <c r="E333" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F333" s="37"/>
+      <c r="F333" s="35"/>
     </row>
     <row r="334" spans="2:6">
       <c r="B334" s="14" t="s">
@@ -10159,13 +10110,13 @@
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="70">
+      <c r="A342" s="68">
         <v>20</v>
       </c>
-      <c r="B342" s="72" t="s">
+      <c r="B342" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C342" s="73"/>
+      <c r="C342" s="71"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
@@ -10201,67 +10152,67 @@
       <c r="F344" s="14"/>
     </row>
     <row r="345" spans="2:6">
-      <c r="B345" s="110" t="s">
+      <c r="B345" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="C345" s="110" t="s">
+      <c r="C345" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D345" s="111" t="s">
+      <c r="D345" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="E345" s="112" t="s">
+      <c r="E345" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F345" s="113" t="s">
+      <c r="F345" s="111" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="346" spans="2:6">
-      <c r="B346" s="107" t="s">
+      <c r="B346" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="C346" s="107" t="s">
+      <c r="C346" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D346" s="108" t="s">
+      <c r="D346" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="E346" s="108" t="s">
+      <c r="E346" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="F346" s="109"/>
+      <c r="F346" s="107"/>
     </row>
     <row r="347" spans="2:7">
-      <c r="B347" s="93" t="s">
+      <c r="B347" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C347" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D347" s="93" t="s">
+      <c r="C347" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="E347" s="93" t="s">
+      <c r="E347" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F347" s="93"/>
-      <c r="G347" s="37"/>
+      <c r="F347" s="91"/>
+      <c r="G347" s="35"/>
     </row>
     <row r="348" spans="2:6">
-      <c r="B348" s="80" t="s">
+      <c r="B348" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C348" s="81" t="s">
+      <c r="C348" s="79" t="s">
         <v>7</v>
       </c>
       <c r="D348" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E348" s="54" t="s">
+      <c r="E348" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="F348" s="81" t="s">
+      <c r="F348" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10269,31 +10220,31 @@
       <c r="B349" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C349" s="37" t="s">
+      <c r="C349" s="35" t="s">
         <v>169</v>
       </c>
       <c r="D349" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E349" s="54" t="s">
+      <c r="E349" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="F349" s="37"/>
+      <c r="F349" s="35"/>
     </row>
     <row r="350" spans="2:6">
-      <c r="B350" s="80" t="s">
+      <c r="B350" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C350" s="81" t="s">
+      <c r="C350" s="79" t="s">
         <v>7</v>
       </c>
       <c r="D350" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E350" s="54" t="s">
+      <c r="E350" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="F350" s="81" t="s">
+      <c r="F350" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10307,25 +10258,25 @@
       <c r="D351" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E351" s="54" t="s">
+      <c r="E351" s="52" t="s">
         <v>175</v>
       </c>
       <c r="F351" s="14"/>
     </row>
     <row r="352" spans="2:6">
-      <c r="B352" s="80" t="s">
+      <c r="B352" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C352" s="81" t="s">
+      <c r="C352" s="79" t="s">
         <v>7</v>
       </c>
       <c r="D352" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E352" s="54" t="s">
+      <c r="E352" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="F352" s="81" t="s">
+      <c r="F352" s="79" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10407,13 +10358,13 @@
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="70">
+      <c r="A361" s="68">
         <v>21</v>
       </c>
-      <c r="B361" s="72" t="s">
+      <c r="B361" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="C361" s="73"/>
+      <c r="C361" s="71"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
@@ -10570,13 +10521,13 @@
       </c>
     </row>
     <row r="374" spans="1:6">
-      <c r="A374" s="70">
+      <c r="A374" s="68">
         <v>22</v>
       </c>
-      <c r="B374" s="72" t="s">
+      <c r="B374" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="C374" s="73"/>
+      <c r="C374" s="71"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
@@ -10611,18 +10562,18 @@
       </c>
       <c r="F376" s="14"/>
     </row>
-    <row r="377" s="65" customFormat="1" spans="2:6">
-      <c r="B377" s="84" t="s">
+    <row r="377" s="63" customFormat="1" spans="2:6">
+      <c r="B377" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C377" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D377" s="84"/>
-      <c r="E377" s="84" t="s">
+      <c r="C377" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" s="82"/>
+      <c r="E377" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="F377" s="84"/>
+      <c r="F377" s="82"/>
     </row>
     <row r="378" spans="2:6">
       <c r="B378" s="14" t="s">
@@ -10717,8 +10668,8 @@
   <sheetPr/>
   <dimension ref="A2:M642"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D300" workbookViewId="0">
-      <selection activeCell="M313" sqref="M313"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13191,14 +13142,14 @@
       <c r="F173" s="29"/>
     </row>
     <row r="174" s="2" customFormat="1" spans="2:6">
-      <c r="B174" s="32" t="s">
+      <c r="B174" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D174" s="27"/>
-      <c r="E174" s="33" t="s">
+      <c r="E174" s="27" t="s">
         <v>399</v>
       </c>
       <c r="F174" s="29"/>
@@ -13348,7 +13299,7 @@
       <c r="F186" s="21"/>
     </row>
     <row r="187" s="1" customFormat="1" spans="2:6">
-      <c r="B187" s="34" t="s">
+      <c r="B187" s="32" t="s">
         <v>401</v>
       </c>
       <c r="C187" s="22" t="s">
@@ -13492,7 +13443,7 @@
       <c r="F198" s="14"/>
     </row>
     <row r="199" spans="2:6">
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="32" t="s">
         <v>401</v>
       </c>
       <c r="C199" s="22" t="s">
@@ -13505,7 +13456,7 @@
       <c r="F199" s="21"/>
     </row>
     <row r="200" spans="2:6">
-      <c r="B200" s="34" t="s">
+      <c r="B200" s="32" t="s">
         <v>404</v>
       </c>
       <c r="C200" s="22" t="s">
@@ -13806,30 +13757,30 @@
       <c r="F224" s="13"/>
     </row>
     <row r="225" s="4" customFormat="1" spans="2:6">
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C225" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" s="35"/>
-      <c r="E225" s="35" t="s">
+      <c r="C225" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F225" s="35"/>
+      <c r="F225" s="33"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="37" t="s">
+      <c r="B226" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C226" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" s="37"/>
-      <c r="E226" s="37" t="s">
+      <c r="C226" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="35"/>
+      <c r="E226" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F226" s="37"/>
+      <c r="F226" s="35"/>
     </row>
     <row r="227" spans="2:6">
       <c r="B227" s="15" t="s">
@@ -13979,7 +13930,7 @@
       <c r="B239" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C239" s="36" t="s">
+      <c r="C239" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D239" s="15"/>
@@ -13992,7 +13943,7 @@
       <c r="B240" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D240" s="15"/>
@@ -14007,7 +13958,7 @@
       <c r="B241" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="C241" s="39" t="s">
+      <c r="C241" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D241" s="22"/>
@@ -14022,7 +13973,7 @@
       <c r="B242" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="C242" s="36" t="s">
+      <c r="C242" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D242" s="15"/>
@@ -14179,20 +14130,20 @@
       <c r="B255" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="C255" s="40" t="s">
+      <c r="C255" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="27"/>
       <c r="E255" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="F255" s="41"/>
+      <c r="F255" s="39"/>
     </row>
     <row r="256" spans="2:6">
       <c r="B256" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="C256" s="40" t="s">
+      <c r="C256" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="27"/>
@@ -14333,7 +14284,7 @@
       <c r="F267" s="13"/>
     </row>
     <row r="268" s="1" customFormat="1" spans="2:6">
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="32" t="s">
         <v>429</v>
       </c>
       <c r="C268" s="22" t="s">
@@ -14349,7 +14300,7 @@
       <c r="B269" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="C269" s="40" t="s">
+      <c r="C269" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D269" s="27"/>
@@ -14362,7 +14313,7 @@
       <c r="B270" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C270" s="36" t="s">
+      <c r="C270" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D270" s="15"/>
@@ -14503,49 +14454,49 @@
       <c r="F281" s="13"/>
     </row>
     <row r="282" spans="2:6">
-      <c r="B282" s="35" t="s">
+      <c r="B282" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="C282" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D282" s="35"/>
-      <c r="E282" s="35" t="s">
+      <c r="C282" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="F282" s="35"/>
+      <c r="F282" s="33"/>
     </row>
     <row r="283" spans="2:6">
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="C283" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283" s="35"/>
-      <c r="E283" s="35" t="s">
+      <c r="C283" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="33"/>
+      <c r="E283" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="F283" s="35"/>
+      <c r="F283" s="33"/>
     </row>
     <row r="284" spans="2:6">
-      <c r="B284" s="35" t="s">
+      <c r="B284" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C284" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" s="35"/>
-      <c r="E284" s="35" t="s">
+      <c r="C284" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="F284" s="35"/>
+      <c r="F284" s="33"/>
     </row>
     <row r="285" s="1" customFormat="1" spans="2:6">
       <c r="B285" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C285" s="39" t="s">
+      <c r="C285" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="23"/>
@@ -14555,69 +14506,69 @@
       <c r="F285" s="23"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="B286" s="35" t="s">
+      <c r="B286" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C286" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" s="35"/>
-      <c r="E286" s="35" t="s">
+      <c r="C286" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="33"/>
+      <c r="E286" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F286" s="35"/>
+      <c r="F286" s="33"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="35" t="s">
+      <c r="B287" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C287" s="35" t="s">
+      <c r="C287" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D287" s="35"/>
-      <c r="E287" s="35" t="s">
+      <c r="D287" s="33"/>
+      <c r="E287" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F287" s="35"/>
+      <c r="F287" s="33"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="35" t="s">
+      <c r="B288" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C288" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D288" s="35"/>
-      <c r="E288" s="35" t="s">
+      <c r="C288" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="33"/>
+      <c r="E288" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F288" s="35"/>
+      <c r="F288" s="33"/>
     </row>
     <row r="289" spans="2:6">
-      <c r="B289" s="35" t="s">
+      <c r="B289" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C289" s="35" t="s">
+      <c r="C289" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D289" s="35"/>
-      <c r="E289" s="35" t="s">
+      <c r="D289" s="33"/>
+      <c r="E289" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F289" s="35"/>
+      <c r="F289" s="33"/>
     </row>
     <row r="290" spans="2:6">
-      <c r="B290" s="35" t="s">
+      <c r="B290" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C290" s="35" t="s">
+      <c r="C290" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D290" s="35"/>
-      <c r="E290" s="35" t="s">
+      <c r="D290" s="33"/>
+      <c r="E290" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F290" s="35" t="s">
+      <c r="F290" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -14715,7 +14666,7 @@
       <c r="B299" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="C299" s="40" t="s">
+      <c r="C299" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="28"/>
@@ -15046,21 +14997,21 @@
       <c r="M323" s="13"/>
     </row>
     <row r="324" spans="2:13">
-      <c r="B324" s="42" t="s">
+      <c r="B324" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C324" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D324" s="42"/>
-      <c r="E324" s="42" t="s">
+      <c r="C324" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" s="40"/>
+      <c r="E324" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F324" s="42"/>
+      <c r="F324" s="40"/>
       <c r="I324" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="J324" s="39" t="s">
+      <c r="J324" s="37" t="s">
         <v>7</v>
       </c>
       <c r="K324" s="23"/>
@@ -15070,21 +15021,21 @@
       <c r="M324" s="23"/>
     </row>
     <row r="325" spans="2:13">
-      <c r="B325" s="42" t="s">
+      <c r="B325" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C325" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D325" s="42"/>
-      <c r="E325" s="42" t="s">
+      <c r="C325" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="40"/>
+      <c r="E325" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F325" s="42"/>
+      <c r="F325" s="40"/>
       <c r="I325" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="J325" s="39" t="s">
+      <c r="J325" s="37" t="s">
         <v>7</v>
       </c>
       <c r="K325" s="23"/>
@@ -15097,7 +15048,7 @@
       <c r="B326" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="C326" s="39" t="s">
+      <c r="C326" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D326" s="23"/>
@@ -15105,23 +15056,23 @@
         <v>458</v>
       </c>
       <c r="F326" s="23"/>
-      <c r="I326" s="42" t="s">
+      <c r="I326" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J326" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K326" s="42"/>
-      <c r="L326" s="42" t="s">
+      <c r="J326" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K326" s="40"/>
+      <c r="L326" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M326" s="42"/>
+      <c r="M326" s="40"/>
     </row>
     <row r="327" s="1" customFormat="1" spans="2:13">
       <c r="B327" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="C327" s="39" t="s">
+      <c r="C327" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D327" s="23"/>
@@ -15129,23 +15080,23 @@
         <v>460</v>
       </c>
       <c r="F327" s="23"/>
-      <c r="I327" s="42" t="s">
+      <c r="I327" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J327" s="42" t="s">
+      <c r="J327" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K327" s="42"/>
-      <c r="L327" s="42" t="s">
+      <c r="K327" s="40"/>
+      <c r="L327" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M327" s="42"/>
+      <c r="M327" s="40"/>
     </row>
     <row r="328" s="1" customFormat="1" spans="2:13">
       <c r="B328" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="C328" s="39" t="s">
+      <c r="C328" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D328" s="23"/>
@@ -15153,82 +15104,82 @@
         <v>462</v>
       </c>
       <c r="F328" s="23"/>
-      <c r="I328" s="42" t="s">
+      <c r="I328" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J328" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K328" s="42"/>
-      <c r="L328" s="42" t="s">
+      <c r="J328" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K328" s="40"/>
+      <c r="L328" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="M328" s="42"/>
+      <c r="M328" s="40"/>
     </row>
     <row r="329" spans="2:13">
-      <c r="B329" s="42" t="s">
+      <c r="B329" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="C329" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D329" s="42"/>
-      <c r="E329" s="42" t="s">
+      <c r="C329" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" s="40"/>
+      <c r="E329" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F329" s="42" t="s">
+      <c r="F329" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="I329" s="42" t="s">
+      <c r="I329" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J329" s="42" t="s">
+      <c r="J329" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K329" s="42"/>
-      <c r="L329" s="42" t="s">
+      <c r="K329" s="40"/>
+      <c r="L329" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M329" s="42"/>
+      <c r="M329" s="40"/>
     </row>
     <row r="330" spans="2:13">
-      <c r="B330" s="42" t="s">
+      <c r="B330" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C330" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42" t="s">
+      <c r="C330" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" s="40"/>
+      <c r="E330" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F330" s="42"/>
-      <c r="I330" s="42" t="s">
+      <c r="F330" s="40"/>
+      <c r="I330" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J330" s="42" t="s">
+      <c r="J330" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42" t="s">
+      <c r="K330" s="40"/>
+      <c r="L330" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M330" s="42" t="s">
+      <c r="M330" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="331" spans="2:13">
-      <c r="B331" s="42" t="s">
+      <c r="B331" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C331" s="42" t="s">
+      <c r="C331" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D331" s="42"/>
-      <c r="E331" s="42" t="s">
+      <c r="D331" s="40"/>
+      <c r="E331" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F331" s="42"/>
+      <c r="F331" s="40"/>
       <c r="I331" s="17" t="s">
         <v>277</v>
       </c>
@@ -15244,43 +15195,43 @@
       </c>
     </row>
     <row r="332" spans="2:6">
-      <c r="B332" s="42" t="s">
+      <c r="B332" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C332" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42" t="s">
+      <c r="C332" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" s="40"/>
+      <c r="E332" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F332" s="42"/>
+      <c r="F332" s="40"/>
     </row>
     <row r="333" spans="2:6">
-      <c r="B333" s="42" t="s">
+      <c r="B333" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C333" s="42" t="s">
+      <c r="C333" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42" t="s">
+      <c r="D333" s="40"/>
+      <c r="E333" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F333" s="42"/>
+      <c r="F333" s="40"/>
     </row>
     <row r="334" spans="2:6">
-      <c r="B334" s="42" t="s">
+      <c r="B334" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C334" s="42" t="s">
+      <c r="C334" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D334" s="42"/>
-      <c r="E334" s="42" t="s">
+      <c r="D334" s="40"/>
+      <c r="E334" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F334" s="42" t="s">
+      <c r="F334" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15352,7 +15303,7 @@
       <c r="B341" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="C341" s="39" t="s">
+      <c r="C341" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D341" s="23"/>
@@ -15365,7 +15316,7 @@
       <c r="B342" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C342" s="39" t="s">
+      <c r="C342" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D342" s="23"/>
@@ -15509,7 +15460,7 @@
       <c r="B354" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="C354" s="39" t="s">
+      <c r="C354" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D354" s="23"/>
@@ -15522,7 +15473,7 @@
       <c r="B355" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C355" s="39" t="s">
+      <c r="C355" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D355" s="23"/>
@@ -15663,17 +15614,17 @@
       <c r="F366" s="13"/>
     </row>
     <row r="367" spans="2:6">
-      <c r="B367" s="35" t="s">
+      <c r="B367" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C367" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D367" s="35"/>
-      <c r="E367" s="35" t="s">
+      <c r="C367" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="33"/>
+      <c r="E367" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F367" s="35"/>
+      <c r="F367" s="33"/>
     </row>
     <row r="368" spans="2:6">
       <c r="B368" s="16" t="s">
@@ -15692,7 +15643,7 @@
       <c r="B369" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C369" s="39" t="s">
+      <c r="C369" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D369" s="23"/>
@@ -15705,7 +15656,7 @@
       <c r="B370" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="C370" s="39" t="s">
+      <c r="C370" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D370" s="23"/>
@@ -15731,7 +15682,7 @@
       <c r="B372" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C372" s="35" t="s">
+      <c r="C372" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D372" s="16"/>
@@ -16017,7 +15968,7 @@
       <c r="F394" s="13"/>
     </row>
     <row r="395" s="1" customFormat="1" spans="2:6">
-      <c r="B395" s="34" t="s">
+      <c r="B395" s="32" t="s">
         <v>470</v>
       </c>
       <c r="C395" s="22" t="s">
@@ -16033,7 +15984,7 @@
       <c r="B396" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C396" s="39" t="s">
+      <c r="C396" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D396" s="23"/>
@@ -16046,7 +15997,7 @@
       <c r="B397" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="C397" s="39" t="s">
+      <c r="C397" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D397" s="23"/>
@@ -16061,7 +16012,7 @@
       <c r="B398" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="C398" s="40" t="s">
+      <c r="C398" s="38" t="s">
         <v>7</v>
       </c>
       <c r="D398" s="28"/>
@@ -16214,82 +16165,82 @@
       <c r="E410" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F410" s="35"/>
+      <c r="F410" s="33"/>
     </row>
     <row r="411" spans="2:6">
       <c r="B411" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C411" s="35" t="s">
+      <c r="C411" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D411" s="28"/>
       <c r="E411" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="F411" s="44"/>
+      <c r="F411" s="42"/>
     </row>
     <row r="412" spans="2:6">
       <c r="B412" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="C412" s="35" t="s">
+      <c r="C412" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D412" s="28"/>
-      <c r="E412" s="45" t="s">
+      <c r="E412" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F412" s="44"/>
+      <c r="F412" s="42"/>
     </row>
     <row r="413" spans="2:6">
       <c r="B413" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C413" s="35" t="s">
+      <c r="C413" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D413" s="28"/>
-      <c r="E413" s="45" t="s">
+      <c r="E413" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F413" s="46"/>
+      <c r="F413" s="44"/>
     </row>
     <row r="414" spans="2:6">
-      <c r="B414" s="35" t="s">
+      <c r="B414" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C414" s="35" t="s">
+      <c r="C414" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D414" s="28"/>
-      <c r="E414" s="35" t="s">
+      <c r="E414" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="F414" s="35"/>
+      <c r="F414" s="33"/>
     </row>
     <row r="415" spans="2:6">
-      <c r="B415" s="47" t="s">
+      <c r="B415" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="C415" s="35" t="s">
+      <c r="C415" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D415" s="28"/>
-      <c r="E415" s="35" t="s">
+      <c r="E415" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F415" s="35"/>
+      <c r="F415" s="33"/>
     </row>
     <row r="416" spans="2:6">
       <c r="B416" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C416" s="35" t="s">
+      <c r="C416" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D416" s="28"/>
-      <c r="E416" s="45" t="s">
+      <c r="E416" s="43" t="s">
         <v>210</v>
       </c>
       <c r="F416" s="16"/>
@@ -16298,24 +16249,24 @@
       <c r="B417" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="C417" s="35" t="s">
+      <c r="C417" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D417" s="28"/>
-      <c r="E417" s="35" t="s">
+      <c r="E417" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F417" s="35"/>
+      <c r="F417" s="33"/>
     </row>
     <row r="418" spans="2:6">
       <c r="B418" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C418" s="35" t="s">
+      <c r="C418" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D418" s="28"/>
-      <c r="E418" s="45" t="s">
+      <c r="E418" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F418" s="16"/>
@@ -16376,7 +16327,7 @@
       <c r="B423" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="C423" s="35" t="s">
+      <c r="C423" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D423" s="28"/>
@@ -16389,7 +16340,7 @@
       <c r="B424" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="C424" s="35" t="s">
+      <c r="C424" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D424" s="16"/>
@@ -16402,7 +16353,7 @@
       <c r="B425" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="C425" s="35" t="s">
+      <c r="C425" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D425" s="28"/>
@@ -16415,7 +16366,7 @@
       <c r="B426" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C426" s="35" t="s">
+      <c r="C426" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D426" s="28"/>
@@ -16438,27 +16389,27 @@
       <c r="F427" s="21"/>
     </row>
     <row r="428" spans="2:6">
-      <c r="B428" s="35" t="s">
+      <c r="B428" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C428" s="35" t="s">
+      <c r="C428" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D428" s="28"/>
       <c r="E428" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F428" s="35"/>
+      <c r="F428" s="33"/>
     </row>
     <row r="429" spans="2:6">
-      <c r="B429" s="35" t="s">
+      <c r="B429" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C429" s="35" t="s">
+      <c r="C429" s="33" t="s">
         <v>235</v>
       </c>
       <c r="D429" s="28"/>
-      <c r="E429" s="35" t="s">
+      <c r="E429" s="33" t="s">
         <v>116</v>
       </c>
       <c r="F429" s="16" t="s">
@@ -16607,82 +16558,82 @@
       <c r="E441" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F441" s="35"/>
+      <c r="F441" s="33"/>
     </row>
     <row r="442" spans="2:6">
       <c r="B442" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C442" s="35" t="s">
+      <c r="C442" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D442" s="28"/>
       <c r="E442" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="F442" s="44"/>
+      <c r="F442" s="42"/>
     </row>
     <row r="443" spans="2:6">
       <c r="B443" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="C443" s="35" t="s">
+      <c r="C443" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D443" s="28"/>
-      <c r="E443" s="45" t="s">
+      <c r="E443" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F443" s="44"/>
+      <c r="F443" s="42"/>
     </row>
     <row r="444" spans="2:6">
       <c r="B444" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="C444" s="35" t="s">
+      <c r="C444" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D444" s="28"/>
-      <c r="E444" s="45" t="s">
+      <c r="E444" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F444" s="46"/>
+      <c r="F444" s="44"/>
     </row>
     <row r="445" spans="2:6">
-      <c r="B445" s="35" t="s">
+      <c r="B445" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="C445" s="35" t="s">
+      <c r="C445" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D445" s="28"/>
-      <c r="E445" s="35" t="s">
+      <c r="E445" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="F445" s="35"/>
+      <c r="F445" s="33"/>
     </row>
     <row r="446" spans="2:6">
-      <c r="B446" s="47" t="s">
+      <c r="B446" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="C446" s="35" t="s">
+      <c r="C446" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D446" s="28"/>
-      <c r="E446" s="35" t="s">
+      <c r="E446" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F446" s="35"/>
+      <c r="F446" s="33"/>
     </row>
     <row r="447" spans="2:6">
       <c r="B447" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="C447" s="35" t="s">
+      <c r="C447" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D447" s="28"/>
-      <c r="E447" s="45" t="s">
+      <c r="E447" s="43" t="s">
         <v>210</v>
       </c>
       <c r="F447" s="16"/>
@@ -16691,37 +16642,37 @@
       <c r="B448" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="C448" s="35" t="s">
+      <c r="C448" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D448" s="28"/>
-      <c r="E448" s="35" t="s">
+      <c r="E448" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F448" s="35"/>
+      <c r="F448" s="33"/>
     </row>
     <row r="449" spans="2:6">
       <c r="B449" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C449" s="35" t="s">
+      <c r="C449" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D449" s="28"/>
-      <c r="E449" s="45" t="s">
+      <c r="E449" s="43" t="s">
         <v>214</v>
       </c>
       <c r="F449" s="16"/>
     </row>
     <row r="450" spans="2:6">
-      <c r="B450" s="48" t="s">
+      <c r="B450" s="46" t="s">
         <v>331</v>
       </c>
       <c r="C450" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D450" s="23"/>
-      <c r="E450" s="48" t="s">
+      <c r="E450" s="46" t="s">
         <v>217</v>
       </c>
       <c r="F450" s="23"/>
@@ -16734,7 +16685,7 @@
         <v>7</v>
       </c>
       <c r="D451" s="23"/>
-      <c r="E451" s="48" t="s">
+      <c r="E451" s="46" t="s">
         <v>219</v>
       </c>
       <c r="F451" s="23"/>
@@ -16747,7 +16698,7 @@
         <v>7</v>
       </c>
       <c r="D452" s="23"/>
-      <c r="E452" s="48" t="s">
+      <c r="E452" s="46" t="s">
         <v>221</v>
       </c>
       <c r="F452" s="23"/>
@@ -16760,7 +16711,7 @@
         <v>7</v>
       </c>
       <c r="D453" s="23"/>
-      <c r="E453" s="48" t="s">
+      <c r="E453" s="46" t="s">
         <v>223</v>
       </c>
       <c r="F453" s="23"/>
@@ -16769,7 +16720,7 @@
       <c r="B454" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C454" s="35" t="s">
+      <c r="C454" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D454" s="28"/>
@@ -16782,7 +16733,7 @@
       <c r="B455" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="C455" s="35" t="s">
+      <c r="C455" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D455" s="16"/>
@@ -16795,7 +16746,7 @@
       <c r="B456" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C456" s="35" t="s">
+      <c r="C456" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D456" s="28"/>
@@ -16808,7 +16759,7 @@
       <c r="B457" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C457" s="35" t="s">
+      <c r="C457" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D457" s="28"/>
@@ -16831,27 +16782,27 @@
       <c r="F458" s="23"/>
     </row>
     <row r="459" spans="2:6">
-      <c r="B459" s="35" t="s">
+      <c r="B459" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="C459" s="35" t="s">
+      <c r="C459" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D459" s="28"/>
       <c r="E459" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F459" s="35"/>
+      <c r="F459" s="33"/>
     </row>
     <row r="460" spans="2:6">
-      <c r="B460" s="35" t="s">
+      <c r="B460" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C460" s="35" t="s">
+      <c r="C460" s="33" t="s">
         <v>235</v>
       </c>
       <c r="D460" s="28"/>
-      <c r="E460" s="35" t="s">
+      <c r="E460" s="33" t="s">
         <v>116</v>
       </c>
       <c r="F460" s="16" t="s">
@@ -16997,16 +16948,16 @@
         <v>27</v>
       </c>
       <c r="D472" s="16"/>
-      <c r="E472" s="45" t="s">
+      <c r="E472" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F472" s="44"/>
+      <c r="F472" s="42"/>
     </row>
     <row r="473" s="5" customFormat="1" spans="2:6">
       <c r="B473" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="C473" s="39" t="s">
+      <c r="C473" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D473" s="23"/>
@@ -17016,10 +16967,10 @@
       <c r="F473" s="23"/>
     </row>
     <row r="474" s="5" customFormat="1" spans="2:6">
-      <c r="B474" s="49" t="s">
+      <c r="B474" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C474" s="49" t="s">
+      <c r="C474" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D474" s="23"/>
@@ -17036,7 +16987,7 @@
         <v>169</v>
       </c>
       <c r="D475" s="14"/>
-      <c r="E475" s="50" t="s">
+      <c r="E475" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F475" s="14"/>
@@ -17062,16 +17013,16 @@
         <v>27</v>
       </c>
       <c r="D477" s="14"/>
-      <c r="E477" s="50" t="s">
+      <c r="E477" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F477" s="14"/>
     </row>
     <row r="478" s="5" customFormat="1" spans="2:6">
-      <c r="B478" s="49" t="s">
+      <c r="B478" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C478" s="49" t="s">
+      <c r="C478" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D478" s="23"/>
@@ -17219,10 +17170,10 @@
         <v>7</v>
       </c>
       <c r="D490" s="14"/>
-      <c r="E490" s="50" t="s">
+      <c r="E490" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F490" s="51"/>
+      <c r="F490" s="49"/>
     </row>
     <row r="491" s="5" customFormat="1" spans="2:6">
       <c r="B491" s="23" t="s">
@@ -17238,10 +17189,10 @@
       <c r="F491" s="23"/>
     </row>
     <row r="492" s="5" customFormat="1" spans="2:6">
-      <c r="B492" s="49" t="s">
+      <c r="B492" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C492" s="49" t="s">
+      <c r="C492" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D492" s="23"/>
@@ -17258,7 +17209,7 @@
         <v>169</v>
       </c>
       <c r="D493" s="14"/>
-      <c r="E493" s="50" t="s">
+      <c r="E493" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F493" s="14"/>
@@ -17284,16 +17235,16 @@
         <v>27</v>
       </c>
       <c r="D495" s="14"/>
-      <c r="E495" s="50" t="s">
+      <c r="E495" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F495" s="14"/>
     </row>
     <row r="496" s="5" customFormat="1" spans="2:6">
-      <c r="B496" s="49" t="s">
+      <c r="B496" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C496" s="49" t="s">
+      <c r="C496" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D496" s="23"/>
@@ -17441,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="D508" s="16"/>
-      <c r="E508" s="45" t="s">
+      <c r="E508" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F508" s="44"/>
+      <c r="F508" s="42"/>
     </row>
     <row r="509" s="5" customFormat="1" spans="2:6">
       <c r="B509" s="23" t="s">
@@ -17454,7 +17405,7 @@
         <v>7</v>
       </c>
       <c r="D509" s="23"/>
-      <c r="E509" s="52" t="s">
+      <c r="E509" s="50" t="s">
         <v>507</v>
       </c>
       <c r="F509" s="23"/>
@@ -17463,27 +17414,27 @@
       <c r="B510" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="C510" s="39" t="s">
+      <c r="C510" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D510" s="23"/>
       <c r="E510" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="F510" s="35"/>
+      <c r="F510" s="33"/>
     </row>
     <row r="511" s="4" customFormat="1" spans="2:6">
-      <c r="B511" s="49" t="s">
+      <c r="B511" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C511" s="49" t="s">
+      <c r="C511" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D511" s="23"/>
       <c r="E511" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F511" s="35"/>
+      <c r="F511" s="33"/>
     </row>
     <row r="512" spans="2:6">
       <c r="B512" s="14" t="s">
@@ -17493,7 +17444,7 @@
         <v>169</v>
       </c>
       <c r="D512" s="14"/>
-      <c r="E512" s="50" t="s">
+      <c r="E512" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F512" s="14"/>
@@ -17509,7 +17460,7 @@
       <c r="E513" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F513" s="35"/>
+      <c r="F513" s="33"/>
     </row>
     <row r="514" spans="2:6">
       <c r="B514" s="14" t="s">
@@ -17519,23 +17470,23 @@
         <v>27</v>
       </c>
       <c r="D514" s="14"/>
-      <c r="E514" s="50" t="s">
+      <c r="E514" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F514" s="14"/>
     </row>
     <row r="515" s="4" customFormat="1" spans="2:6">
-      <c r="B515" s="49" t="s">
+      <c r="B515" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C515" s="49" t="s">
+      <c r="C515" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D515" s="23"/>
       <c r="E515" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F515" s="35"/>
+      <c r="F515" s="33"/>
     </row>
     <row r="516" spans="2:6">
       <c r="B516" s="14" t="s">
@@ -17676,10 +17627,10 @@
         <v>7</v>
       </c>
       <c r="D527" s="14"/>
-      <c r="E527" s="50" t="s">
+      <c r="E527" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F527" s="51"/>
+      <c r="F527" s="49"/>
     </row>
     <row r="528" s="4" customFormat="1" spans="2:6">
       <c r="B528" s="23" t="s">
@@ -17689,10 +17640,10 @@
         <v>7</v>
       </c>
       <c r="D528" s="23"/>
-      <c r="E528" s="52" t="s">
+      <c r="E528" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="F528" s="46"/>
+      <c r="F528" s="44"/>
     </row>
     <row r="529" s="4" customFormat="1" spans="2:6">
       <c r="B529" s="23" t="s">
@@ -17705,20 +17656,20 @@
       <c r="E529" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F529" s="35"/>
+      <c r="F529" s="33"/>
     </row>
     <row r="530" s="4" customFormat="1" spans="2:6">
-      <c r="B530" s="49" t="s">
+      <c r="B530" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C530" s="49" t="s">
+      <c r="C530" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D530" s="23"/>
       <c r="E530" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F530" s="35"/>
+      <c r="F530" s="33"/>
     </row>
     <row r="531" spans="2:6">
       <c r="B531" s="14" t="s">
@@ -17728,7 +17679,7 @@
         <v>169</v>
       </c>
       <c r="D531" s="14"/>
-      <c r="E531" s="50" t="s">
+      <c r="E531" s="48" t="s">
         <v>171</v>
       </c>
       <c r="F531" s="14"/>
@@ -17744,7 +17695,7 @@
       <c r="E532" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F532" s="35"/>
+      <c r="F532" s="33"/>
     </row>
     <row r="533" spans="2:6">
       <c r="B533" s="14" t="s">
@@ -17754,23 +17705,23 @@
         <v>27</v>
       </c>
       <c r="D533" s="14"/>
-      <c r="E533" s="50" t="s">
+      <c r="E533" s="48" t="s">
         <v>175</v>
       </c>
       <c r="F533" s="14"/>
     </row>
     <row r="534" s="4" customFormat="1" spans="2:6">
-      <c r="B534" s="49" t="s">
+      <c r="B534" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C534" s="49" t="s">
+      <c r="C534" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D534" s="23"/>
       <c r="E534" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F534" s="35"/>
+      <c r="F534" s="33"/>
     </row>
     <row r="535" spans="2:6">
       <c r="B535" s="14" t="s">
@@ -17910,11 +17861,11 @@
       <c r="C546" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D546" s="53"/>
-      <c r="E546" s="45" t="s">
+      <c r="D546" s="51"/>
+      <c r="E546" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F546" s="35"/>
+      <c r="F546" s="33"/>
     </row>
     <row r="547" s="5" customFormat="1" spans="2:6">
       <c r="B547" s="23" t="s">
@@ -17940,33 +17891,33 @@
       <c r="E548" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F548" s="35"/>
+      <c r="F548" s="33"/>
     </row>
     <row r="549" s="4" customFormat="1" spans="2:6">
-      <c r="B549" s="49" t="s">
+      <c r="B549" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C549" s="49" t="s">
+      <c r="C549" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D549" s="23"/>
       <c r="E549" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F549" s="35"/>
+      <c r="F549" s="33"/>
     </row>
     <row r="550" spans="2:6">
       <c r="B550" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C550" s="37" t="s">
+      <c r="C550" s="35" t="s">
         <v>169</v>
       </c>
       <c r="D550" s="20"/>
-      <c r="E550" s="54" t="s">
+      <c r="E550" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="F550" s="37"/>
+      <c r="F550" s="35"/>
     </row>
     <row r="551" s="4" customFormat="1" spans="2:6">
       <c r="B551" s="23" t="s">
@@ -17979,7 +17930,7 @@
       <c r="E551" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F551" s="35"/>
+      <c r="F551" s="33"/>
     </row>
     <row r="552" spans="2:6">
       <c r="B552" s="14" t="s">
@@ -17989,23 +17940,23 @@
         <v>27</v>
       </c>
       <c r="D552" s="20"/>
-      <c r="E552" s="54" t="s">
+      <c r="E552" s="52" t="s">
         <v>175</v>
       </c>
       <c r="F552" s="14"/>
     </row>
     <row r="553" s="4" customFormat="1" spans="2:6">
-      <c r="B553" s="49" t="s">
+      <c r="B553" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C553" s="49" t="s">
+      <c r="C553" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D553" s="23"/>
       <c r="E553" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F553" s="35"/>
+      <c r="F553" s="33"/>
     </row>
     <row r="554" spans="2:6">
       <c r="B554" s="14" t="s">
@@ -18145,11 +18096,11 @@
       <c r="C565" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D565" s="53"/>
-      <c r="E565" s="45" t="s">
+      <c r="D565" s="51"/>
+      <c r="E565" s="43" t="s">
         <v>514</v>
       </c>
-      <c r="F565" s="35"/>
+      <c r="F565" s="33"/>
     </row>
     <row r="566" s="1" customFormat="1" spans="2:6">
       <c r="B566" s="23" t="s">
@@ -18180,10 +18131,10 @@
       <c r="F567" s="28"/>
     </row>
     <row r="568" s="1" customFormat="1" spans="2:6">
-      <c r="B568" s="49" t="s">
+      <c r="B568" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="C568" s="49" t="s">
+      <c r="C568" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D568" s="23"/>
@@ -18402,8 +18353,8 @@
       <c r="C585" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D585" s="48"/>
-      <c r="E585" s="52" t="s">
+      <c r="D585" s="46"/>
+      <c r="E585" s="50" t="s">
         <v>528</v>
       </c>
       <c r="F585" s="23"/>
@@ -18415,11 +18366,11 @@
       <c r="C586" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D586" s="53"/>
-      <c r="E586" s="45" t="s">
+      <c r="D586" s="51"/>
+      <c r="E586" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="F586" s="35"/>
+      <c r="F586" s="33"/>
     </row>
     <row r="587" spans="2:6">
       <c r="B587" s="23" t="s">
@@ -18432,39 +18383,39 @@
       <c r="E587" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F587" s="35"/>
+      <c r="F587" s="33"/>
     </row>
     <row r="588" spans="2:6">
-      <c r="B588" s="55" t="s">
+      <c r="B588" s="53" t="s">
         <v>531</v>
       </c>
       <c r="C588" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D588" s="56"/>
-      <c r="E588" s="57" t="s">
+      <c r="D588" s="54"/>
+      <c r="E588" s="55" t="s">
         <v>171</v>
       </c>
       <c r="F588" s="28"/>
     </row>
     <row r="589" spans="2:6">
-      <c r="B589" s="55" t="s">
+      <c r="B589" s="53" t="s">
         <v>532</v>
       </c>
       <c r="C589" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D589" s="53"/>
-      <c r="E589" s="45" t="s">
+      <c r="D589" s="51"/>
+      <c r="E589" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="F589" s="35"/>
+      <c r="F589" s="33"/>
     </row>
     <row r="590" spans="2:6">
-      <c r="B590" s="49" t="s">
+      <c r="B590" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C590" s="49" t="s">
+      <c r="C590" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D590" s="23"/>
@@ -18474,10 +18425,10 @@
       <c r="F590" s="23"/>
     </row>
     <row r="591" s="2" customFormat="1" spans="2:6">
-      <c r="B591" s="55" t="s">
+      <c r="B591" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="C591" s="55" t="s">
+      <c r="C591" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D591" s="28"/>
@@ -18487,10 +18438,10 @@
       <c r="F591" s="28"/>
     </row>
     <row r="592" s="2" customFormat="1" spans="2:6">
-      <c r="B592" s="55" t="s">
+      <c r="B592" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="C592" s="55" t="s">
+      <c r="C592" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D592" s="28"/>
@@ -18513,7 +18464,7 @@
       <c r="F593" s="28"/>
     </row>
     <row r="594" spans="2:6">
-      <c r="B594" s="34" t="s">
+      <c r="B594" s="32" t="s">
         <v>401</v>
       </c>
       <c r="C594" s="22" t="s">
@@ -18533,7 +18484,7 @@
         <v>7</v>
       </c>
       <c r="D595" s="24"/>
-      <c r="E595" s="58" t="s">
+      <c r="E595" s="56" t="s">
         <v>405</v>
       </c>
       <c r="F595" s="21"/>
@@ -18683,11 +18634,11 @@
       <c r="C607" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D607" s="53"/>
-      <c r="E607" s="45" t="s">
+      <c r="D607" s="51"/>
+      <c r="E607" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="F607" s="35"/>
+      <c r="F607" s="33"/>
     </row>
     <row r="608" spans="2:6">
       <c r="B608" s="23" t="s">
@@ -18703,10 +18654,10 @@
       <c r="F608" s="28"/>
     </row>
     <row r="609" spans="2:6">
-      <c r="B609" s="49" t="s">
+      <c r="B609" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="C609" s="49" t="s">
+      <c r="C609" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D609" s="23"/>
@@ -18918,8 +18869,8 @@
       <c r="C626" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D626" s="48"/>
-      <c r="E626" s="52" t="s">
+      <c r="D626" s="46"/>
+      <c r="E626" s="50" t="s">
         <v>528</v>
       </c>
       <c r="F626" s="23"/>
@@ -18931,11 +18882,11 @@
       <c r="C627" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D627" s="53"/>
-      <c r="E627" s="45" t="s">
+      <c r="D627" s="51"/>
+      <c r="E627" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="F627" s="35"/>
+      <c r="F627" s="33"/>
     </row>
     <row r="628" spans="2:6">
       <c r="B628" s="23" t="s">
@@ -18948,52 +18899,52 @@
       <c r="E628" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="F628" s="35"/>
+      <c r="F628" s="33"/>
     </row>
     <row r="629" spans="2:6">
-      <c r="B629" s="49" t="s">
+      <c r="B629" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C629" s="49" t="s">
+      <c r="C629" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D629" s="23"/>
       <c r="E629" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F629" s="35"/>
+      <c r="F629" s="33"/>
     </row>
     <row r="630" s="2" customFormat="1" spans="2:6">
-      <c r="B630" s="55" t="s">
+      <c r="B630" s="53" t="s">
         <v>531</v>
       </c>
       <c r="C630" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D630" s="56"/>
-      <c r="E630" s="57" t="s">
+      <c r="D630" s="54"/>
+      <c r="E630" s="55" t="s">
         <v>171</v>
       </c>
       <c r="F630" s="28"/>
     </row>
     <row r="631" spans="2:6">
-      <c r="B631" s="55" t="s">
+      <c r="B631" s="53" t="s">
         <v>551</v>
       </c>
       <c r="C631" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="D631" s="53"/>
-      <c r="E631" s="45" t="s">
+      <c r="D631" s="51"/>
+      <c r="E631" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="F631" s="35"/>
+      <c r="F631" s="33"/>
     </row>
     <row r="632" spans="2:6">
-      <c r="B632" s="49" t="s">
+      <c r="B632" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C632" s="49" t="s">
+      <c r="C632" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D632" s="23"/>
@@ -19016,10 +18967,10 @@
       <c r="F633" s="28"/>
     </row>
     <row r="634" spans="2:6">
-      <c r="B634" s="49" t="s">
+      <c r="B634" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="C634" s="49" t="s">
+      <c r="C634" s="47" t="s">
         <v>7</v>
       </c>
       <c r="D634" s="23"/>
@@ -19031,7 +18982,7 @@
       </c>
     </row>
     <row r="635" spans="2:6">
-      <c r="B635" s="34" t="s">
+      <c r="B635" s="32" t="s">
         <v>401</v>
       </c>
       <c r="C635" s="22" t="s">
@@ -19051,7 +19002,7 @@
         <v>7</v>
       </c>
       <c r="D636" s="24"/>
-      <c r="E636" s="58" t="s">
+      <c r="E636" s="56" t="s">
         <v>405</v>
       </c>
       <c r="F636" s="21"/>
